--- a/git.xlsx
+++ b/git.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
   <si>
     <t>创建仓库</t>
   </si>
@@ -928,6 +928,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">查看本地所有分支，当前分支前会加 * 号 </t>
     </r>
     <r>
@@ -1096,6 +1103,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>将储存的</t>
     </r>
     <r>
@@ -1131,12 +1145,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>远程连接库（分布式版本库）：</t>
     </r>
     <r>
@@ -1152,22 +1160,924 @@
     <r>
       <rPr>
         <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">http://github.com/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">可替换为 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">git@github.com: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF36E042"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>本地库内容上传至远程库</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1：在 github上创建库 作为远程库</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（库的名字要和本地的一样）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2：用 Git Bash 在对应的本地库下建立远程链接(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之前创建过不用重复创建</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">git remote add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>origin</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> https://github.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录GitHub的账户</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.git</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">3：本地库的所有内容推送到远程库：git push </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-u</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> origin master  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-u ：只用于库的第一次推送（将本地的master推送到远程的master并关联，在之后的推送、拉取可简化命令）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4：之后推送内容只需要在本地相对应的库中：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">git push origin master </t>
+    </r>
+  </si>
+  <si>
+    <t>删除远程原点连接</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">git remote rm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程git仓库</t>
+    </r>
+  </si>
+  <si>
+    <t>取消远程库连接</t>
+  </si>
+  <si>
+    <t>多远程库关联 例：</t>
+  </si>
+  <si>
+    <t>关联 gitHub</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git remote add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>github</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> git@github.com:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账户</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.git</t>
+    </r>
+  </si>
+  <si>
+    <t>git给远程库的默认名为origin、但要关联多个远程库就要用不同的名称来标识不同的远程库</t>
+  </si>
+  <si>
+    <t>关联 gitee</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git remote add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gitee</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> git@gitee.com:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账户</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.git</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">分别推送到不同的远程库： git push </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>github</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> master  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  git push </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gitee</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> master</t>
+    </r>
+  </si>
+  <si>
+    <t>本地库克隆远程库/抓取分支</t>
+  </si>
+  <si>
+    <t>1：在 github 创建库 作为远程库</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2：在需要克隆远程库的位置：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>git clone https://github.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录GitHub的账户</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.git  ||  git clone git@github.com:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账户名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.git</t>
+    </r>
+  </si>
+  <si>
+    <t>拉取远程分支并创建本地分支 方式一：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">git checkout -b </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分支</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> origin/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程分支</t>
+    </r>
+  </si>
+  <si>
+    <t>拉取远程分支并创建本地分支</t>
+  </si>
+  <si>
+    <t>拉取远程分支并创建本地分支 方式二：</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git fetch origin </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程分支X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本地分支X</t>
+    </r>
+  </si>
+  <si>
+    <t>在本地创建分支X但不会切换到 分支X</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>git branch -u origin/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程分支名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建立当前分支喝远程分支的映射关系（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注：哪个分支需要建立映射就切换到哪个分支</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>git branch --set-upstream-to origin/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远支名 本支名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>意思同上</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↑↑↑</t>
+    </r>
+  </si>
+  <si>
+    <t>撤销本地分支与远程分支的映射关系</t>
+  </si>
+  <si>
+    <t>git branch --unset-upstream</t>
+  </si>
+  <si>
+    <t>撤销当前分支与远程分支的映射关系</t>
+  </si>
+  <si>
+    <t>查看远程库信息</t>
+  </si>
+  <si>
+    <t>git remote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git remote -v </t>
+  </si>
+  <si>
+    <t>查看远程库详细信息</t>
+  </si>
+  <si>
+    <t>rebase</t>
+  </si>
+  <si>
+    <t>git rebase</t>
+  </si>
+  <si>
+    <t>将本地末push的分叉提交历史整理成直线(目的：查看历史提交的变化时更容易)</t>
+  </si>
+  <si>
+    <t>标签管理</t>
+  </si>
+  <si>
+    <t>git tag</t>
+  </si>
+  <si>
+    <t>查看所有标签</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git tag </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;tag_name&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>给当前分支打一个新标签</t>
+  </si>
+  <si>
+    <r>
+      <t>git</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;tag_name&gt; &lt;commit_id&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>给指定分支打一个标签</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git tag    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;tag_name&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;commit_id&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>给历史提交commit打标签</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git tag </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">http://github.com/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
+      <t>-a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">可替换为 </t>
+      <t xml:space="preserve">&lt;tag_name&gt; </t>
     </r>
     <r>
       <rPr>
@@ -1177,25 +2087,124 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">git@github.com: </t>
+      <t>-m ""</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;commit_id&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>给指定历史提交的commit打标签(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-a:指定标签名；-b:指定说明文字</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git tag -d </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;tag_name&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>删除本地标签</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git show </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;tag_name&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>查看标签信息</t>
+  </si>
+  <si>
+    <t>标签推送到远程</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git push origin </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;tag_naem&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>推送某个标签到远程库</t>
+  </si>
+  <si>
+    <t>git push origin --tags</t>
+  </si>
+  <si>
+    <t>一次性推送所有本地未推送到远程库的标签</t>
+  </si>
+  <si>
+    <r>
+      <t>删除远程标签</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="16"/>
-        <color rgb="FF36E042"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <t>本地库内容上传至远程库</t>
-  </si>
-  <si>
-    <r>
-      <t>1：在 github上创建库 作为远程库</t>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(先删除本地)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>git push origin :refs/rags/</t>
     </r>
     <r>
       <rPr>
@@ -1205,12 +2214,12 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>（库的名字要和本地的一样）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2：用 Git Bash 在对应的本地库下建立远程链接</t>
+      <t>&lt;tag_name&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>删除远程标签</t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +2229,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>(</t>
+      <t xml:space="preserve"> || </t>
     </r>
     <r>
       <rPr>
@@ -1230,506 +2239,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>之前创建过不用重复创建</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>git remote add origin https://github.com/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登录GitHub的账户</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>库名</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.git</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">3：本地库的所有内容推送到远程库：git push </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-u</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> origin master  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-u ：只用于库的第一次推送（将本地的master推送到远程的master并关联，在之后的推送、拉取可简化命令）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4：之后推送内容只需要在本地相对应的库中：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">git push origin master </t>
-    </r>
-  </si>
-  <si>
-    <t>推送分支</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git push origin </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>master</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>将本地该分支上所有内容推送到远程库（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>与你现在所在库的对应远程库</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">） </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>master : 要推送的本地分支</t>
-    </r>
-  </si>
-  <si>
-    <t>本地库克隆远程库/抓取分支</t>
-  </si>
-  <si>
-    <t>1：在 github 创建库 作为远程库</t>
-  </si>
-  <si>
-    <r>
-      <t>2：在需要克隆远程库的位置：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>git clone https://github.com/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登录GitHub的账户</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>库名</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.git  ||  git clone git@github.com:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>账户名</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>库名</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.git</t>
-    </r>
-  </si>
-  <si>
-    <t>拉取远程分支并创建本地分支 方式一：</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git checkout -b </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分支</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> origin/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程分支</t>
-    </r>
-  </si>
-  <si>
-    <t>拉取远程分支并创建本地分支</t>
-  </si>
-  <si>
-    <t>拉取远程分支并创建本地分支 方式二：</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git fetch origin </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程分支X</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本地分支X</t>
-    </r>
-  </si>
-  <si>
-    <t>在本地创建分支X但不会切换到 分支X</t>
-  </si>
-  <si>
-    <r>
-      <t>git branch -u origin/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程分支名</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>建立当前分支喝远程分支的映射关系（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注：哪个分支需要建立映射就切换到哪个分支</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>git branch --set-upstream-to origin/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远支名 本支名</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>意思同上</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↑↑↑</t>
-    </r>
-  </si>
-  <si>
-    <t>撤销本地分支与远程分支的映射关系</t>
-  </si>
-  <si>
-    <t>git branch --unset-upstream</t>
-  </si>
-  <si>
-    <t>撤销当前分支与远程分支的映射关系</t>
-  </si>
-  <si>
-    <t>查看远程库信息</t>
-  </si>
-  <si>
-    <t>git remote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git remote -v </t>
-  </si>
-  <si>
-    <t>查看远程库详细信息</t>
-  </si>
-  <si>
-    <t>删除远程原点连接</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git remote rm </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程git仓库</t>
+      <t>或者</t>
     </r>
   </si>
 </sst>
@@ -1743,7 +2253,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1816,6 +2326,19 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1831,7 +2354,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1839,46 +2362,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1897,8 +2383,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1921,28 +2443,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1959,8 +2459,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1968,7 +2483,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2024,12 +2547,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color rgb="FF36E042"/>
       <name val="宋体"/>
@@ -2037,14 +2554,14 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="16"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2059,7 +2576,7 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2074,43 +2591,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2128,18 +2621,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2147,6 +2628,102 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2164,36 +2741,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2206,55 +2753,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2268,17 +2785,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2307,41 +2848,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2356,15 +2882,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2373,10 +2890,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2385,137 +2902,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2570,9 +3087,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2580,15 +3094,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4338,31 +4873,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1713865</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="曲线连接符 29"/>
+        <xdr:cNvPr id="33" name="直接箭头连接符 32"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="2638425" y="25314275"/>
-          <a:ext cx="3456940" cy="615950"/>
+        <a:xfrm flipV="1">
+          <a:off x="5943600" y="40303450"/>
+          <a:ext cx="19050" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 17744"/>
-          </a:avLst>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow" w="med" len="med"/>
@@ -4675,10 +5208,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:G260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97:F97"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="25" customHeight="1" outlineLevelCol="6"/>
@@ -5370,8 +5903,8 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" customHeight="1" spans="1:7">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -5464,30 +5997,30 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" customHeight="1" spans="1:7">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
       <c r="G74" s="12"/>
     </row>
     <row r="75" customHeight="1" spans="1:7">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
     </row>
     <row r="76" customHeight="1" spans="1:7">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B76" s="20"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
@@ -5495,7 +6028,7 @@
       <c r="G76" s="12"/>
     </row>
     <row r="77" customHeight="1" spans="1:7">
-      <c r="A77" s="21" t="s">
+      <c r="A77" s="22" t="s">
         <v>89</v>
       </c>
       <c r="B77" s="2"/>
@@ -5506,7 +6039,7 @@
       <c r="G77" s="12"/>
     </row>
     <row r="78" customHeight="1" spans="1:7">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="22" t="s">
         <v>90</v>
       </c>
       <c r="B78" s="2"/>
@@ -5517,7 +6050,7 @@
       <c r="G78" s="12"/>
     </row>
     <row r="79" customHeight="1" spans="1:7">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="22" t="s">
         <v>91</v>
       </c>
       <c r="B79" s="2"/>
@@ -5539,10 +6072,8 @@
       <c r="G80" s="12"/>
     </row>
     <row r="81" customHeight="1" spans="1:7">
-      <c r="A81" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B81" s="22"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
@@ -5550,32 +6081,28 @@
       <c r="G81" s="12"/>
     </row>
     <row r="82" customHeight="1" spans="1:7">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="21"/>
+      <c r="G82" s="12"/>
+    </row>
+    <row r="83" customHeight="1" spans="1:7">
+      <c r="A83" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="12" t="s">
+      <c r="B83" s="11"/>
+      <c r="C83" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-    </row>
-    <row r="83" customHeight="1" spans="1:7">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
       <c r="G83" s="12"/>
     </row>
     <row r="84" customHeight="1" spans="1:7">
-      <c r="A84" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B84" s="20"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
@@ -5583,10 +6110,10 @@
       <c r="G84" s="12"/>
     </row>
     <row r="85" customHeight="1" spans="1:7">
-      <c r="A85" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B85" s="11"/>
+      <c r="A85" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" s="24"/>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
@@ -5594,122 +6121,122 @@
       <c r="G85" s="12"/>
     </row>
     <row r="86" customHeight="1" spans="1:7">
-      <c r="A86" s="21" t="s">
+      <c r="A86" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F86" s="27"/>
       <c r="G86" s="12"/>
     </row>
     <row r="87" customHeight="1" spans="1:7">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
+      <c r="A87" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
       <c r="G87" s="12"/>
     </row>
     <row r="88" customHeight="1" spans="1:7">
-      <c r="A88" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
+      <c r="A88" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
       <c r="G88" s="12"/>
     </row>
     <row r="89" customHeight="1" spans="1:7">
-      <c r="A89" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
       <c r="G89" s="12"/>
     </row>
     <row r="90" customHeight="1" spans="1:7">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
+      <c r="A90" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" s="21"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
       <c r="G90" s="12"/>
     </row>
     <row r="91" customHeight="1" spans="1:7">
-      <c r="A91" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B91" s="20"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
+      <c r="A91" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91" s="11"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
       <c r="G91" s="12"/>
     </row>
     <row r="92" customHeight="1" spans="1:7">
-      <c r="A92" s="2" t="s">
-        <v>103</v>
+      <c r="A92" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B92" s="2"/>
-      <c r="C92" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="12"/>
     </row>
     <row r="93" customHeight="1" spans="1:7">
-      <c r="A93" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2" t="s">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94" customHeight="1" spans="1:7">
+      <c r="A94" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="12"/>
-    </row>
-    <row r="94" customHeight="1" spans="1:7">
-      <c r="A94" s="2" t="s">
+      <c r="B94" s="21"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95" customHeight="1" spans="1:7">
+      <c r="A95" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2" t="s">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="12"/>
-    </row>
-    <row r="95" customHeight="1" spans="1:7">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="12"/>
     </row>
     <row r="96" customHeight="1" spans="1:7">
-      <c r="A96" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B96" s="20"/>
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -5717,90 +6244,102 @@
       <c r="G96" s="12"/>
     </row>
     <row r="97" customHeight="1" spans="1:7">
-      <c r="A97" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="A97" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" s="21"/>
+      <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="12"/>
     </row>
     <row r="98" customHeight="1" spans="1:7">
-      <c r="A98" s="2"/>
+      <c r="A98" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="12"/>
     </row>
     <row r="99" customHeight="1" spans="1:7">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B99" s="22"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
       <c r="G99" s="12"/>
     </row>
     <row r="100" customHeight="1" spans="1:7">
-      <c r="A100" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
+      <c r="A100" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
       <c r="G100" s="12"/>
     </row>
     <row r="101" customHeight="1" spans="1:7">
-      <c r="A101" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B101" s="11"/>
-      <c r="C101" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
       <c r="G101" s="12"/>
     </row>
     <row r="102" customHeight="1" spans="1:7">
-      <c r="A102" s="23"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="23"/>
+      <c r="A102" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B102" s="21"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
       <c r="G102" s="12"/>
     </row>
     <row r="103" customHeight="1" spans="1:7">
-      <c r="A103" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="B103" s="24"/>
+      <c r="A103" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
       <c r="G103" s="12"/>
     </row>
     <row r="104" customHeight="1" spans="1:7">
-      <c r="A104" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B104" s="23"/>
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
       <c r="G104" s="12"/>
     </row>
     <row r="105" customHeight="1" spans="1:7">
-      <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
+      <c r="A105" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B105" s="21"/>
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
@@ -5808,18 +6347,26 @@
       <c r="G105" s="12"/>
     </row>
     <row r="106" customHeight="1" spans="1:7">
-      <c r="A106" s="11"/>
+      <c r="A106" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="B106" s="11"/>
-      <c r="C106" s="12"/>
+      <c r="C106" s="12" t="s">
+        <v>119</v>
+      </c>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
     </row>
     <row r="107" customHeight="1" spans="1:7">
-      <c r="A107" s="11"/>
+      <c r="A107" s="11" t="s">
+        <v>121</v>
+      </c>
       <c r="B107" s="11"/>
-      <c r="C107" s="12"/>
+      <c r="C107" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
@@ -5828,28 +6375,16 @@
     <row r="108" customHeight="1" spans="1:7">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
       <c r="G108" s="12"/>
     </row>
-    <row r="109" customHeight="1" spans="1:7">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
+    <row r="109" customHeight="1" spans="7:7">
       <c r="G109" s="12"/>
     </row>
-    <row r="110" customHeight="1" spans="1:7">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
+    <row r="110" customHeight="1" spans="7:7">
       <c r="G110" s="12"/>
     </row>
     <row r="111" customHeight="1" spans="1:7">
@@ -5862,8 +6397,10 @@
       <c r="G111" s="12"/>
     </row>
     <row r="112" customHeight="1" spans="1:7">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
+      <c r="A112" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112" s="24"/>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
@@ -5871,9 +6408,13 @@
       <c r="G112" s="12"/>
     </row>
     <row r="113" customHeight="1" spans="1:7">
-      <c r="A113" s="11"/>
+      <c r="A113" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="B113" s="11"/>
-      <c r="C113" s="12"/>
+      <c r="C113" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
@@ -5889,8 +6430,10 @@
       <c r="G114" s="12"/>
     </row>
     <row r="115" customHeight="1" spans="1:7">
-      <c r="A115" s="11"/>
-      <c r="B115" s="11"/>
+      <c r="A115" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B115" s="24"/>
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
@@ -5898,99 +6441,137 @@
       <c r="G115" s="12"/>
     </row>
     <row r="116" customHeight="1" spans="1:7">
-      <c r="A116" s="11"/>
+      <c r="A116" s="11" t="s">
+        <v>127</v>
+      </c>
       <c r="B116" s="11"/>
-      <c r="C116" s="12"/>
+      <c r="C116" s="12" t="s">
+        <v>128</v>
+      </c>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
     </row>
     <row r="117" customHeight="1" spans="1:7">
-      <c r="A117" s="11"/>
+      <c r="A117" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="B117" s="11"/>
-      <c r="C117" s="12"/>
+      <c r="C117" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
     </row>
     <row r="118" customHeight="1" spans="1:7">
-      <c r="A118" s="11"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="12"/>
+      <c r="A118" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B118" s="29"/>
+      <c r="C118" s="12" t="s">
+        <v>132</v>
+      </c>
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
       <c r="G118" s="12"/>
     </row>
     <row r="119" customHeight="1" spans="1:7">
-      <c r="A119" s="11"/>
+      <c r="A119" s="11" t="s">
+        <v>133</v>
+      </c>
       <c r="B119" s="11"/>
-      <c r="C119" s="12"/>
+      <c r="C119" s="12" t="s">
+        <v>134</v>
+      </c>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
     </row>
     <row r="120" customHeight="1" spans="1:7">
-      <c r="A120" s="11"/>
+      <c r="A120" s="11" t="s">
+        <v>135</v>
+      </c>
       <c r="B120" s="11"/>
-      <c r="C120" s="12"/>
+      <c r="C120" s="12" t="s">
+        <v>136</v>
+      </c>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
       <c r="F120" s="12"/>
       <c r="G120" s="12"/>
     </row>
     <row r="121" customHeight="1" spans="1:7">
-      <c r="A121" s="11"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="12"/>
+      <c r="A121" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B121" s="26"/>
+      <c r="C121" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
     </row>
     <row r="122" customHeight="1" spans="1:7">
-      <c r="A122" s="11"/>
+      <c r="A122" s="11" t="s">
+        <v>139</v>
+      </c>
       <c r="B122" s="11"/>
-      <c r="C122" s="12"/>
+      <c r="C122" s="12" t="s">
+        <v>140</v>
+      </c>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
       <c r="G122" s="12"/>
     </row>
     <row r="123" customHeight="1" spans="1:7">
-      <c r="A123" s="11"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="12"/>
+      <c r="A123" s="30"/>
+      <c r="B123" s="30"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
       <c r="G123" s="12"/>
     </row>
     <row r="124" customHeight="1" spans="1:7">
-      <c r="A124" s="11"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="12"/>
+      <c r="A124" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B124" s="24"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
       <c r="G124" s="12"/>
     </row>
     <row r="125" customHeight="1" spans="1:7">
-      <c r="A125" s="11"/>
+      <c r="A125" s="11" t="s">
+        <v>142</v>
+      </c>
       <c r="B125" s="11"/>
-      <c r="C125" s="12"/>
+      <c r="C125" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
     </row>
     <row r="126" customHeight="1" spans="1:7">
-      <c r="A126" s="11"/>
+      <c r="A126" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="B126" s="11"/>
-      <c r="C126" s="12"/>
+      <c r="C126" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
@@ -6006,8 +6587,10 @@
       <c r="G127" s="12"/>
     </row>
     <row r="128" customHeight="1" spans="1:7">
-      <c r="A128" s="11"/>
-      <c r="B128" s="11"/>
+      <c r="A128" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B128" s="24"/>
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
@@ -6015,9 +6598,13 @@
       <c r="G128" s="12"/>
     </row>
     <row r="129" customHeight="1" spans="1:7">
-      <c r="A129" s="11"/>
+      <c r="A129" s="11" t="s">
+        <v>147</v>
+      </c>
       <c r="B129" s="11"/>
-      <c r="C129" s="12"/>
+      <c r="C129" s="14" t="s">
+        <v>148</v>
+      </c>
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
@@ -6428,8 +7015,706 @@
       <c r="F174" s="12"/>
       <c r="G174" s="12"/>
     </row>
+    <row r="175" customHeight="1" spans="1:7">
+      <c r="A175" s="11"/>
+      <c r="B175" s="11"/>
+      <c r="C175" s="12"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+    </row>
+    <row r="176" customHeight="1" spans="1:7">
+      <c r="A176" s="11"/>
+      <c r="B176" s="11"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="12"/>
+    </row>
+    <row r="177" customHeight="1" spans="1:7">
+      <c r="A177" s="11"/>
+      <c r="B177" s="11"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
+    </row>
+    <row r="178" customHeight="1" spans="1:7">
+      <c r="A178" s="11"/>
+      <c r="B178" s="11"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="12"/>
+    </row>
+    <row r="179" customHeight="1" spans="1:7">
+      <c r="A179" s="11"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+    </row>
+    <row r="180" customHeight="1" spans="1:7">
+      <c r="A180" s="11"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+    </row>
+    <row r="181" customHeight="1" spans="1:7">
+      <c r="A181" s="11"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+    </row>
+    <row r="182" customHeight="1" spans="1:7">
+      <c r="A182" s="11"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
+    </row>
+    <row r="183" customHeight="1" spans="1:7">
+      <c r="A183" s="11"/>
+      <c r="B183" s="11"/>
+      <c r="C183" s="12"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="12"/>
+    </row>
+    <row r="184" customHeight="1" spans="1:7">
+      <c r="A184" s="11"/>
+      <c r="B184" s="11"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
+    </row>
+    <row r="185" customHeight="1" spans="1:6">
+      <c r="A185" s="11"/>
+      <c r="B185" s="11"/>
+      <c r="C185" s="12"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+    </row>
+    <row r="186" customHeight="1" spans="1:6">
+      <c r="A186" s="11"/>
+      <c r="B186" s="11"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
+    </row>
+    <row r="187" customHeight="1" spans="1:6">
+      <c r="A187" s="11"/>
+      <c r="B187" s="11"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+    </row>
+    <row r="188" customHeight="1" spans="1:6">
+      <c r="A188" s="11"/>
+      <c r="B188" s="11"/>
+      <c r="C188" s="12"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+    </row>
+    <row r="189" customHeight="1" spans="1:6">
+      <c r="A189" s="11"/>
+      <c r="B189" s="11"/>
+      <c r="C189" s="12"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+    </row>
+    <row r="190" customHeight="1" spans="1:6">
+      <c r="A190" s="11"/>
+      <c r="B190" s="11"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+    </row>
+    <row r="191" customHeight="1" spans="1:6">
+      <c r="A191" s="11"/>
+      <c r="B191" s="11"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+    </row>
+    <row r="192" customHeight="1" spans="1:6">
+      <c r="A192" s="11"/>
+      <c r="B192" s="11"/>
+      <c r="C192" s="12"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
+    </row>
+    <row r="193" customHeight="1" spans="1:6">
+      <c r="A193" s="11"/>
+      <c r="B193" s="11"/>
+      <c r="C193" s="12"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
+    </row>
+    <row r="194" customHeight="1" spans="1:6">
+      <c r="A194" s="11"/>
+      <c r="B194" s="11"/>
+      <c r="C194" s="12"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
+    </row>
+    <row r="195" customHeight="1" spans="1:6">
+      <c r="A195" s="11"/>
+      <c r="B195" s="11"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+      <c r="F195" s="12"/>
+    </row>
+    <row r="196" customHeight="1" spans="1:6">
+      <c r="A196" s="11"/>
+      <c r="B196" s="11"/>
+      <c r="C196" s="12"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+      <c r="F196" s="12"/>
+    </row>
+    <row r="197" customHeight="1" spans="1:6">
+      <c r="A197" s="11"/>
+      <c r="B197" s="11"/>
+      <c r="C197" s="12"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
+      <c r="F197" s="12"/>
+    </row>
+    <row r="198" customHeight="1" spans="1:6">
+      <c r="A198" s="11"/>
+      <c r="B198" s="11"/>
+      <c r="C198" s="12"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12"/>
+    </row>
+    <row r="199" customHeight="1" spans="1:6">
+      <c r="A199" s="11"/>
+      <c r="B199" s="11"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12"/>
+    </row>
+    <row r="200" customHeight="1" spans="1:6">
+      <c r="A200" s="11"/>
+      <c r="B200" s="11"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+    </row>
+    <row r="201" customHeight="1" spans="1:6">
+      <c r="A201" s="11"/>
+      <c r="B201" s="11"/>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+    </row>
+    <row r="202" customHeight="1" spans="1:6">
+      <c r="A202" s="11"/>
+      <c r="B202" s="11"/>
+      <c r="C202" s="12"/>
+      <c r="D202" s="12"/>
+      <c r="E202" s="12"/>
+      <c r="F202" s="12"/>
+    </row>
+    <row r="203" customHeight="1" spans="1:6">
+      <c r="A203" s="11"/>
+      <c r="B203" s="11"/>
+      <c r="C203" s="12"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="12"/>
+      <c r="F203" s="12"/>
+    </row>
+    <row r="204" customHeight="1" spans="1:6">
+      <c r="A204" s="11"/>
+      <c r="B204" s="11"/>
+      <c r="C204" s="12"/>
+      <c r="D204" s="12"/>
+      <c r="E204" s="12"/>
+      <c r="F204" s="12"/>
+    </row>
+    <row r="205" customHeight="1" spans="1:6">
+      <c r="A205" s="11"/>
+      <c r="B205" s="11"/>
+      <c r="C205" s="12"/>
+      <c r="D205" s="12"/>
+      <c r="E205" s="12"/>
+      <c r="F205" s="12"/>
+    </row>
+    <row r="206" customHeight="1" spans="1:6">
+      <c r="A206" s="11"/>
+      <c r="B206" s="11"/>
+      <c r="C206" s="12"/>
+      <c r="D206" s="12"/>
+      <c r="E206" s="12"/>
+      <c r="F206" s="12"/>
+    </row>
+    <row r="207" customHeight="1" spans="1:6">
+      <c r="A207" s="11"/>
+      <c r="B207" s="11"/>
+      <c r="C207" s="12"/>
+      <c r="D207" s="12"/>
+      <c r="E207" s="12"/>
+      <c r="F207" s="12"/>
+    </row>
+    <row r="208" customHeight="1" spans="1:6">
+      <c r="A208" s="11"/>
+      <c r="B208" s="11"/>
+      <c r="C208" s="12"/>
+      <c r="D208" s="12"/>
+      <c r="E208" s="12"/>
+      <c r="F208" s="12"/>
+    </row>
+    <row r="209" customHeight="1" spans="1:6">
+      <c r="A209" s="11"/>
+      <c r="B209" s="11"/>
+      <c r="C209" s="12"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="12"/>
+      <c r="F209" s="12"/>
+    </row>
+    <row r="210" customHeight="1" spans="1:6">
+      <c r="A210" s="11"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="12"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="12"/>
+      <c r="F210" s="12"/>
+    </row>
+    <row r="211" customHeight="1" spans="1:6">
+      <c r="A211" s="11"/>
+      <c r="B211" s="11"/>
+      <c r="C211" s="12"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="12"/>
+      <c r="F211" s="12"/>
+    </row>
+    <row r="212" customHeight="1" spans="1:6">
+      <c r="A212" s="11"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="12"/>
+      <c r="D212" s="12"/>
+      <c r="E212" s="12"/>
+      <c r="F212" s="12"/>
+    </row>
+    <row r="213" customHeight="1" spans="1:6">
+      <c r="A213" s="11"/>
+      <c r="B213" s="11"/>
+      <c r="C213" s="12"/>
+      <c r="D213" s="12"/>
+      <c r="E213" s="12"/>
+      <c r="F213" s="12"/>
+    </row>
+    <row r="214" customHeight="1" spans="1:6">
+      <c r="A214" s="11"/>
+      <c r="B214" s="11"/>
+      <c r="C214" s="12"/>
+      <c r="D214" s="12"/>
+      <c r="E214" s="12"/>
+      <c r="F214" s="12"/>
+    </row>
+    <row r="215" customHeight="1" spans="1:6">
+      <c r="A215" s="11"/>
+      <c r="B215" s="11"/>
+      <c r="C215" s="12"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="12"/>
+      <c r="F215" s="12"/>
+    </row>
+    <row r="216" customHeight="1" spans="1:6">
+      <c r="A216" s="11"/>
+      <c r="B216" s="11"/>
+      <c r="C216" s="12"/>
+      <c r="D216" s="12"/>
+      <c r="E216" s="12"/>
+      <c r="F216" s="12"/>
+    </row>
+    <row r="217" customHeight="1" spans="1:6">
+      <c r="A217" s="11"/>
+      <c r="B217" s="11"/>
+      <c r="C217" s="12"/>
+      <c r="D217" s="12"/>
+      <c r="E217" s="12"/>
+      <c r="F217" s="12"/>
+    </row>
+    <row r="218" customHeight="1" spans="1:6">
+      <c r="A218" s="11"/>
+      <c r="B218" s="11"/>
+      <c r="C218" s="12"/>
+      <c r="D218" s="12"/>
+      <c r="E218" s="12"/>
+      <c r="F218" s="12"/>
+    </row>
+    <row r="219" customHeight="1" spans="1:6">
+      <c r="A219" s="11"/>
+      <c r="B219" s="11"/>
+      <c r="C219" s="12"/>
+      <c r="D219" s="12"/>
+      <c r="E219" s="12"/>
+      <c r="F219" s="12"/>
+    </row>
+    <row r="220" customHeight="1" spans="1:6">
+      <c r="A220" s="11"/>
+      <c r="B220" s="11"/>
+      <c r="C220" s="12"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="12"/>
+      <c r="F220" s="12"/>
+    </row>
+    <row r="221" customHeight="1" spans="1:6">
+      <c r="A221" s="11"/>
+      <c r="B221" s="11"/>
+      <c r="C221" s="12"/>
+      <c r="D221" s="12"/>
+      <c r="E221" s="12"/>
+      <c r="F221" s="12"/>
+    </row>
+    <row r="222" customHeight="1" spans="1:6">
+      <c r="A222" s="11"/>
+      <c r="B222" s="11"/>
+      <c r="C222" s="12"/>
+      <c r="D222" s="12"/>
+      <c r="E222" s="12"/>
+      <c r="F222" s="12"/>
+    </row>
+    <row r="223" customHeight="1" spans="1:6">
+      <c r="A223" s="11"/>
+      <c r="B223" s="11"/>
+      <c r="C223" s="12"/>
+      <c r="D223" s="12"/>
+      <c r="E223" s="12"/>
+      <c r="F223" s="12"/>
+    </row>
+    <row r="224" customHeight="1" spans="1:6">
+      <c r="A224" s="11"/>
+      <c r="B224" s="11"/>
+      <c r="C224" s="12"/>
+      <c r="D224" s="12"/>
+      <c r="E224" s="12"/>
+      <c r="F224" s="12"/>
+    </row>
+    <row r="225" customHeight="1" spans="1:6">
+      <c r="A225" s="11"/>
+      <c r="B225" s="11"/>
+      <c r="C225" s="12"/>
+      <c r="D225" s="12"/>
+      <c r="E225" s="12"/>
+      <c r="F225" s="12"/>
+    </row>
+    <row r="226" customHeight="1" spans="1:6">
+      <c r="A226" s="11"/>
+      <c r="B226" s="11"/>
+      <c r="C226" s="12"/>
+      <c r="D226" s="12"/>
+      <c r="E226" s="12"/>
+      <c r="F226" s="12"/>
+    </row>
+    <row r="227" customHeight="1" spans="1:6">
+      <c r="A227" s="11"/>
+      <c r="B227" s="11"/>
+      <c r="C227" s="12"/>
+      <c r="D227" s="12"/>
+      <c r="E227" s="12"/>
+      <c r="F227" s="12"/>
+    </row>
+    <row r="228" customHeight="1" spans="1:6">
+      <c r="A228" s="11"/>
+      <c r="B228" s="11"/>
+      <c r="C228" s="12"/>
+      <c r="D228" s="12"/>
+      <c r="E228" s="12"/>
+      <c r="F228" s="12"/>
+    </row>
+    <row r="229" customHeight="1" spans="1:6">
+      <c r="A229" s="11"/>
+      <c r="B229" s="11"/>
+      <c r="C229" s="12"/>
+      <c r="D229" s="12"/>
+      <c r="E229" s="12"/>
+      <c r="F229" s="12"/>
+    </row>
+    <row r="230" customHeight="1" spans="1:6">
+      <c r="A230" s="11"/>
+      <c r="B230" s="11"/>
+      <c r="C230" s="12"/>
+      <c r="D230" s="12"/>
+      <c r="E230" s="12"/>
+      <c r="F230" s="12"/>
+    </row>
+    <row r="231" customHeight="1" spans="1:6">
+      <c r="A231" s="11"/>
+      <c r="B231" s="11"/>
+      <c r="C231" s="12"/>
+      <c r="D231" s="12"/>
+      <c r="E231" s="12"/>
+      <c r="F231" s="12"/>
+    </row>
+    <row r="232" customHeight="1" spans="1:6">
+      <c r="A232" s="11"/>
+      <c r="B232" s="11"/>
+      <c r="C232" s="12"/>
+      <c r="D232" s="12"/>
+      <c r="E232" s="12"/>
+      <c r="F232" s="12"/>
+    </row>
+    <row r="233" customHeight="1" spans="1:6">
+      <c r="A233" s="11"/>
+      <c r="B233" s="11"/>
+      <c r="C233" s="12"/>
+      <c r="D233" s="12"/>
+      <c r="E233" s="12"/>
+      <c r="F233" s="12"/>
+    </row>
+    <row r="234" customHeight="1" spans="1:6">
+      <c r="A234" s="11"/>
+      <c r="B234" s="11"/>
+      <c r="C234" s="12"/>
+      <c r="D234" s="12"/>
+      <c r="E234" s="12"/>
+      <c r="F234" s="12"/>
+    </row>
+    <row r="235" customHeight="1" spans="1:6">
+      <c r="A235" s="11"/>
+      <c r="B235" s="11"/>
+      <c r="C235" s="12"/>
+      <c r="D235" s="12"/>
+      <c r="E235" s="12"/>
+      <c r="F235" s="12"/>
+    </row>
+    <row r="236" customHeight="1" spans="1:6">
+      <c r="A236" s="11"/>
+      <c r="B236" s="11"/>
+      <c r="C236" s="12"/>
+      <c r="D236" s="12"/>
+      <c r="E236" s="12"/>
+      <c r="F236" s="12"/>
+    </row>
+    <row r="237" customHeight="1" spans="1:6">
+      <c r="A237" s="11"/>
+      <c r="B237" s="11"/>
+      <c r="C237" s="12"/>
+      <c r="D237" s="12"/>
+      <c r="E237" s="12"/>
+      <c r="F237" s="12"/>
+    </row>
+    <row r="238" customHeight="1" spans="1:6">
+      <c r="A238" s="11"/>
+      <c r="B238" s="11"/>
+      <c r="C238" s="12"/>
+      <c r="D238" s="12"/>
+      <c r="E238" s="12"/>
+      <c r="F238" s="12"/>
+    </row>
+    <row r="239" customHeight="1" spans="1:6">
+      <c r="A239" s="11"/>
+      <c r="B239" s="11"/>
+      <c r="C239" s="12"/>
+      <c r="D239" s="12"/>
+      <c r="E239" s="12"/>
+      <c r="F239" s="12"/>
+    </row>
+    <row r="240" customHeight="1" spans="1:6">
+      <c r="A240" s="11"/>
+      <c r="B240" s="11"/>
+      <c r="C240" s="12"/>
+      <c r="D240" s="12"/>
+      <c r="E240" s="12"/>
+      <c r="F240" s="12"/>
+    </row>
+    <row r="241" customHeight="1" spans="1:6">
+      <c r="A241" s="11"/>
+      <c r="B241" s="11"/>
+      <c r="C241" s="12"/>
+      <c r="D241" s="12"/>
+      <c r="E241" s="12"/>
+      <c r="F241" s="12"/>
+    </row>
+    <row r="242" customHeight="1" spans="1:6">
+      <c r="A242" s="11"/>
+      <c r="B242" s="11"/>
+      <c r="C242" s="12"/>
+      <c r="D242" s="12"/>
+      <c r="E242" s="12"/>
+      <c r="F242" s="12"/>
+    </row>
+    <row r="243" customHeight="1" spans="1:6">
+      <c r="A243" s="11"/>
+      <c r="B243" s="11"/>
+      <c r="C243" s="12"/>
+      <c r="D243" s="12"/>
+      <c r="E243" s="12"/>
+      <c r="F243" s="12"/>
+    </row>
+    <row r="244" customHeight="1" spans="1:6">
+      <c r="A244" s="11"/>
+      <c r="B244" s="11"/>
+      <c r="C244" s="12"/>
+      <c r="D244" s="12"/>
+      <c r="E244" s="12"/>
+      <c r="F244" s="12"/>
+    </row>
+    <row r="245" customHeight="1" spans="1:6">
+      <c r="A245" s="11"/>
+      <c r="B245" s="11"/>
+      <c r="C245" s="12"/>
+      <c r="D245" s="12"/>
+      <c r="E245" s="12"/>
+      <c r="F245" s="12"/>
+    </row>
+    <row r="246" customHeight="1" spans="1:6">
+      <c r="A246" s="11"/>
+      <c r="B246" s="11"/>
+      <c r="C246" s="12"/>
+      <c r="D246" s="12"/>
+      <c r="E246" s="12"/>
+      <c r="F246" s="12"/>
+    </row>
+    <row r="247" customHeight="1" spans="1:6">
+      <c r="A247" s="11"/>
+      <c r="B247" s="11"/>
+      <c r="C247" s="12"/>
+      <c r="D247" s="12"/>
+      <c r="E247" s="12"/>
+      <c r="F247" s="12"/>
+    </row>
+    <row r="248" customHeight="1" spans="1:6">
+      <c r="A248" s="11"/>
+      <c r="B248" s="11"/>
+      <c r="C248" s="12"/>
+      <c r="D248" s="12"/>
+      <c r="E248" s="12"/>
+      <c r="F248" s="12"/>
+    </row>
+    <row r="249" customHeight="1" spans="1:6">
+      <c r="A249" s="11"/>
+      <c r="B249" s="11"/>
+      <c r="C249" s="12"/>
+      <c r="D249" s="12"/>
+      <c r="E249" s="12"/>
+      <c r="F249" s="12"/>
+    </row>
+    <row r="250" customHeight="1" spans="1:6">
+      <c r="A250" s="11"/>
+      <c r="B250" s="11"/>
+      <c r="C250" s="12"/>
+      <c r="D250" s="12"/>
+      <c r="E250" s="12"/>
+      <c r="F250" s="12"/>
+    </row>
+    <row r="251" customHeight="1" spans="1:6">
+      <c r="A251" s="11"/>
+      <c r="B251" s="11"/>
+      <c r="C251" s="12"/>
+      <c r="D251" s="12"/>
+      <c r="E251" s="12"/>
+      <c r="F251" s="12"/>
+    </row>
+    <row r="252" customHeight="1" spans="1:6">
+      <c r="A252" s="11"/>
+      <c r="B252" s="11"/>
+      <c r="C252" s="12"/>
+      <c r="D252" s="12"/>
+      <c r="E252" s="12"/>
+      <c r="F252" s="12"/>
+    </row>
+    <row r="253" customHeight="1" spans="1:6">
+      <c r="A253" s="11"/>
+      <c r="B253" s="11"/>
+      <c r="C253" s="12"/>
+      <c r="D253" s="12"/>
+      <c r="E253" s="12"/>
+      <c r="F253" s="12"/>
+    </row>
+    <row r="254" customHeight="1" spans="1:6">
+      <c r="A254" s="11"/>
+      <c r="B254" s="11"/>
+      <c r="C254" s="12"/>
+      <c r="D254" s="12"/>
+      <c r="E254" s="12"/>
+      <c r="F254" s="12"/>
+    </row>
+    <row r="255" customHeight="1" spans="1:6">
+      <c r="A255" s="11"/>
+      <c r="B255" s="11"/>
+      <c r="C255" s="12"/>
+      <c r="D255" s="12"/>
+      <c r="E255" s="12"/>
+      <c r="F255" s="12"/>
+    </row>
+    <row r="256" customHeight="1" spans="1:6">
+      <c r="A256" s="11"/>
+      <c r="B256" s="11"/>
+      <c r="C256" s="12"/>
+      <c r="D256" s="12"/>
+      <c r="E256" s="12"/>
+      <c r="F256" s="12"/>
+    </row>
+    <row r="257" customHeight="1" spans="1:6">
+      <c r="A257" s="11"/>
+      <c r="B257" s="11"/>
+      <c r="C257" s="12"/>
+      <c r="D257" s="12"/>
+      <c r="E257" s="12"/>
+      <c r="F257" s="12"/>
+    </row>
+    <row r="258" customHeight="1" spans="1:6">
+      <c r="A258" s="11"/>
+      <c r="B258" s="11"/>
+      <c r="C258" s="12"/>
+      <c r="D258" s="12"/>
+      <c r="E258" s="12"/>
+      <c r="F258" s="12"/>
+    </row>
+    <row r="259" customHeight="1" spans="1:6">
+      <c r="A259" s="11"/>
+      <c r="B259" s="11"/>
+      <c r="C259" s="12"/>
+      <c r="D259" s="12"/>
+      <c r="E259" s="12"/>
+      <c r="F259" s="12"/>
+    </row>
+    <row r="260" customHeight="1" spans="1:6">
+      <c r="A260" s="11"/>
+      <c r="B260" s="11"/>
+      <c r="C260" s="12"/>
+      <c r="D260" s="12"/>
+      <c r="E260" s="12"/>
+      <c r="F260" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="463">
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="A18:D18"/>
@@ -6549,19 +7834,16 @@
     <mergeCell ref="C84:F84"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="C85:F85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="A88:F88"/>
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="C89:F89"/>
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="C90:F90"/>
     <mergeCell ref="A91:B91"/>
     <mergeCell ref="C91:F91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="A92:F92"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="C93:F93"/>
     <mergeCell ref="A94:B94"/>
@@ -6594,10 +7876,6 @@
     <mergeCell ref="C107:F107"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="C108:F108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C109:F109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:F110"/>
     <mergeCell ref="A111:B111"/>
     <mergeCell ref="C111:F111"/>
     <mergeCell ref="A112:B112"/>
@@ -6726,7 +8004,180 @@
     <mergeCell ref="C173:F173"/>
     <mergeCell ref="A174:B174"/>
     <mergeCell ref="C174:F174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="C175:F175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="C176:F176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="C177:F177"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="C178:F178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="C179:F179"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="C180:F180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="C181:F181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="C182:F182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="C183:F183"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="C184:F184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="C185:F185"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="C186:F186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="C187:F187"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="C188:F188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="C189:F189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="C190:F190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="C191:F191"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="C192:F192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="C193:F193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="C194:F194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="C195:F195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="C196:F196"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="C197:F197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="C198:F198"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="C199:F199"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="C200:F200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="C201:F201"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="C202:F202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="C203:F203"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="C204:F204"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="C205:F205"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="C206:F206"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="C207:F207"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="C208:F208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="C209:F209"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="C210:F210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="C211:F211"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="C212:F212"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="C213:F213"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="C214:F214"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="C215:F215"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="C216:F216"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="C217:F217"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="C218:F218"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="C219:F219"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="C220:F220"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="C221:F221"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="C222:F222"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="C223:F223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="C224:F224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="C225:F225"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="C226:F226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="C227:F227"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="C228:F228"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="C229:F229"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="C230:F230"/>
+    <mergeCell ref="A231:B231"/>
+    <mergeCell ref="C231:F231"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="C232:F232"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="C233:F233"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="C234:F234"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="C235:F235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="C236:F236"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="C237:F237"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="C238:F238"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="C239:F239"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="C240:F240"/>
+    <mergeCell ref="A241:B241"/>
+    <mergeCell ref="C241:F241"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="C242:F242"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="C243:F243"/>
+    <mergeCell ref="A244:B244"/>
+    <mergeCell ref="C244:F244"/>
+    <mergeCell ref="A245:B245"/>
+    <mergeCell ref="C245:F245"/>
+    <mergeCell ref="A246:B246"/>
+    <mergeCell ref="C246:F246"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="C247:F247"/>
+    <mergeCell ref="A248:B248"/>
+    <mergeCell ref="C248:F248"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="C249:F249"/>
+    <mergeCell ref="A250:B250"/>
+    <mergeCell ref="C250:F250"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="C251:F251"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="C252:F252"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="C253:F253"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="C254:F254"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="C255:F255"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="C256:F256"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="C257:F257"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="C258:F258"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="C259:F259"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="C260:F260"/>
     <mergeCell ref="A1:E15"/>
+    <mergeCell ref="E86:F87"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/git.xlsx
+++ b/git.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20880" windowHeight="10350"/>
+    <workbookView windowWidth="22943" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
+  <si>
+    <r>
+      <t>https 和 ssh 的区别 前者可以随意克隆github上的项目 后者要克隆的项目必须拥是项目的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拥有者或管理员</t>
+    </r>
+  </si>
+  <si>
+    <t>生成ssh：git_Bash中 进入c:users/Administrator/.ssh  命令：ssh-keygen -t rsa -C 'your_email' 成功后.ssh/id_rsa.pub</t>
+  </si>
+  <si>
+    <r>
+      <t>(全局配置)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>指定name 和 email : 命令1：git config --global user.name "你的名字"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命令2：git config --blobal user.email "你的邮箱"</t>
+    </r>
+  </si>
   <si>
     <t>创建仓库</t>
   </si>
@@ -1145,6 +1202,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>远程连接库（分布式版本库）：</t>
     </r>
     <r>
@@ -1225,6 +1288,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>2：用 Git Bash 在对应的本地库下建立远程链接(</t>
     </r>
     <r>
@@ -1438,6 +1508,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">git remote add </t>
     </r>
     <r>
@@ -1509,6 +1587,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">git remote add </t>
     </r>
     <r>
@@ -1574,6 +1660,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">分别推送到不同的远程库： git push </t>
     </r>
     <r>
@@ -1798,6 +1892,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">git fetch origin </t>
     </r>
     <r>
@@ -1973,6 +2075,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">git tag </t>
     </r>
     <r>
@@ -1991,6 +2101,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>git</t>
     </r>
     <r>
@@ -2009,6 +2127,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">git tag    </t>
     </r>
     <r>
@@ -2047,6 +2173,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">git tag </t>
     </r>
     <r>
@@ -2102,6 +2236,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>给指定历史提交的commit打标签(</t>
     </r>
     <r>
@@ -2127,6 +2269,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">git tag -d </t>
     </r>
     <r>
@@ -2145,6 +2295,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">git show </t>
     </r>
     <r>
@@ -2166,6 +2324,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">git push origin </t>
     </r>
     <r>
@@ -2190,6 +2356,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>删除远程标签</t>
     </r>
     <r>
@@ -2197,6 +2370,7 @@
         <b/>
         <sz val="16"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>(先删除本地)</t>
@@ -2204,6 +2378,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>git push origin :refs/rags/</t>
     </r>
     <r>
@@ -2219,6 +2401,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>删除远程标签</t>
     </r>
     <r>
@@ -2241,6 +2431,9 @@
       </rPr>
       <t>或者</t>
     </r>
+  </si>
+  <si>
+    <t>忽略特殊文件</t>
   </si>
 </sst>
 </file>
@@ -2249,8 +2442,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="44">
@@ -2265,6 +2458,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2318,14 +2519,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2354,7 +2547,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2369,7 +2621,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2377,43 +2660,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2428,60 +2675,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -2491,7 +2684,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2575,11 +2768,10 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2591,25 +2783,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2621,7 +2801,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2639,13 +2819,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2657,7 +2831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2669,61 +2843,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2741,7 +2867,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2759,19 +2939,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2782,6 +2974,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2818,6 +3025,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2833,26 +3049,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2871,17 +3074,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2890,10 +3082,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2902,137 +3094,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3040,12 +3232,24 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3054,37 +3258,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3102,28 +3303,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3218,7 +3404,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="1685925" y="294005"/>
-          <a:ext cx="6905625" cy="4136390"/>
+          <a:ext cx="6078220" cy="4136390"/>
           <a:chOff x="4035" y="105"/>
           <a:chExt cx="14264" cy="7724"/>
         </a:xfrm>
@@ -4561,7 +4747,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6886575" y="663575"/>
+          <a:off x="6254115" y="663575"/>
           <a:ext cx="609600" cy="260350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4652,7 +4838,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7191375" y="923925"/>
+          <a:off x="6558915" y="923925"/>
           <a:ext cx="381000" cy="682625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4699,8 +4885,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5962650" y="488950"/>
-          <a:ext cx="809625" cy="327025"/>
+          <a:off x="5525135" y="488950"/>
+          <a:ext cx="614680" cy="327025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4781,13 +4967,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1714500</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -4797,8 +4983,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5067300" y="18021300"/>
-          <a:ext cx="2981325" cy="231775"/>
+          <a:off x="4629785" y="18973800"/>
+          <a:ext cx="2786380" cy="231775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4828,13 +5014,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -4844,8 +5030,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5038725" y="18040350"/>
-          <a:ext cx="3762375" cy="549275"/>
+          <a:off x="4601210" y="18992850"/>
+          <a:ext cx="3372485" cy="549275"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4875,13 +5061,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1562100</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1581150</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -4891,7 +5077,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5943600" y="40303450"/>
+          <a:off x="5506085" y="41255950"/>
           <a:ext cx="19050" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5208,16 +5394,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G260"/>
+  <dimension ref="A1:G263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:B91"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134:B134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="25" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="25.6296296296296" defaultRowHeight="25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="31.875" customWidth="1"/>
-    <col min="2" max="16382" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="31.8796296296296" customWidth="1"/>
+    <col min="2" max="16382" width="25.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -5325,2449 +5511,2491 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="4" t="s">
+    <row r="16" customHeight="1" spans="1:7">
+      <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:7">
+      <c r="A17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:7">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="7" t="s">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:7">
+      <c r="A19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="2" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:7">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:6">
+      <c r="A21" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="7" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:6">
+      <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="2" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="7" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:6">
+      <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:6">
-      <c r="A22" s="2" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="7" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:6">
+      <c r="A24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:6">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:6">
-      <c r="A24" s="8" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" customHeight="1" spans="1:6">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" customHeight="1" spans="1:6">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:6">
+      <c r="A27" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="7" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:6">
+      <c r="A28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:6">
-      <c r="A27" s="2" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="7" t="s">
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:6">
+      <c r="A29" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:6">
-      <c r="A28" s="2" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="7" t="s">
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:6">
+      <c r="A30" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:6">
-      <c r="A29" s="2" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="7" t="s">
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:6">
+      <c r="A31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="2" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="7" t="s">
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:6">
+      <c r="A32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:7">
-      <c r="A32" s="10" t="s">
+      <c r="B32" s="6"/>
+      <c r="C32" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:7">
-      <c r="A34" s="11" t="s">
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:7">
+      <c r="A35" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12" t="s">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:7">
+      <c r="A36" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:7">
-      <c r="A35" s="11" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:7">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
     </row>
     <row r="37" customHeight="1" spans="1:7">
       <c r="A37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
     </row>
     <row r="38" customHeight="1" spans="1:7">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="13" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
     </row>
     <row r="39" customHeight="1" spans="1:7">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:7">
+      <c r="A40" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12" t="s">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:7">
+      <c r="A41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:7">
-      <c r="A40" s="11" t="s">
+      <c r="B41" s="4"/>
+      <c r="C41" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" customHeight="1" spans="1:7">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" customHeight="1" spans="1:7">
       <c r="A42" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
     </row>
     <row r="43" customHeight="1" spans="1:7">
-      <c r="A43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="12"/>
+      <c r="A43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" customHeight="1" spans="1:7">
-      <c r="A44" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="45" customHeight="1" spans="1:7">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="14" t="s">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:7">
+      <c r="A46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="15"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:7">
+      <c r="A47" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:7">
-      <c r="A46" s="2" t="s">
+      <c r="B47" s="4"/>
+      <c r="C47" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2" t="s">
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:7">
+      <c r="A48" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" customHeight="1" spans="1:7">
-      <c r="A47" s="2" t="s">
+      <c r="B48" s="4"/>
+      <c r="C48" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2" t="s">
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:7">
+      <c r="A49" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" customHeight="1" spans="1:7">
-      <c r="A48" s="2" t="s">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2" t="s">
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="15"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:7">
+      <c r="A50" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49" customHeight="1" spans="1:7">
-      <c r="A49" s="11" t="s">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="14" t="s">
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="15"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:7">
+      <c r="A51" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:7">
-      <c r="A50" s="11" t="s">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="14" t="s">
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="15"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:7">
+      <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:7">
-      <c r="A51" s="11" t="s">
+      <c r="B52" s="4"/>
+      <c r="C52" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="14" t="s">
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:7">
+      <c r="A53" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-    </row>
-    <row r="52" customHeight="1" spans="1:7">
-      <c r="A52" s="11" t="s">
+      <c r="B53" s="4"/>
+      <c r="C53" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="14" t="s">
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:7">
+      <c r="A54" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-    </row>
-    <row r="53" customHeight="1" spans="1:7">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-    </row>
-    <row r="54" ht="51" customHeight="1" spans="1:7">
-      <c r="A54" s="15" t="s">
+      <c r="B54" s="4"/>
+      <c r="C54" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
       <c r="D54" s="15"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="12"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
     </row>
     <row r="55" customHeight="1" spans="1:7">
       <c r="A55" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
+      <c r="C55" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
     </row>
     <row r="56" customHeight="1" spans="1:7">
-      <c r="A56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="12" t="s">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+    </row>
+    <row r="57" ht="51" customHeight="1" spans="1:7">
+      <c r="A57" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-    </row>
-    <row r="57" customHeight="1" spans="1:7">
-      <c r="A57" s="11" t="s">
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="15"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:7">
+      <c r="A58" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="12" t="s">
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:7">
+      <c r="A59" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-    </row>
-    <row r="58" customHeight="1" spans="1:7">
-      <c r="A58" s="11" t="s">
+      <c r="B59" s="4"/>
+      <c r="C59" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-    </row>
-    <row r="59" customHeight="1" spans="1:7">
-      <c r="A59" s="11" t="s">
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:7">
+      <c r="A60" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="2" t="s">
+      <c r="B60" s="4"/>
+      <c r="C60" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="12"/>
-    </row>
-    <row r="60" customHeight="1" spans="1:7">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17" t="s">
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:7">
+      <c r="A61" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="B61" s="4"/>
+      <c r="C61" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:7">
+      <c r="A62" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-    </row>
-    <row r="61" customHeight="1" spans="1:7">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17" t="s">
+      <c r="B62" s="4"/>
+      <c r="C62" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="15"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:7">
+      <c r="A63" s="20"/>
+      <c r="B63" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-    </row>
-    <row r="62" customHeight="1" spans="1:7">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17" t="s">
+      <c r="C63" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:7">
+      <c r="A64" s="20"/>
+      <c r="B64" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-    </row>
-    <row r="63" customHeight="1" spans="1:7">
-      <c r="A63" s="11" t="s">
+      <c r="C64" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="2" t="s">
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:7">
+      <c r="A65" s="20"/>
+      <c r="B65" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="12"/>
-    </row>
-    <row r="64" customHeight="1" spans="1:7">
-      <c r="A64" s="11" t="s">
+      <c r="C65" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="2" t="s">
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+    </row>
+    <row r="66" customHeight="1" spans="1:7">
+      <c r="A66" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="12"/>
-    </row>
-    <row r="65" customHeight="1" spans="1:7">
-      <c r="A65" s="11" t="s">
+      <c r="B66" s="4"/>
+      <c r="C66" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" customHeight="1" spans="1:7">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="2"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="15"/>
     </row>
     <row r="67" customHeight="1" spans="1:7">
       <c r="A67" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="15"/>
     </row>
     <row r="68" customHeight="1" spans="1:7">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="2" t="s">
+      <c r="B68" s="4"/>
+      <c r="C68" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
     </row>
     <row r="69" customHeight="1" spans="1:7">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:7">
+      <c r="A70" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="2" t="s">
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" customHeight="1" spans="1:7">
+      <c r="A71" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-    </row>
-    <row r="70" customHeight="1" spans="1:7">
-      <c r="A70" s="11" t="s">
+      <c r="B71" s="4"/>
+      <c r="C71" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="2" t="s">
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" customHeight="1" spans="1:7">
+      <c r="A72" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-    </row>
-    <row r="71" customHeight="1" spans="1:7">
-      <c r="A71" s="11" t="s">
+      <c r="B72" s="4"/>
+      <c r="C72" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="2" t="s">
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" customHeight="1" spans="1:7">
+      <c r="A73" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-    </row>
-    <row r="72" customHeight="1" spans="1:7">
-      <c r="A72" s="11" t="s">
+      <c r="B73" s="4"/>
+      <c r="C73" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="2" t="s">
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" customHeight="1" spans="1:7">
+      <c r="A74" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-    </row>
-    <row r="73" customHeight="1" spans="1:7">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-    </row>
-    <row r="74" customHeight="1" spans="1:7">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="12"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
     </row>
     <row r="75" customHeight="1" spans="1:7">
-      <c r="A75" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
+      <c r="A75" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
     </row>
     <row r="76" customHeight="1" spans="1:7">
-      <c r="A76" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B76" s="21"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
     </row>
     <row r="77" customHeight="1" spans="1:7">
-      <c r="A77" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="12"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="15"/>
     </row>
     <row r="78" customHeight="1" spans="1:7">
       <c r="A78" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="12"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
     </row>
     <row r="79" customHeight="1" spans="1:7">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
     </row>
     <row r="80" customHeight="1" spans="1:7">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="12"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="15"/>
     </row>
     <row r="81" customHeight="1" spans="1:7">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
+      <c r="A81" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="15"/>
     </row>
     <row r="82" customHeight="1" spans="1:7">
-      <c r="A82" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B82" s="21"/>
-      <c r="G82" s="12"/>
+      <c r="A82" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
     </row>
     <row r="83" customHeight="1" spans="1:7">
-      <c r="A83" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11" t="s">
+      <c r="A83" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="12"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="15"/>
     </row>
     <row r="84" customHeight="1" spans="1:7">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
     </row>
     <row r="85" customHeight="1" spans="1:7">
       <c r="A85" s="24" t="s">
         <v>96</v>
       </c>
       <c r="B85" s="24"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
+      <c r="G85" s="15"/>
     </row>
     <row r="86" customHeight="1" spans="1:7">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B86" s="26" t="s">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="27" t="s">
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="15"/>
+    </row>
+    <row r="87" customHeight="1" spans="1:7">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+    </row>
+    <row r="88" customHeight="1" spans="1:7">
+      <c r="A88" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="F86" s="27"/>
-      <c r="G86" s="12"/>
-    </row>
-    <row r="87" customHeight="1" spans="1:7">
-      <c r="A87" s="25" t="s">
+      <c r="B88" s="23"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+    </row>
+    <row r="89" customHeight="1" spans="1:7">
+      <c r="A89" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B87" s="26" t="s">
+      <c r="B89" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="12"/>
-    </row>
-    <row r="88" customHeight="1" spans="1:7">
-      <c r="A88" s="28" t="s">
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="12"/>
-    </row>
-    <row r="89" customHeight="1" spans="1:7">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="15"/>
     </row>
     <row r="90" customHeight="1" spans="1:7">
-      <c r="A90" s="21" t="s">
+      <c r="A90" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B90" s="21"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
+      <c r="B90" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="15"/>
     </row>
     <row r="91" customHeight="1" spans="1:7">
-      <c r="A91" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B91" s="11"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
+      <c r="A91" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="15"/>
     </row>
     <row r="92" customHeight="1" spans="1:7">
-      <c r="A92" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="12"/>
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
     </row>
     <row r="93" customHeight="1" spans="1:7">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="12"/>
+      <c r="A93" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" s="24"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
     </row>
     <row r="94" customHeight="1" spans="1:7">
-      <c r="A94" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B94" s="21"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="12"/>
+      <c r="A94" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
     </row>
     <row r="95" customHeight="1" spans="1:7">
-      <c r="A95" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2" t="s">
+      <c r="A95" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="12"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="15"/>
     </row>
     <row r="96" customHeight="1" spans="1:7">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="12"/>
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="15"/>
     </row>
     <row r="97" customHeight="1" spans="1:7">
-      <c r="A97" s="21" t="s">
+      <c r="A97" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B97" s="21"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="12"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="15"/>
     </row>
     <row r="98" customHeight="1" spans="1:7">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2" t="s">
+      <c r="B98" s="6"/>
+      <c r="C98" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="12"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="15"/>
     </row>
     <row r="99" customHeight="1" spans="1:7">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="15"/>
+    </row>
+    <row r="100" customHeight="1" spans="1:7">
+      <c r="A100" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2" t="s">
+      <c r="B100" s="24"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="15"/>
+    </row>
+    <row r="101" customHeight="1" spans="1:7">
+      <c r="A101" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="12"/>
-    </row>
-    <row r="100" customHeight="1" spans="1:7">
-      <c r="A100" s="2" t="s">
+      <c r="B101" s="6"/>
+      <c r="C101" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2" t="s">
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="15"/>
+    </row>
+    <row r="102" customHeight="1" spans="1:7">
+      <c r="A102" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="12"/>
-    </row>
-    <row r="101" customHeight="1" spans="1:7">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="12"/>
-    </row>
-    <row r="102" customHeight="1" spans="1:7">
-      <c r="A102" s="21" t="s">
+      <c r="B102" s="6"/>
+      <c r="C102" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B102" s="21"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="12"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="15"/>
     </row>
     <row r="103" customHeight="1" spans="1:7">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2" t="s">
+      <c r="B103" s="6"/>
+      <c r="C103" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="12"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="15"/>
     </row>
     <row r="104" customHeight="1" spans="1:7">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="12"/>
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="15"/>
     </row>
     <row r="105" customHeight="1" spans="1:7">
-      <c r="A105" s="21" t="s">
+      <c r="A105" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B105" s="21"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="15"/>
     </row>
     <row r="106" customHeight="1" spans="1:7">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B106" s="11"/>
-      <c r="C106" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="15"/>
     </row>
     <row r="107" customHeight="1" spans="1:7">
-      <c r="A107" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B107" s="11"/>
-      <c r="C107" s="12" t="s">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="15"/>
+    </row>
+    <row r="108" customHeight="1" spans="1:7">
+      <c r="A108" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
-    </row>
-    <row r="108" customHeight="1" spans="1:7">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="12"/>
-    </row>
-    <row r="109" customHeight="1" spans="7:7">
-      <c r="G109" s="12"/>
-    </row>
-    <row r="110" customHeight="1" spans="7:7">
-      <c r="G110" s="12"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+    </row>
+    <row r="109" customHeight="1" spans="1:7">
+      <c r="A109" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B109" s="4"/>
+      <c r="C109" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+    </row>
+    <row r="110" customHeight="1" spans="1:7">
+      <c r="A110" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B110" s="4"/>
+      <c r="C110" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
     </row>
     <row r="111" customHeight="1" spans="1:7">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
-    </row>
-    <row r="112" customHeight="1" spans="1:7">
-      <c r="A112" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="B112" s="24"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
-    </row>
-    <row r="113" customHeight="1" spans="1:7">
-      <c r="A113" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B113" s="11"/>
-      <c r="C113" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12"/>
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="15"/>
+    </row>
+    <row r="112" customHeight="1" spans="7:7">
+      <c r="G112" s="15"/>
+    </row>
+    <row r="113" customHeight="1" spans="7:7">
+      <c r="G113" s="15"/>
     </row>
     <row r="114" customHeight="1" spans="1:7">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
     </row>
     <row r="115" customHeight="1" spans="1:7">
-      <c r="A115" s="24" t="s">
+      <c r="A115" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B115" s="24"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
     </row>
     <row r="116" customHeight="1" spans="1:7">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B116" s="11"/>
-      <c r="C116" s="12" t="s">
+      <c r="B116" s="4"/>
+      <c r="C116" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
     </row>
     <row r="117" customHeight="1" spans="1:7">
-      <c r="A117" s="11" t="s">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+    </row>
+    <row r="118" customHeight="1" spans="1:7">
+      <c r="A118" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B117" s="11"/>
-      <c r="C117" s="12" t="s">
+      <c r="B118" s="23"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+    </row>
+    <row r="119" customHeight="1" spans="1:7">
+      <c r="A119" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
-    </row>
-    <row r="118" customHeight="1" spans="1:7">
-      <c r="A118" s="26" t="s">
+      <c r="B119" s="4"/>
+      <c r="C119" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B118" s="29"/>
-      <c r="C118" s="12" t="s">
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+    </row>
+    <row r="120" customHeight="1" spans="1:7">
+      <c r="A120" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
-    </row>
-    <row r="119" customHeight="1" spans="1:7">
-      <c r="A119" s="11" t="s">
+      <c r="B120" s="4"/>
+      <c r="C120" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B119" s="11"/>
-      <c r="C119" s="12" t="s">
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+    </row>
+    <row r="121" customHeight="1" spans="1:7">
+      <c r="A121" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="12"/>
-    </row>
-    <row r="120" customHeight="1" spans="1:7">
-      <c r="A120" s="11" t="s">
+      <c r="B121" s="16"/>
+      <c r="C121" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B120" s="11"/>
-      <c r="C120" s="12" t="s">
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+    </row>
+    <row r="122" customHeight="1" spans="1:7">
+      <c r="A122" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
-    </row>
-    <row r="121" customHeight="1" spans="1:7">
-      <c r="A121" s="26" t="s">
+      <c r="B122" s="4"/>
+      <c r="C122" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B121" s="26"/>
-      <c r="C121" s="14" t="s">
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+    </row>
+    <row r="123" customHeight="1" spans="1:7">
+      <c r="A123" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="12"/>
-    </row>
-    <row r="122" customHeight="1" spans="1:7">
-      <c r="A122" s="11" t="s">
+      <c r="B123" s="4"/>
+      <c r="C123" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B122" s="11"/>
-      <c r="C122" s="12" t="s">
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+    </row>
+    <row r="124" customHeight="1" spans="1:7">
+      <c r="A124" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="12"/>
-      <c r="G122" s="12"/>
-    </row>
-    <row r="123" customHeight="1" spans="1:7">
-      <c r="A123" s="30"/>
-      <c r="B123" s="30"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="12"/>
-    </row>
-    <row r="124" customHeight="1" spans="1:7">
-      <c r="A124" s="24" t="s">
+      <c r="B124" s="6"/>
+      <c r="C124" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B124" s="24"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="12"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
     </row>
     <row r="125" customHeight="1" spans="1:7">
-      <c r="A125" s="11" t="s">
+      <c r="A125" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B125" s="11"/>
-      <c r="C125" s="12" t="s">
+      <c r="B125" s="4"/>
+      <c r="C125" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="12"/>
-      <c r="G125" s="12"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
     </row>
     <row r="126" customHeight="1" spans="1:7">
-      <c r="A126" s="11" t="s">
+      <c r="A126" s="9"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="15"/>
+    </row>
+    <row r="127" customHeight="1" spans="1:7">
+      <c r="A127" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B126" s="11"/>
-      <c r="C126" s="12" t="s">
+      <c r="B127" s="23"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="15"/>
+    </row>
+    <row r="128" customHeight="1" spans="1:7">
+      <c r="A128" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
-    </row>
-    <row r="127" customHeight="1" spans="1:7">
-      <c r="A127" s="11"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="12"/>
-    </row>
-    <row r="128" customHeight="1" spans="1:7">
-      <c r="A128" s="24" t="s">
+      <c r="B128" s="4"/>
+      <c r="C128" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B128" s="24"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="12"/>
-      <c r="G128" s="12"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
     </row>
     <row r="129" customHeight="1" spans="1:7">
-      <c r="A129" s="11" t="s">
+      <c r="A129" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B129" s="11"/>
-      <c r="C129" s="14" t="s">
+      <c r="B129" s="4"/>
+      <c r="C129" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
-      <c r="F129" s="12"/>
-      <c r="G129" s="12"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
     </row>
     <row r="130" customHeight="1" spans="1:7">
-      <c r="A130" s="11"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12"/>
-      <c r="G130" s="12"/>
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
     </row>
     <row r="131" customHeight="1" spans="1:7">
-      <c r="A131" s="11"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="12"/>
-      <c r="G131" s="12"/>
+      <c r="A131" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B131" s="23"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
     </row>
     <row r="132" customHeight="1" spans="1:7">
-      <c r="A132" s="11"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="12"/>
+      <c r="A132" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B132" s="4"/>
+      <c r="C132" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
     </row>
     <row r="133" customHeight="1" spans="1:7">
-      <c r="A133" s="11"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="12"/>
-      <c r="G133" s="12"/>
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
     </row>
     <row r="134" customHeight="1" spans="1:7">
-      <c r="A134" s="11"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="12"/>
-      <c r="G134" s="12"/>
+      <c r="A134" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B134" s="28"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
     </row>
     <row r="135" customHeight="1" spans="1:7">
-      <c r="A135" s="11"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="12"/>
-      <c r="F135" s="12"/>
-      <c r="G135" s="12"/>
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
     </row>
     <row r="136" customHeight="1" spans="1:7">
-      <c r="A136" s="11"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="12"/>
-      <c r="F136" s="12"/>
-      <c r="G136" s="12"/>
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
     </row>
     <row r="137" customHeight="1" spans="1:7">
-      <c r="A137" s="11"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="12"/>
-      <c r="F137" s="12"/>
-      <c r="G137" s="12"/>
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
     </row>
     <row r="138" customHeight="1" spans="1:7">
-      <c r="A138" s="11"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="12"/>
-      <c r="F138" s="12"/>
-      <c r="G138" s="12"/>
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
     </row>
     <row r="139" customHeight="1" spans="1:7">
-      <c r="A139" s="11"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="12"/>
-      <c r="F139" s="12"/>
-      <c r="G139" s="12"/>
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
     </row>
     <row r="140" customHeight="1" spans="1:7">
-      <c r="A140" s="11"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12"/>
-      <c r="G140" s="12"/>
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
     </row>
     <row r="141" customHeight="1" spans="1:7">
-      <c r="A141" s="11"/>
-      <c r="B141" s="11"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="12"/>
-      <c r="F141" s="12"/>
-      <c r="G141" s="12"/>
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
     </row>
     <row r="142" customHeight="1" spans="1:7">
-      <c r="A142" s="11"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="12"/>
-      <c r="D142" s="12"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="12"/>
-      <c r="G142" s="12"/>
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
     </row>
     <row r="143" customHeight="1" spans="1:7">
-      <c r="A143" s="11"/>
-      <c r="B143" s="11"/>
-      <c r="C143" s="12"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="12"/>
-      <c r="F143" s="12"/>
-      <c r="G143" s="12"/>
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
     </row>
     <row r="144" customHeight="1" spans="1:7">
-      <c r="A144" s="11"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="12"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="12"/>
-      <c r="G144" s="12"/>
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
     </row>
     <row r="145" customHeight="1" spans="1:7">
-      <c r="A145" s="11"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="12"/>
-      <c r="D145" s="12"/>
-      <c r="E145" s="12"/>
-      <c r="F145" s="12"/>
-      <c r="G145" s="12"/>
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
     </row>
     <row r="146" customHeight="1" spans="1:7">
-      <c r="A146" s="11"/>
-      <c r="B146" s="11"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="12"/>
-      <c r="G146" s="12"/>
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
     </row>
     <row r="147" customHeight="1" spans="1:7">
-      <c r="A147" s="11"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="12"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="12"/>
-      <c r="F147" s="12"/>
-      <c r="G147" s="12"/>
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
     </row>
     <row r="148" customHeight="1" spans="1:7">
-      <c r="A148" s="11"/>
-      <c r="B148" s="11"/>
-      <c r="C148" s="12"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="12"/>
-      <c r="G148" s="12"/>
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
     </row>
     <row r="149" customHeight="1" spans="1:7">
-      <c r="A149" s="11"/>
-      <c r="B149" s="11"/>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="12"/>
-      <c r="G149" s="12"/>
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
     </row>
     <row r="150" customHeight="1" spans="1:7">
-      <c r="A150" s="11"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="12"/>
-      <c r="G150" s="12"/>
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
     </row>
     <row r="151" customHeight="1" spans="1:7">
-      <c r="A151" s="11"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="12"/>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="12"/>
-      <c r="G151" s="12"/>
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
     </row>
     <row r="152" customHeight="1" spans="1:7">
-      <c r="A152" s="11"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="12"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="12"/>
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
     </row>
     <row r="153" customHeight="1" spans="1:7">
-      <c r="A153" s="11"/>
-      <c r="B153" s="11"/>
-      <c r="C153" s="12"/>
-      <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="12"/>
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
     </row>
     <row r="154" customHeight="1" spans="1:7">
-      <c r="A154" s="11"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="12"/>
-      <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="12"/>
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
     </row>
     <row r="155" customHeight="1" spans="1:7">
-      <c r="A155" s="11"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="12"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="12"/>
-      <c r="F155" s="12"/>
-      <c r="G155" s="12"/>
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
     </row>
     <row r="156" customHeight="1" spans="1:7">
-      <c r="A156" s="11"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="12"/>
-      <c r="D156" s="12"/>
-      <c r="E156" s="12"/>
-      <c r="F156" s="12"/>
-      <c r="G156" s="12"/>
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
     </row>
     <row r="157" customHeight="1" spans="1:7">
-      <c r="A157" s="11"/>
-      <c r="B157" s="11"/>
-      <c r="C157" s="12"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="12"/>
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
     </row>
     <row r="158" customHeight="1" spans="1:7">
-      <c r="A158" s="11"/>
-      <c r="B158" s="11"/>
-      <c r="C158" s="12"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="12"/>
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
     </row>
     <row r="159" customHeight="1" spans="1:7">
-      <c r="A159" s="11"/>
-      <c r="B159" s="11"/>
-      <c r="C159" s="12"/>
-      <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
-      <c r="F159" s="12"/>
-      <c r="G159" s="12"/>
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
     </row>
     <row r="160" customHeight="1" spans="1:7">
-      <c r="A160" s="11"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="12"/>
-      <c r="D160" s="12"/>
-      <c r="E160" s="12"/>
-      <c r="F160" s="12"/>
-      <c r="G160" s="12"/>
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
     </row>
     <row r="161" customHeight="1" spans="1:7">
-      <c r="A161" s="11"/>
-      <c r="B161" s="11"/>
-      <c r="C161" s="12"/>
-      <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
-      <c r="F161" s="12"/>
-      <c r="G161" s="12"/>
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
     </row>
     <row r="162" customHeight="1" spans="1:7">
-      <c r="A162" s="11"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="12"/>
-      <c r="D162" s="12"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="12"/>
-      <c r="G162" s="12"/>
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
     </row>
     <row r="163" customHeight="1" spans="1:7">
-      <c r="A163" s="11"/>
-      <c r="B163" s="11"/>
-      <c r="C163" s="12"/>
-      <c r="D163" s="12"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="12"/>
-      <c r="G163" s="12"/>
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15"/>
     </row>
     <row r="164" customHeight="1" spans="1:7">
-      <c r="A164" s="11"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="12"/>
-      <c r="D164" s="12"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="12"/>
-      <c r="G164" s="12"/>
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
     </row>
     <row r="165" customHeight="1" spans="1:7">
-      <c r="A165" s="11"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="12"/>
-      <c r="D165" s="12"/>
-      <c r="E165" s="12"/>
-      <c r="F165" s="12"/>
-      <c r="G165" s="12"/>
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
     </row>
     <row r="166" customHeight="1" spans="1:7">
-      <c r="A166" s="11"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="12"/>
-      <c r="D166" s="12"/>
-      <c r="E166" s="12"/>
-      <c r="F166" s="12"/>
-      <c r="G166" s="12"/>
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="15"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
     </row>
     <row r="167" customHeight="1" spans="1:7">
-      <c r="A167" s="11"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="12"/>
-      <c r="D167" s="12"/>
-      <c r="E167" s="12"/>
-      <c r="F167" s="12"/>
-      <c r="G167" s="12"/>
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="15"/>
     </row>
     <row r="168" customHeight="1" spans="1:7">
-      <c r="A168" s="11"/>
-      <c r="B168" s="11"/>
-      <c r="C168" s="12"/>
-      <c r="D168" s="12"/>
-      <c r="E168" s="12"/>
-      <c r="F168" s="12"/>
-      <c r="G168" s="12"/>
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="15"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
     </row>
     <row r="169" customHeight="1" spans="1:7">
-      <c r="A169" s="11"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="12"/>
-      <c r="D169" s="12"/>
-      <c r="E169" s="12"/>
-      <c r="F169" s="12"/>
-      <c r="G169" s="12"/>
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="15"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="15"/>
     </row>
     <row r="170" customHeight="1" spans="1:7">
-      <c r="A170" s="11"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="12"/>
-      <c r="D170" s="12"/>
-      <c r="E170" s="12"/>
-      <c r="F170" s="12"/>
-      <c r="G170" s="12"/>
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="15"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="15"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="15"/>
     </row>
     <row r="171" customHeight="1" spans="1:7">
-      <c r="A171" s="11"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="12"/>
-      <c r="D171" s="12"/>
-      <c r="E171" s="12"/>
-      <c r="F171" s="12"/>
-      <c r="G171" s="12"/>
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="15"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="15"/>
     </row>
     <row r="172" customHeight="1" spans="1:7">
-      <c r="A172" s="11"/>
-      <c r="B172" s="11"/>
-      <c r="C172" s="12"/>
-      <c r="D172" s="12"/>
-      <c r="E172" s="12"/>
-      <c r="F172" s="12"/>
-      <c r="G172" s="12"/>
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="15"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="15"/>
     </row>
     <row r="173" customHeight="1" spans="1:7">
-      <c r="A173" s="11"/>
-      <c r="B173" s="11"/>
-      <c r="C173" s="12"/>
-      <c r="D173" s="12"/>
-      <c r="E173" s="12"/>
-      <c r="F173" s="12"/>
-      <c r="G173" s="12"/>
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="15"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="15"/>
     </row>
     <row r="174" customHeight="1" spans="1:7">
-      <c r="A174" s="11"/>
-      <c r="B174" s="11"/>
-      <c r="C174" s="12"/>
-      <c r="D174" s="12"/>
-      <c r="E174" s="12"/>
-      <c r="F174" s="12"/>
-      <c r="G174" s="12"/>
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="15"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="15"/>
+      <c r="F174" s="15"/>
+      <c r="G174" s="15"/>
     </row>
     <row r="175" customHeight="1" spans="1:7">
-      <c r="A175" s="11"/>
-      <c r="B175" s="11"/>
-      <c r="C175" s="12"/>
-      <c r="D175" s="12"/>
-      <c r="E175" s="12"/>
-      <c r="F175" s="12"/>
-      <c r="G175" s="12"/>
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="15"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="15"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="15"/>
     </row>
     <row r="176" customHeight="1" spans="1:7">
-      <c r="A176" s="11"/>
-      <c r="B176" s="11"/>
-      <c r="C176" s="12"/>
-      <c r="D176" s="12"/>
-      <c r="E176" s="12"/>
-      <c r="F176" s="12"/>
-      <c r="G176" s="12"/>
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="15"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="15"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="15"/>
     </row>
     <row r="177" customHeight="1" spans="1:7">
-      <c r="A177" s="11"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="12"/>
-      <c r="D177" s="12"/>
-      <c r="E177" s="12"/>
-      <c r="F177" s="12"/>
-      <c r="G177" s="12"/>
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="15"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="15"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="15"/>
     </row>
     <row r="178" customHeight="1" spans="1:7">
-      <c r="A178" s="11"/>
-      <c r="B178" s="11"/>
-      <c r="C178" s="12"/>
-      <c r="D178" s="12"/>
-      <c r="E178" s="12"/>
-      <c r="F178" s="12"/>
-      <c r="G178" s="12"/>
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="15"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="15"/>
     </row>
     <row r="179" customHeight="1" spans="1:7">
-      <c r="A179" s="11"/>
-      <c r="B179" s="11"/>
-      <c r="C179" s="12"/>
-      <c r="D179" s="12"/>
-      <c r="E179" s="12"/>
-      <c r="F179" s="12"/>
-      <c r="G179" s="12"/>
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="15"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="15"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="15"/>
     </row>
     <row r="180" customHeight="1" spans="1:7">
-      <c r="A180" s="11"/>
-      <c r="B180" s="11"/>
-      <c r="C180" s="12"/>
-      <c r="D180" s="12"/>
-      <c r="E180" s="12"/>
-      <c r="F180" s="12"/>
-      <c r="G180" s="12"/>
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="15"/>
+      <c r="D180" s="15"/>
+      <c r="E180" s="15"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="15"/>
     </row>
     <row r="181" customHeight="1" spans="1:7">
-      <c r="A181" s="11"/>
-      <c r="B181" s="11"/>
-      <c r="C181" s="12"/>
-      <c r="D181" s="12"/>
-      <c r="E181" s="12"/>
-      <c r="F181" s="12"/>
-      <c r="G181" s="12"/>
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="15"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="15"/>
+      <c r="G181" s="15"/>
     </row>
     <row r="182" customHeight="1" spans="1:7">
-      <c r="A182" s="11"/>
-      <c r="B182" s="11"/>
-      <c r="C182" s="12"/>
-      <c r="D182" s="12"/>
-      <c r="E182" s="12"/>
-      <c r="F182" s="12"/>
-      <c r="G182" s="12"/>
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="15"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="15"/>
+      <c r="F182" s="15"/>
+      <c r="G182" s="15"/>
     </row>
     <row r="183" customHeight="1" spans="1:7">
-      <c r="A183" s="11"/>
-      <c r="B183" s="11"/>
-      <c r="C183" s="12"/>
-      <c r="D183" s="12"/>
-      <c r="E183" s="12"/>
-      <c r="F183" s="12"/>
-      <c r="G183" s="12"/>
+      <c r="A183" s="4"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="15"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="15"/>
     </row>
     <row r="184" customHeight="1" spans="1:7">
-      <c r="A184" s="11"/>
-      <c r="B184" s="11"/>
-      <c r="C184" s="12"/>
-      <c r="D184" s="12"/>
-      <c r="E184" s="12"/>
-      <c r="F184" s="12"/>
-      <c r="G184" s="12"/>
-    </row>
-    <row r="185" customHeight="1" spans="1:6">
-      <c r="A185" s="11"/>
-      <c r="B185" s="11"/>
-      <c r="C185" s="12"/>
-      <c r="D185" s="12"/>
-      <c r="E185" s="12"/>
-      <c r="F185" s="12"/>
-    </row>
-    <row r="186" customHeight="1" spans="1:6">
-      <c r="A186" s="11"/>
-      <c r="B186" s="11"/>
-      <c r="C186" s="12"/>
-      <c r="D186" s="12"/>
-      <c r="E186" s="12"/>
-      <c r="F186" s="12"/>
-    </row>
-    <row r="187" customHeight="1" spans="1:6">
-      <c r="A187" s="11"/>
-      <c r="B187" s="11"/>
-      <c r="C187" s="12"/>
-      <c r="D187" s="12"/>
-      <c r="E187" s="12"/>
-      <c r="F187" s="12"/>
+      <c r="A184" s="4"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="15"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="15"/>
+    </row>
+    <row r="185" customHeight="1" spans="1:7">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="15"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="15"/>
+      <c r="G185" s="15"/>
+    </row>
+    <row r="186" customHeight="1" spans="1:7">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="15"/>
+      <c r="D186" s="15"/>
+      <c r="E186" s="15"/>
+      <c r="F186" s="15"/>
+      <c r="G186" s="15"/>
+    </row>
+    <row r="187" customHeight="1" spans="1:7">
+      <c r="A187" s="4"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="15"/>
+      <c r="D187" s="15"/>
+      <c r="E187" s="15"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="15"/>
     </row>
     <row r="188" customHeight="1" spans="1:6">
-      <c r="A188" s="11"/>
-      <c r="B188" s="11"/>
-      <c r="C188" s="12"/>
-      <c r="D188" s="12"/>
-      <c r="E188" s="12"/>
-      <c r="F188" s="12"/>
+      <c r="A188" s="4"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="15"/>
+      <c r="D188" s="15"/>
+      <c r="E188" s="15"/>
+      <c r="F188" s="15"/>
     </row>
     <row r="189" customHeight="1" spans="1:6">
-      <c r="A189" s="11"/>
-      <c r="B189" s="11"/>
-      <c r="C189" s="12"/>
-      <c r="D189" s="12"/>
-      <c r="E189" s="12"/>
-      <c r="F189" s="12"/>
+      <c r="A189" s="4"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="15"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="15"/>
+      <c r="F189" s="15"/>
     </row>
     <row r="190" customHeight="1" spans="1:6">
-      <c r="A190" s="11"/>
-      <c r="B190" s="11"/>
-      <c r="C190" s="12"/>
-      <c r="D190" s="12"/>
-      <c r="E190" s="12"/>
-      <c r="F190" s="12"/>
+      <c r="A190" s="4"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="15"/>
+      <c r="D190" s="15"/>
+      <c r="E190" s="15"/>
+      <c r="F190" s="15"/>
     </row>
     <row r="191" customHeight="1" spans="1:6">
-      <c r="A191" s="11"/>
-      <c r="B191" s="11"/>
-      <c r="C191" s="12"/>
-      <c r="D191" s="12"/>
-      <c r="E191" s="12"/>
-      <c r="F191" s="12"/>
+      <c r="A191" s="4"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="15"/>
+      <c r="D191" s="15"/>
+      <c r="E191" s="15"/>
+      <c r="F191" s="15"/>
     </row>
     <row r="192" customHeight="1" spans="1:6">
-      <c r="A192" s="11"/>
-      <c r="B192" s="11"/>
-      <c r="C192" s="12"/>
-      <c r="D192" s="12"/>
-      <c r="E192" s="12"/>
-      <c r="F192" s="12"/>
+      <c r="A192" s="4"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="15"/>
+      <c r="D192" s="15"/>
+      <c r="E192" s="15"/>
+      <c r="F192" s="15"/>
     </row>
     <row r="193" customHeight="1" spans="1:6">
-      <c r="A193" s="11"/>
-      <c r="B193" s="11"/>
-      <c r="C193" s="12"/>
-      <c r="D193" s="12"/>
-      <c r="E193" s="12"/>
-      <c r="F193" s="12"/>
+      <c r="A193" s="4"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="15"/>
+      <c r="D193" s="15"/>
+      <c r="E193" s="15"/>
+      <c r="F193" s="15"/>
     </row>
     <row r="194" customHeight="1" spans="1:6">
-      <c r="A194" s="11"/>
-      <c r="B194" s="11"/>
-      <c r="C194" s="12"/>
-      <c r="D194" s="12"/>
-      <c r="E194" s="12"/>
-      <c r="F194" s="12"/>
+      <c r="A194" s="4"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="15"/>
+      <c r="D194" s="15"/>
+      <c r="E194" s="15"/>
+      <c r="F194" s="15"/>
     </row>
     <row r="195" customHeight="1" spans="1:6">
-      <c r="A195" s="11"/>
-      <c r="B195" s="11"/>
-      <c r="C195" s="12"/>
-      <c r="D195" s="12"/>
-      <c r="E195" s="12"/>
-      <c r="F195" s="12"/>
+      <c r="A195" s="4"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="15"/>
+      <c r="D195" s="15"/>
+      <c r="E195" s="15"/>
+      <c r="F195" s="15"/>
     </row>
     <row r="196" customHeight="1" spans="1:6">
-      <c r="A196" s="11"/>
-      <c r="B196" s="11"/>
-      <c r="C196" s="12"/>
-      <c r="D196" s="12"/>
-      <c r="E196" s="12"/>
-      <c r="F196" s="12"/>
+      <c r="A196" s="4"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="15"/>
+      <c r="D196" s="15"/>
+      <c r="E196" s="15"/>
+      <c r="F196" s="15"/>
     </row>
     <row r="197" customHeight="1" spans="1:6">
-      <c r="A197" s="11"/>
-      <c r="B197" s="11"/>
-      <c r="C197" s="12"/>
-      <c r="D197" s="12"/>
-      <c r="E197" s="12"/>
-      <c r="F197" s="12"/>
+      <c r="A197" s="4"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="15"/>
+      <c r="D197" s="15"/>
+      <c r="E197" s="15"/>
+      <c r="F197" s="15"/>
     </row>
     <row r="198" customHeight="1" spans="1:6">
-      <c r="A198" s="11"/>
-      <c r="B198" s="11"/>
-      <c r="C198" s="12"/>
-      <c r="D198" s="12"/>
-      <c r="E198" s="12"/>
-      <c r="F198" s="12"/>
+      <c r="A198" s="4"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="15"/>
+      <c r="D198" s="15"/>
+      <c r="E198" s="15"/>
+      <c r="F198" s="15"/>
     </row>
     <row r="199" customHeight="1" spans="1:6">
-      <c r="A199" s="11"/>
-      <c r="B199" s="11"/>
-      <c r="C199" s="12"/>
-      <c r="D199" s="12"/>
-      <c r="E199" s="12"/>
-      <c r="F199" s="12"/>
+      <c r="A199" s="4"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="15"/>
+      <c r="D199" s="15"/>
+      <c r="E199" s="15"/>
+      <c r="F199" s="15"/>
     </row>
     <row r="200" customHeight="1" spans="1:6">
-      <c r="A200" s="11"/>
-      <c r="B200" s="11"/>
-      <c r="C200" s="12"/>
-      <c r="D200" s="12"/>
-      <c r="E200" s="12"/>
-      <c r="F200" s="12"/>
+      <c r="A200" s="4"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="15"/>
+      <c r="D200" s="15"/>
+      <c r="E200" s="15"/>
+      <c r="F200" s="15"/>
     </row>
     <row r="201" customHeight="1" spans="1:6">
-      <c r="A201" s="11"/>
-      <c r="B201" s="11"/>
-      <c r="C201" s="12"/>
-      <c r="D201" s="12"/>
-      <c r="E201" s="12"/>
-      <c r="F201" s="12"/>
+      <c r="A201" s="4"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="15"/>
+      <c r="D201" s="15"/>
+      <c r="E201" s="15"/>
+      <c r="F201" s="15"/>
     </row>
     <row r="202" customHeight="1" spans="1:6">
-      <c r="A202" s="11"/>
-      <c r="B202" s="11"/>
-      <c r="C202" s="12"/>
-      <c r="D202" s="12"/>
-      <c r="E202" s="12"/>
-      <c r="F202" s="12"/>
+      <c r="A202" s="4"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="15"/>
+      <c r="D202" s="15"/>
+      <c r="E202" s="15"/>
+      <c r="F202" s="15"/>
     </row>
     <row r="203" customHeight="1" spans="1:6">
-      <c r="A203" s="11"/>
-      <c r="B203" s="11"/>
-      <c r="C203" s="12"/>
-      <c r="D203" s="12"/>
-      <c r="E203" s="12"/>
-      <c r="F203" s="12"/>
+      <c r="A203" s="4"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="15"/>
+      <c r="D203" s="15"/>
+      <c r="E203" s="15"/>
+      <c r="F203" s="15"/>
     </row>
     <row r="204" customHeight="1" spans="1:6">
-      <c r="A204" s="11"/>
-      <c r="B204" s="11"/>
-      <c r="C204" s="12"/>
-      <c r="D204" s="12"/>
-      <c r="E204" s="12"/>
-      <c r="F204" s="12"/>
+      <c r="A204" s="4"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="15"/>
+      <c r="D204" s="15"/>
+      <c r="E204" s="15"/>
+      <c r="F204" s="15"/>
     </row>
     <row r="205" customHeight="1" spans="1:6">
-      <c r="A205" s="11"/>
-      <c r="B205" s="11"/>
-      <c r="C205" s="12"/>
-      <c r="D205" s="12"/>
-      <c r="E205" s="12"/>
-      <c r="F205" s="12"/>
+      <c r="A205" s="4"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="15"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="15"/>
+      <c r="F205" s="15"/>
     </row>
     <row r="206" customHeight="1" spans="1:6">
-      <c r="A206" s="11"/>
-      <c r="B206" s="11"/>
-      <c r="C206" s="12"/>
-      <c r="D206" s="12"/>
-      <c r="E206" s="12"/>
-      <c r="F206" s="12"/>
+      <c r="A206" s="4"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="15"/>
+      <c r="D206" s="15"/>
+      <c r="E206" s="15"/>
+      <c r="F206" s="15"/>
     </row>
     <row r="207" customHeight="1" spans="1:6">
-      <c r="A207" s="11"/>
-      <c r="B207" s="11"/>
-      <c r="C207" s="12"/>
-      <c r="D207" s="12"/>
-      <c r="E207" s="12"/>
-      <c r="F207" s="12"/>
+      <c r="A207" s="4"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="15"/>
+      <c r="D207" s="15"/>
+      <c r="E207" s="15"/>
+      <c r="F207" s="15"/>
     </row>
     <row r="208" customHeight="1" spans="1:6">
-      <c r="A208" s="11"/>
-      <c r="B208" s="11"/>
-      <c r="C208" s="12"/>
-      <c r="D208" s="12"/>
-      <c r="E208" s="12"/>
-      <c r="F208" s="12"/>
+      <c r="A208" s="4"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="15"/>
+      <c r="D208" s="15"/>
+      <c r="E208" s="15"/>
+      <c r="F208" s="15"/>
     </row>
     <row r="209" customHeight="1" spans="1:6">
-      <c r="A209" s="11"/>
-      <c r="B209" s="11"/>
-      <c r="C209" s="12"/>
-      <c r="D209" s="12"/>
-      <c r="E209" s="12"/>
-      <c r="F209" s="12"/>
+      <c r="A209" s="4"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="15"/>
+      <c r="D209" s="15"/>
+      <c r="E209" s="15"/>
+      <c r="F209" s="15"/>
     </row>
     <row r="210" customHeight="1" spans="1:6">
-      <c r="A210" s="11"/>
-      <c r="B210" s="11"/>
-      <c r="C210" s="12"/>
-      <c r="D210" s="12"/>
-      <c r="E210" s="12"/>
-      <c r="F210" s="12"/>
+      <c r="A210" s="4"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="15"/>
+      <c r="D210" s="15"/>
+      <c r="E210" s="15"/>
+      <c r="F210" s="15"/>
     </row>
     <row r="211" customHeight="1" spans="1:6">
-      <c r="A211" s="11"/>
-      <c r="B211" s="11"/>
-      <c r="C211" s="12"/>
-      <c r="D211" s="12"/>
-      <c r="E211" s="12"/>
-      <c r="F211" s="12"/>
+      <c r="A211" s="4"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="15"/>
+      <c r="D211" s="15"/>
+      <c r="E211" s="15"/>
+      <c r="F211" s="15"/>
     </row>
     <row r="212" customHeight="1" spans="1:6">
-      <c r="A212" s="11"/>
-      <c r="B212" s="11"/>
-      <c r="C212" s="12"/>
-      <c r="D212" s="12"/>
-      <c r="E212" s="12"/>
-      <c r="F212" s="12"/>
+      <c r="A212" s="4"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="15"/>
+      <c r="D212" s="15"/>
+      <c r="E212" s="15"/>
+      <c r="F212" s="15"/>
     </row>
     <row r="213" customHeight="1" spans="1:6">
-      <c r="A213" s="11"/>
-      <c r="B213" s="11"/>
-      <c r="C213" s="12"/>
-      <c r="D213" s="12"/>
-      <c r="E213" s="12"/>
-      <c r="F213" s="12"/>
+      <c r="A213" s="4"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="15"/>
+      <c r="D213" s="15"/>
+      <c r="E213" s="15"/>
+      <c r="F213" s="15"/>
     </row>
     <row r="214" customHeight="1" spans="1:6">
-      <c r="A214" s="11"/>
-      <c r="B214" s="11"/>
-      <c r="C214" s="12"/>
-      <c r="D214" s="12"/>
-      <c r="E214" s="12"/>
-      <c r="F214" s="12"/>
+      <c r="A214" s="4"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="15"/>
+      <c r="D214" s="15"/>
+      <c r="E214" s="15"/>
+      <c r="F214" s="15"/>
     </row>
     <row r="215" customHeight="1" spans="1:6">
-      <c r="A215" s="11"/>
-      <c r="B215" s="11"/>
-      <c r="C215" s="12"/>
-      <c r="D215" s="12"/>
-      <c r="E215" s="12"/>
-      <c r="F215" s="12"/>
+      <c r="A215" s="4"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="15"/>
+      <c r="D215" s="15"/>
+      <c r="E215" s="15"/>
+      <c r="F215" s="15"/>
     </row>
     <row r="216" customHeight="1" spans="1:6">
-      <c r="A216" s="11"/>
-      <c r="B216" s="11"/>
-      <c r="C216" s="12"/>
-      <c r="D216" s="12"/>
-      <c r="E216" s="12"/>
-      <c r="F216" s="12"/>
+      <c r="A216" s="4"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="15"/>
+      <c r="D216" s="15"/>
+      <c r="E216" s="15"/>
+      <c r="F216" s="15"/>
     </row>
     <row r="217" customHeight="1" spans="1:6">
-      <c r="A217" s="11"/>
-      <c r="B217" s="11"/>
-      <c r="C217" s="12"/>
-      <c r="D217" s="12"/>
-      <c r="E217" s="12"/>
-      <c r="F217" s="12"/>
+      <c r="A217" s="4"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="15"/>
+      <c r="D217" s="15"/>
+      <c r="E217" s="15"/>
+      <c r="F217" s="15"/>
     </row>
     <row r="218" customHeight="1" spans="1:6">
-      <c r="A218" s="11"/>
-      <c r="B218" s="11"/>
-      <c r="C218" s="12"/>
-      <c r="D218" s="12"/>
-      <c r="E218" s="12"/>
-      <c r="F218" s="12"/>
+      <c r="A218" s="4"/>
+      <c r="B218" s="4"/>
+      <c r="C218" s="15"/>
+      <c r="D218" s="15"/>
+      <c r="E218" s="15"/>
+      <c r="F218" s="15"/>
     </row>
     <row r="219" customHeight="1" spans="1:6">
-      <c r="A219" s="11"/>
-      <c r="B219" s="11"/>
-      <c r="C219" s="12"/>
-      <c r="D219" s="12"/>
-      <c r="E219" s="12"/>
-      <c r="F219" s="12"/>
+      <c r="A219" s="4"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="15"/>
+      <c r="D219" s="15"/>
+      <c r="E219" s="15"/>
+      <c r="F219" s="15"/>
     </row>
     <row r="220" customHeight="1" spans="1:6">
-      <c r="A220" s="11"/>
-      <c r="B220" s="11"/>
-      <c r="C220" s="12"/>
-      <c r="D220" s="12"/>
-      <c r="E220" s="12"/>
-      <c r="F220" s="12"/>
+      <c r="A220" s="4"/>
+      <c r="B220" s="4"/>
+      <c r="C220" s="15"/>
+      <c r="D220" s="15"/>
+      <c r="E220" s="15"/>
+      <c r="F220" s="15"/>
     </row>
     <row r="221" customHeight="1" spans="1:6">
-      <c r="A221" s="11"/>
-      <c r="B221" s="11"/>
-      <c r="C221" s="12"/>
-      <c r="D221" s="12"/>
-      <c r="E221" s="12"/>
-      <c r="F221" s="12"/>
+      <c r="A221" s="4"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="15"/>
+      <c r="D221" s="15"/>
+      <c r="E221" s="15"/>
+      <c r="F221" s="15"/>
     </row>
     <row r="222" customHeight="1" spans="1:6">
-      <c r="A222" s="11"/>
-      <c r="B222" s="11"/>
-      <c r="C222" s="12"/>
-      <c r="D222" s="12"/>
-      <c r="E222" s="12"/>
-      <c r="F222" s="12"/>
+      <c r="A222" s="4"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="15"/>
+      <c r="D222" s="15"/>
+      <c r="E222" s="15"/>
+      <c r="F222" s="15"/>
     </row>
     <row r="223" customHeight="1" spans="1:6">
-      <c r="A223" s="11"/>
-      <c r="B223" s="11"/>
-      <c r="C223" s="12"/>
-      <c r="D223" s="12"/>
-      <c r="E223" s="12"/>
-      <c r="F223" s="12"/>
+      <c r="A223" s="4"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="15"/>
+      <c r="D223" s="15"/>
+      <c r="E223" s="15"/>
+      <c r="F223" s="15"/>
     </row>
     <row r="224" customHeight="1" spans="1:6">
-      <c r="A224" s="11"/>
-      <c r="B224" s="11"/>
-      <c r="C224" s="12"/>
-      <c r="D224" s="12"/>
-      <c r="E224" s="12"/>
-      <c r="F224" s="12"/>
+      <c r="A224" s="4"/>
+      <c r="B224" s="4"/>
+      <c r="C224" s="15"/>
+      <c r="D224" s="15"/>
+      <c r="E224" s="15"/>
+      <c r="F224" s="15"/>
     </row>
     <row r="225" customHeight="1" spans="1:6">
-      <c r="A225" s="11"/>
-      <c r="B225" s="11"/>
-      <c r="C225" s="12"/>
-      <c r="D225" s="12"/>
-      <c r="E225" s="12"/>
-      <c r="F225" s="12"/>
+      <c r="A225" s="4"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="15"/>
+      <c r="D225" s="15"/>
+      <c r="E225" s="15"/>
+      <c r="F225" s="15"/>
     </row>
     <row r="226" customHeight="1" spans="1:6">
-      <c r="A226" s="11"/>
-      <c r="B226" s="11"/>
-      <c r="C226" s="12"/>
-      <c r="D226" s="12"/>
-      <c r="E226" s="12"/>
-      <c r="F226" s="12"/>
+      <c r="A226" s="4"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="15"/>
+      <c r="D226" s="15"/>
+      <c r="E226" s="15"/>
+      <c r="F226" s="15"/>
     </row>
     <row r="227" customHeight="1" spans="1:6">
-      <c r="A227" s="11"/>
-      <c r="B227" s="11"/>
-      <c r="C227" s="12"/>
-      <c r="D227" s="12"/>
-      <c r="E227" s="12"/>
-      <c r="F227" s="12"/>
+      <c r="A227" s="4"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="15"/>
+      <c r="D227" s="15"/>
+      <c r="E227" s="15"/>
+      <c r="F227" s="15"/>
     </row>
     <row r="228" customHeight="1" spans="1:6">
-      <c r="A228" s="11"/>
-      <c r="B228" s="11"/>
-      <c r="C228" s="12"/>
-      <c r="D228" s="12"/>
-      <c r="E228" s="12"/>
-      <c r="F228" s="12"/>
+      <c r="A228" s="4"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="15"/>
+      <c r="D228" s="15"/>
+      <c r="E228" s="15"/>
+      <c r="F228" s="15"/>
     </row>
     <row r="229" customHeight="1" spans="1:6">
-      <c r="A229" s="11"/>
-      <c r="B229" s="11"/>
-      <c r="C229" s="12"/>
-      <c r="D229" s="12"/>
-      <c r="E229" s="12"/>
-      <c r="F229" s="12"/>
+      <c r="A229" s="4"/>
+      <c r="B229" s="4"/>
+      <c r="C229" s="15"/>
+      <c r="D229" s="15"/>
+      <c r="E229" s="15"/>
+      <c r="F229" s="15"/>
     </row>
     <row r="230" customHeight="1" spans="1:6">
-      <c r="A230" s="11"/>
-      <c r="B230" s="11"/>
-      <c r="C230" s="12"/>
-      <c r="D230" s="12"/>
-      <c r="E230" s="12"/>
-      <c r="F230" s="12"/>
+      <c r="A230" s="4"/>
+      <c r="B230" s="4"/>
+      <c r="C230" s="15"/>
+      <c r="D230" s="15"/>
+      <c r="E230" s="15"/>
+      <c r="F230" s="15"/>
     </row>
     <row r="231" customHeight="1" spans="1:6">
-      <c r="A231" s="11"/>
-      <c r="B231" s="11"/>
-      <c r="C231" s="12"/>
-      <c r="D231" s="12"/>
-      <c r="E231" s="12"/>
-      <c r="F231" s="12"/>
+      <c r="A231" s="4"/>
+      <c r="B231" s="4"/>
+      <c r="C231" s="15"/>
+      <c r="D231" s="15"/>
+      <c r="E231" s="15"/>
+      <c r="F231" s="15"/>
     </row>
     <row r="232" customHeight="1" spans="1:6">
-      <c r="A232" s="11"/>
-      <c r="B232" s="11"/>
-      <c r="C232" s="12"/>
-      <c r="D232" s="12"/>
-      <c r="E232" s="12"/>
-      <c r="F232" s="12"/>
+      <c r="A232" s="4"/>
+      <c r="B232" s="4"/>
+      <c r="C232" s="15"/>
+      <c r="D232" s="15"/>
+      <c r="E232" s="15"/>
+      <c r="F232" s="15"/>
     </row>
     <row r="233" customHeight="1" spans="1:6">
-      <c r="A233" s="11"/>
-      <c r="B233" s="11"/>
-      <c r="C233" s="12"/>
-      <c r="D233" s="12"/>
-      <c r="E233" s="12"/>
-      <c r="F233" s="12"/>
+      <c r="A233" s="4"/>
+      <c r="B233" s="4"/>
+      <c r="C233" s="15"/>
+      <c r="D233" s="15"/>
+      <c r="E233" s="15"/>
+      <c r="F233" s="15"/>
     </row>
     <row r="234" customHeight="1" spans="1:6">
-      <c r="A234" s="11"/>
-      <c r="B234" s="11"/>
-      <c r="C234" s="12"/>
-      <c r="D234" s="12"/>
-      <c r="E234" s="12"/>
-      <c r="F234" s="12"/>
+      <c r="A234" s="4"/>
+      <c r="B234" s="4"/>
+      <c r="C234" s="15"/>
+      <c r="D234" s="15"/>
+      <c r="E234" s="15"/>
+      <c r="F234" s="15"/>
     </row>
     <row r="235" customHeight="1" spans="1:6">
-      <c r="A235" s="11"/>
-      <c r="B235" s="11"/>
-      <c r="C235" s="12"/>
-      <c r="D235" s="12"/>
-      <c r="E235" s="12"/>
-      <c r="F235" s="12"/>
+      <c r="A235" s="4"/>
+      <c r="B235" s="4"/>
+      <c r="C235" s="15"/>
+      <c r="D235" s="15"/>
+      <c r="E235" s="15"/>
+      <c r="F235" s="15"/>
     </row>
     <row r="236" customHeight="1" spans="1:6">
-      <c r="A236" s="11"/>
-      <c r="B236" s="11"/>
-      <c r="C236" s="12"/>
-      <c r="D236" s="12"/>
-      <c r="E236" s="12"/>
-      <c r="F236" s="12"/>
+      <c r="A236" s="4"/>
+      <c r="B236" s="4"/>
+      <c r="C236" s="15"/>
+      <c r="D236" s="15"/>
+      <c r="E236" s="15"/>
+      <c r="F236" s="15"/>
     </row>
     <row r="237" customHeight="1" spans="1:6">
-      <c r="A237" s="11"/>
-      <c r="B237" s="11"/>
-      <c r="C237" s="12"/>
-      <c r="D237" s="12"/>
-      <c r="E237" s="12"/>
-      <c r="F237" s="12"/>
+      <c r="A237" s="4"/>
+      <c r="B237" s="4"/>
+      <c r="C237" s="15"/>
+      <c r="D237" s="15"/>
+      <c r="E237" s="15"/>
+      <c r="F237" s="15"/>
     </row>
     <row r="238" customHeight="1" spans="1:6">
-      <c r="A238" s="11"/>
-      <c r="B238" s="11"/>
-      <c r="C238" s="12"/>
-      <c r="D238" s="12"/>
-      <c r="E238" s="12"/>
-      <c r="F238" s="12"/>
+      <c r="A238" s="4"/>
+      <c r="B238" s="4"/>
+      <c r="C238" s="15"/>
+      <c r="D238" s="15"/>
+      <c r="E238" s="15"/>
+      <c r="F238" s="15"/>
     </row>
     <row r="239" customHeight="1" spans="1:6">
-      <c r="A239" s="11"/>
-      <c r="B239" s="11"/>
-      <c r="C239" s="12"/>
-      <c r="D239" s="12"/>
-      <c r="E239" s="12"/>
-      <c r="F239" s="12"/>
+      <c r="A239" s="4"/>
+      <c r="B239" s="4"/>
+      <c r="C239" s="15"/>
+      <c r="D239" s="15"/>
+      <c r="E239" s="15"/>
+      <c r="F239" s="15"/>
     </row>
     <row r="240" customHeight="1" spans="1:6">
-      <c r="A240" s="11"/>
-      <c r="B240" s="11"/>
-      <c r="C240" s="12"/>
-      <c r="D240" s="12"/>
-      <c r="E240" s="12"/>
-      <c r="F240" s="12"/>
+      <c r="A240" s="4"/>
+      <c r="B240" s="4"/>
+      <c r="C240" s="15"/>
+      <c r="D240" s="15"/>
+      <c r="E240" s="15"/>
+      <c r="F240" s="15"/>
     </row>
     <row r="241" customHeight="1" spans="1:6">
-      <c r="A241" s="11"/>
-      <c r="B241" s="11"/>
-      <c r="C241" s="12"/>
-      <c r="D241" s="12"/>
-      <c r="E241" s="12"/>
-      <c r="F241" s="12"/>
+      <c r="A241" s="4"/>
+      <c r="B241" s="4"/>
+      <c r="C241" s="15"/>
+      <c r="D241" s="15"/>
+      <c r="E241" s="15"/>
+      <c r="F241" s="15"/>
     </row>
     <row r="242" customHeight="1" spans="1:6">
-      <c r="A242" s="11"/>
-      <c r="B242" s="11"/>
-      <c r="C242" s="12"/>
-      <c r="D242" s="12"/>
-      <c r="E242" s="12"/>
-      <c r="F242" s="12"/>
+      <c r="A242" s="4"/>
+      <c r="B242" s="4"/>
+      <c r="C242" s="15"/>
+      <c r="D242" s="15"/>
+      <c r="E242" s="15"/>
+      <c r="F242" s="15"/>
     </row>
     <row r="243" customHeight="1" spans="1:6">
-      <c r="A243" s="11"/>
-      <c r="B243" s="11"/>
-      <c r="C243" s="12"/>
-      <c r="D243" s="12"/>
-      <c r="E243" s="12"/>
-      <c r="F243" s="12"/>
+      <c r="A243" s="4"/>
+      <c r="B243" s="4"/>
+      <c r="C243" s="15"/>
+      <c r="D243" s="15"/>
+      <c r="E243" s="15"/>
+      <c r="F243" s="15"/>
     </row>
     <row r="244" customHeight="1" spans="1:6">
-      <c r="A244" s="11"/>
-      <c r="B244" s="11"/>
-      <c r="C244" s="12"/>
-      <c r="D244" s="12"/>
-      <c r="E244" s="12"/>
-      <c r="F244" s="12"/>
+      <c r="A244" s="4"/>
+      <c r="B244" s="4"/>
+      <c r="C244" s="15"/>
+      <c r="D244" s="15"/>
+      <c r="E244" s="15"/>
+      <c r="F244" s="15"/>
     </row>
     <row r="245" customHeight="1" spans="1:6">
-      <c r="A245" s="11"/>
-      <c r="B245" s="11"/>
-      <c r="C245" s="12"/>
-      <c r="D245" s="12"/>
-      <c r="E245" s="12"/>
-      <c r="F245" s="12"/>
+      <c r="A245" s="4"/>
+      <c r="B245" s="4"/>
+      <c r="C245" s="15"/>
+      <c r="D245" s="15"/>
+      <c r="E245" s="15"/>
+      <c r="F245" s="15"/>
     </row>
     <row r="246" customHeight="1" spans="1:6">
-      <c r="A246" s="11"/>
-      <c r="B246" s="11"/>
-      <c r="C246" s="12"/>
-      <c r="D246" s="12"/>
-      <c r="E246" s="12"/>
-      <c r="F246" s="12"/>
+      <c r="A246" s="4"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="15"/>
+      <c r="D246" s="15"/>
+      <c r="E246" s="15"/>
+      <c r="F246" s="15"/>
     </row>
     <row r="247" customHeight="1" spans="1:6">
-      <c r="A247" s="11"/>
-      <c r="B247" s="11"/>
-      <c r="C247" s="12"/>
-      <c r="D247" s="12"/>
-      <c r="E247" s="12"/>
-      <c r="F247" s="12"/>
+      <c r="A247" s="4"/>
+      <c r="B247" s="4"/>
+      <c r="C247" s="15"/>
+      <c r="D247" s="15"/>
+      <c r="E247" s="15"/>
+      <c r="F247" s="15"/>
     </row>
     <row r="248" customHeight="1" spans="1:6">
-      <c r="A248" s="11"/>
-      <c r="B248" s="11"/>
-      <c r="C248" s="12"/>
-      <c r="D248" s="12"/>
-      <c r="E248" s="12"/>
-      <c r="F248" s="12"/>
+      <c r="A248" s="4"/>
+      <c r="B248" s="4"/>
+      <c r="C248" s="15"/>
+      <c r="D248" s="15"/>
+      <c r="E248" s="15"/>
+      <c r="F248" s="15"/>
     </row>
     <row r="249" customHeight="1" spans="1:6">
-      <c r="A249" s="11"/>
-      <c r="B249" s="11"/>
-      <c r="C249" s="12"/>
-      <c r="D249" s="12"/>
-      <c r="E249" s="12"/>
-      <c r="F249" s="12"/>
+      <c r="A249" s="4"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="15"/>
+      <c r="D249" s="15"/>
+      <c r="E249" s="15"/>
+      <c r="F249" s="15"/>
     </row>
     <row r="250" customHeight="1" spans="1:6">
-      <c r="A250" s="11"/>
-      <c r="B250" s="11"/>
-      <c r="C250" s="12"/>
-      <c r="D250" s="12"/>
-      <c r="E250" s="12"/>
-      <c r="F250" s="12"/>
+      <c r="A250" s="4"/>
+      <c r="B250" s="4"/>
+      <c r="C250" s="15"/>
+      <c r="D250" s="15"/>
+      <c r="E250" s="15"/>
+      <c r="F250" s="15"/>
     </row>
     <row r="251" customHeight="1" spans="1:6">
-      <c r="A251" s="11"/>
-      <c r="B251" s="11"/>
-      <c r="C251" s="12"/>
-      <c r="D251" s="12"/>
-      <c r="E251" s="12"/>
-      <c r="F251" s="12"/>
+      <c r="A251" s="4"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="15"/>
+      <c r="D251" s="15"/>
+      <c r="E251" s="15"/>
+      <c r="F251" s="15"/>
     </row>
     <row r="252" customHeight="1" spans="1:6">
-      <c r="A252" s="11"/>
-      <c r="B252" s="11"/>
-      <c r="C252" s="12"/>
-      <c r="D252" s="12"/>
-      <c r="E252" s="12"/>
-      <c r="F252" s="12"/>
+      <c r="A252" s="4"/>
+      <c r="B252" s="4"/>
+      <c r="C252" s="15"/>
+      <c r="D252" s="15"/>
+      <c r="E252" s="15"/>
+      <c r="F252" s="15"/>
     </row>
     <row r="253" customHeight="1" spans="1:6">
-      <c r="A253" s="11"/>
-      <c r="B253" s="11"/>
-      <c r="C253" s="12"/>
-      <c r="D253" s="12"/>
-      <c r="E253" s="12"/>
-      <c r="F253" s="12"/>
+      <c r="A253" s="4"/>
+      <c r="B253" s="4"/>
+      <c r="C253" s="15"/>
+      <c r="D253" s="15"/>
+      <c r="E253" s="15"/>
+      <c r="F253" s="15"/>
     </row>
     <row r="254" customHeight="1" spans="1:6">
-      <c r="A254" s="11"/>
-      <c r="B254" s="11"/>
-      <c r="C254" s="12"/>
-      <c r="D254" s="12"/>
-      <c r="E254" s="12"/>
-      <c r="F254" s="12"/>
+      <c r="A254" s="4"/>
+      <c r="B254" s="4"/>
+      <c r="C254" s="15"/>
+      <c r="D254" s="15"/>
+      <c r="E254" s="15"/>
+      <c r="F254" s="15"/>
     </row>
     <row r="255" customHeight="1" spans="1:6">
-      <c r="A255" s="11"/>
-      <c r="B255" s="11"/>
-      <c r="C255" s="12"/>
-      <c r="D255" s="12"/>
-      <c r="E255" s="12"/>
-      <c r="F255" s="12"/>
+      <c r="A255" s="4"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="15"/>
+      <c r="D255" s="15"/>
+      <c r="E255" s="15"/>
+      <c r="F255" s="15"/>
     </row>
     <row r="256" customHeight="1" spans="1:6">
-      <c r="A256" s="11"/>
-      <c r="B256" s="11"/>
-      <c r="C256" s="12"/>
-      <c r="D256" s="12"/>
-      <c r="E256" s="12"/>
-      <c r="F256" s="12"/>
+      <c r="A256" s="4"/>
+      <c r="B256" s="4"/>
+      <c r="C256" s="15"/>
+      <c r="D256" s="15"/>
+      <c r="E256" s="15"/>
+      <c r="F256" s="15"/>
     </row>
     <row r="257" customHeight="1" spans="1:6">
-      <c r="A257" s="11"/>
-      <c r="B257" s="11"/>
-      <c r="C257" s="12"/>
-      <c r="D257" s="12"/>
-      <c r="E257" s="12"/>
-      <c r="F257" s="12"/>
+      <c r="A257" s="4"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="15"/>
+      <c r="D257" s="15"/>
+      <c r="E257" s="15"/>
+      <c r="F257" s="15"/>
     </row>
     <row r="258" customHeight="1" spans="1:6">
-      <c r="A258" s="11"/>
-      <c r="B258" s="11"/>
-      <c r="C258" s="12"/>
-      <c r="D258" s="12"/>
-      <c r="E258" s="12"/>
-      <c r="F258" s="12"/>
+      <c r="A258" s="4"/>
+      <c r="B258" s="4"/>
+      <c r="C258" s="15"/>
+      <c r="D258" s="15"/>
+      <c r="E258" s="15"/>
+      <c r="F258" s="15"/>
     </row>
     <row r="259" customHeight="1" spans="1:6">
-      <c r="A259" s="11"/>
-      <c r="B259" s="11"/>
-      <c r="C259" s="12"/>
-      <c r="D259" s="12"/>
-      <c r="E259" s="12"/>
-      <c r="F259" s="12"/>
+      <c r="A259" s="4"/>
+      <c r="B259" s="4"/>
+      <c r="C259" s="15"/>
+      <c r="D259" s="15"/>
+      <c r="E259" s="15"/>
+      <c r="F259" s="15"/>
     </row>
     <row r="260" customHeight="1" spans="1:6">
-      <c r="A260" s="11"/>
-      <c r="B260" s="11"/>
-      <c r="C260" s="12"/>
-      <c r="D260" s="12"/>
-      <c r="E260" s="12"/>
-      <c r="F260" s="12"/>
+      <c r="A260" s="4"/>
+      <c r="B260" s="4"/>
+      <c r="C260" s="15"/>
+      <c r="D260" s="15"/>
+      <c r="E260" s="15"/>
+      <c r="F260" s="15"/>
+    </row>
+    <row r="261" customHeight="1" spans="1:6">
+      <c r="A261" s="4"/>
+      <c r="B261" s="4"/>
+      <c r="C261" s="15"/>
+      <c r="D261" s="15"/>
+      <c r="E261" s="15"/>
+      <c r="F261" s="15"/>
+    </row>
+    <row r="262" customHeight="1" spans="1:6">
+      <c r="A262" s="4"/>
+      <c r="B262" s="4"/>
+      <c r="C262" s="15"/>
+      <c r="D262" s="15"/>
+      <c r="E262" s="15"/>
+      <c r="F262" s="15"/>
+    </row>
+    <row r="263" customHeight="1" spans="1:6">
+      <c r="A263" s="4"/>
+      <c r="B263" s="4"/>
+      <c r="C263" s="15"/>
+      <c r="D263" s="15"/>
+      <c r="E263" s="15"/>
+      <c r="F263" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="463">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
+  <mergeCells count="466">
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:F23"/>
-    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:F26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C30:F30"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C33:G33"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="C36:F36"/>
-    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C38:F38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="C39:F39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="A40:D40"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="C43:F43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:F44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="A45:D45"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="C46:F46"/>
     <mergeCell ref="A47:B47"/>
@@ -7782,33 +8010,33 @@
     <mergeCell ref="C51:F51"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="C52:F52"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A58:D58"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="C59:F59"/>
     <mergeCell ref="C60:F60"/>
+    <mergeCell ref="A61:B61"/>
     <mergeCell ref="C61:F61"/>
+    <mergeCell ref="A62:B62"/>
     <mergeCell ref="C62:F62"/>
-    <mergeCell ref="A63:B63"/>
     <mergeCell ref="C63:F63"/>
-    <mergeCell ref="A64:B64"/>
     <mergeCell ref="C64:F64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C65:F65"/>
     <mergeCell ref="A66:B66"/>
     <mergeCell ref="C66:F66"/>
-    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:F67"/>
     <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="C68:G68"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="C69:F69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="A70:D70"/>
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="C71:F71"/>
     <mergeCell ref="A72:B72"/>
@@ -7817,39 +8045,39 @@
     <mergeCell ref="C73:F73"/>
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="C74:F74"/>
-    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:F75"/>
     <mergeCell ref="A76:B76"/>
     <mergeCell ref="C76:F76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A79:G79"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:F79"/>
     <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:F81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:G82"/>
+    <mergeCell ref="A83:F83"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="C84:F84"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="C85:F85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:F89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:F90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:F91"/>
-    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:F92"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="C93:F93"/>
     <mergeCell ref="A94:B94"/>
     <mergeCell ref="C94:F94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="A95:F95"/>
     <mergeCell ref="A96:B96"/>
     <mergeCell ref="C96:F96"/>
     <mergeCell ref="A97:B97"/>
@@ -7876,12 +8104,12 @@
     <mergeCell ref="C107:F107"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="C108:F108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:F109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:F110"/>
     <mergeCell ref="A111:B111"/>
     <mergeCell ref="C111:F111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:F112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:F113"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="C114:F114"/>
     <mergeCell ref="A115:B115"/>
@@ -8176,8 +8404,14 @@
     <mergeCell ref="C259:F259"/>
     <mergeCell ref="A260:B260"/>
     <mergeCell ref="C260:F260"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="C261:F261"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="C262:F262"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="C263:F263"/>
     <mergeCell ref="A1:E15"/>
-    <mergeCell ref="E86:F87"/>
+    <mergeCell ref="E89:F90"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8195,7 +8429,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8212,7 +8446,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/git.xlsx
+++ b/git.xlsx
@@ -16,9 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
-  <si>
-    <r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>https 和 ssh 的区别 前者可以随意克隆github上的项目 后者要克隆的项目必须拥是项目的</t>
     </r>
     <r>
@@ -38,6 +46,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>(全局配置)</t>
     </r>
     <r>
@@ -2434,6 +2450,68 @@
   </si>
   <si>
     <t>忽略特殊文件</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1：在工作区中添加 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gitignore</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 文件</t>
+    </r>
+  </si>
+  <si>
+    <t>2：在该文件中把要忽略的文件名填进去</t>
+  </si>
+  <si>
+    <t>规则(例)：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         *.a        ==&gt;  忽略所有以.a结束的文件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         !lib.a     ==&gt;  lib.a 除外</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         /todo      ==&gt;  仅忽略当前目录下的 TODO 文件(不包括其他目录的)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         lib/       ==&gt;  忽略 lib/ 目录下的所有文件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         doc/*.txt  ==&gt;  会忽略 doc/aaa.txt 但不包括 doc/server/bbb.txt</t>
+  </si>
+  <si>
+    <t>3：将 .gitignore 也提交到 git</t>
+  </si>
+  <si>
+    <t>4：清除缓存：git rm -r --cached     git add .    git commit -m ''</t>
   </si>
 </sst>
 </file>
@@ -2441,9 +2519,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="44">
@@ -2547,112 +2625,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2674,6 +2647,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2682,7 +2738,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2783,7 +2861,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2795,13 +2903,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2813,19 +2933,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2843,7 +2981,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2861,109 +3041,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2977,17 +3055,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3008,16 +3106,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3039,41 +3152,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3082,10 +3160,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3094,137 +3172,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3233,12 +3311,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -3308,9 +3380,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -5396,8 +5465,8 @@
   <sheetPr/>
   <dimension ref="A1:G263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134:B134"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143:F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.6296296296296" defaultRowHeight="25" customHeight="1" outlineLevelCol="6"/>
@@ -5515,2437 +5584,2457 @@
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" customHeight="1" spans="1:7">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" customHeight="1" spans="1:7">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" customHeight="1" spans="1:7">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" customHeight="1" spans="1:6">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" customHeight="1" spans="1:6">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" customHeight="1" spans="1:6">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="11" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" customHeight="1" spans="1:6">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="11" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" customHeight="1" spans="1:6">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" customHeight="1" spans="1:6">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" customHeight="1" spans="1:6">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="11" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" customHeight="1" spans="1:6">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" customHeight="1" spans="1:6">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="11" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" customHeight="1" spans="1:6">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="11" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" customHeight="1" spans="1:6">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="11" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="11" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="35" customHeight="1" spans="1:7">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" customHeight="1" spans="1:7">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="15" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" customHeight="1" spans="1:7">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="15" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
     <row r="38" customHeight="1" spans="1:7">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="15" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
     </row>
     <row r="39" customHeight="1" spans="1:7">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
     </row>
     <row r="40" customHeight="1" spans="1:7">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
     </row>
     <row r="41" customHeight="1" spans="1:7">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="16" t="s">
+      <c r="B41" s="3"/>
+      <c r="C41" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
     </row>
     <row r="42" customHeight="1" spans="1:7">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="15" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
     </row>
     <row r="43" customHeight="1" spans="1:7">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="15" t="s">
+      <c r="B43" s="3"/>
+      <c r="C43" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
     </row>
     <row r="44" customHeight="1" spans="1:7">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
     </row>
     <row r="45" customHeight="1" spans="1:7">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
     </row>
     <row r="46" customHeight="1" spans="1:7">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="11" t="s">
+      <c r="B46" s="4"/>
+      <c r="C46" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="15"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="13"/>
     </row>
     <row r="47" customHeight="1" spans="1:7">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="17" t="s">
+      <c r="B47" s="3"/>
+      <c r="C47" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
     </row>
     <row r="48" customHeight="1" spans="1:7">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="17" t="s">
+      <c r="B48" s="3"/>
+      <c r="C48" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
     </row>
     <row r="49" customHeight="1" spans="1:7">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6" t="s">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="15"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="13"/>
     </row>
     <row r="50" customHeight="1" spans="1:7">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6" t="s">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="15"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="13"/>
     </row>
     <row r="51" customHeight="1" spans="1:7">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6" t="s">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="15"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="13"/>
     </row>
     <row r="52" customHeight="1" spans="1:7">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="17" t="s">
+      <c r="B52" s="3"/>
+      <c r="C52" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
     </row>
     <row r="53" customHeight="1" spans="1:7">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="17" t="s">
+      <c r="B53" s="3"/>
+      <c r="C53" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
     </row>
     <row r="54" customHeight="1" spans="1:7">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="17" t="s">
+      <c r="B54" s="3"/>
+      <c r="C54" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
     </row>
     <row r="55" customHeight="1" spans="1:7">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="17" t="s">
+      <c r="B55" s="3"/>
+      <c r="C55" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
     </row>
     <row r="56" customHeight="1" spans="1:7">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
     </row>
     <row r="57" ht="51" customHeight="1" spans="1:7">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="15"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="13"/>
     </row>
     <row r="58" customHeight="1" spans="1:7">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
     </row>
     <row r="59" customHeight="1" spans="1:7">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="15" t="s">
+      <c r="B59" s="3"/>
+      <c r="C59" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
     </row>
     <row r="60" customHeight="1" spans="1:7">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="15" t="s">
+      <c r="B60" s="3"/>
+      <c r="C60" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
     </row>
     <row r="61" customHeight="1" spans="1:7">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="15" t="s">
+      <c r="B61" s="3"/>
+      <c r="C61" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
     </row>
     <row r="62" customHeight="1" spans="1:7">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="6" t="s">
+      <c r="B62" s="3"/>
+      <c r="C62" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="15"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="13"/>
     </row>
     <row r="63" customHeight="1" spans="1:7">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20" t="s">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
     </row>
     <row r="64" customHeight="1" spans="1:7">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20" t="s">
+      <c r="A64" s="18"/>
+      <c r="B64" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
     </row>
     <row r="65" customHeight="1" spans="1:7">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20" t="s">
+      <c r="A65" s="18"/>
+      <c r="B65" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
     </row>
     <row r="66" customHeight="1" spans="1:7">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="6" t="s">
+      <c r="B66" s="3"/>
+      <c r="C66" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="15"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="13"/>
     </row>
     <row r="67" customHeight="1" spans="1:7">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="6" t="s">
+      <c r="B67" s="3"/>
+      <c r="C67" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="15"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="13"/>
     </row>
     <row r="68" customHeight="1" spans="1:7">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="6" t="s">
+      <c r="B68" s="3"/>
+      <c r="C68" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
     </row>
     <row r="69" customHeight="1" spans="1:7">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="6"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="4"/>
     </row>
     <row r="70" customHeight="1" spans="1:7">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
     </row>
     <row r="71" customHeight="1" spans="1:7">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="6" t="s">
+      <c r="B71" s="3"/>
+      <c r="C71" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
     </row>
     <row r="72" customHeight="1" spans="1:7">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="6" t="s">
+      <c r="B72" s="3"/>
+      <c r="C72" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
     </row>
     <row r="73" customHeight="1" spans="1:7">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="6" t="s">
+      <c r="B73" s="3"/>
+      <c r="C73" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
     </row>
     <row r="74" customHeight="1" spans="1:7">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="6" t="s">
+      <c r="B74" s="3"/>
+      <c r="C74" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
     </row>
     <row r="75" customHeight="1" spans="1:7">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="6" t="s">
+      <c r="B75" s="3"/>
+      <c r="C75" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
     </row>
     <row r="76" customHeight="1" spans="1:7">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
     </row>
     <row r="77" customHeight="1" spans="1:7">
-      <c r="A77" s="21"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="15"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="13"/>
     </row>
     <row r="78" customHeight="1" spans="1:7">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
     </row>
     <row r="79" customHeight="1" spans="1:7">
-      <c r="A79" s="24" t="s">
+      <c r="A79" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="24"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
     </row>
     <row r="80" customHeight="1" spans="1:7">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="15"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="13"/>
     </row>
     <row r="81" customHeight="1" spans="1:7">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="15"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="13"/>
     </row>
     <row r="82" customHeight="1" spans="1:7">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
     </row>
     <row r="83" customHeight="1" spans="1:7">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="15"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="13"/>
     </row>
     <row r="84" customHeight="1" spans="1:7">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
     </row>
     <row r="85" customHeight="1" spans="1:7">
-      <c r="A85" s="24" t="s">
+      <c r="A85" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B85" s="24"/>
-      <c r="G85" s="15"/>
+      <c r="B85" s="22"/>
+      <c r="G85" s="13"/>
     </row>
     <row r="86" customHeight="1" spans="1:7">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4" t="s">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="15"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="13"/>
     </row>
     <row r="87" customHeight="1" spans="1:7">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
     </row>
     <row r="88" customHeight="1" spans="1:7">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B88" s="23"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
     </row>
     <row r="89" customHeight="1" spans="1:7">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="26" t="s">
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="F89" s="26"/>
-      <c r="G89" s="15"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="13"/>
     </row>
     <row r="90" customHeight="1" spans="1:7">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="15"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="13"/>
     </row>
     <row r="91" customHeight="1" spans="1:7">
-      <c r="A91" s="27" t="s">
+      <c r="A91" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="15"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="13"/>
     </row>
     <row r="92" customHeight="1" spans="1:7">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
     </row>
     <row r="93" customHeight="1" spans="1:7">
-      <c r="A93" s="24" t="s">
+      <c r="A93" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B93" s="24"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
     </row>
     <row r="94" customHeight="1" spans="1:7">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
     </row>
     <row r="95" customHeight="1" spans="1:7">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="15"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="13"/>
     </row>
     <row r="96" customHeight="1" spans="1:7">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="15"/>
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="13"/>
     </row>
     <row r="97" customHeight="1" spans="1:7">
-      <c r="A97" s="24" t="s">
+      <c r="A97" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B97" s="24"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="15"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="13"/>
     </row>
     <row r="98" customHeight="1" spans="1:7">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6" t="s">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="15"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="13"/>
     </row>
     <row r="99" customHeight="1" spans="1:7">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="15"/>
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="13"/>
     </row>
     <row r="100" customHeight="1" spans="1:7">
-      <c r="A100" s="24" t="s">
+      <c r="A100" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B100" s="24"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="15"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="13"/>
     </row>
     <row r="101" customHeight="1" spans="1:7">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6" t="s">
+      <c r="B101" s="4"/>
+      <c r="C101" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="15"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="13"/>
     </row>
     <row r="102" customHeight="1" spans="1:7">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6" t="s">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="15"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="13"/>
     </row>
     <row r="103" customHeight="1" spans="1:7">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6" t="s">
+      <c r="B103" s="4"/>
+      <c r="C103" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="15"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="13"/>
     </row>
     <row r="104" customHeight="1" spans="1:7">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="15"/>
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="13"/>
     </row>
     <row r="105" customHeight="1" spans="1:7">
-      <c r="A105" s="24" t="s">
+      <c r="A105" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B105" s="24"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="15"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="13"/>
     </row>
     <row r="106" customHeight="1" spans="1:7">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6" t="s">
+      <c r="B106" s="4"/>
+      <c r="C106" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="15"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="13"/>
     </row>
     <row r="107" customHeight="1" spans="1:7">
-      <c r="A107" s="6"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="15"/>
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="13"/>
     </row>
     <row r="108" customHeight="1" spans="1:7">
-      <c r="A108" s="24" t="s">
+      <c r="A108" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B108" s="24"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
     </row>
     <row r="109" customHeight="1" spans="1:7">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B109" s="4"/>
-      <c r="C109" s="15" t="s">
+      <c r="B109" s="3"/>
+      <c r="C109" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
     </row>
     <row r="110" customHeight="1" spans="1:7">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B110" s="4"/>
-      <c r="C110" s="15" t="s">
+      <c r="B110" s="3"/>
+      <c r="C110" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
     </row>
     <row r="111" customHeight="1" spans="1:7">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="15"/>
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="13"/>
     </row>
     <row r="112" customHeight="1" spans="7:7">
-      <c r="G112" s="15"/>
+      <c r="G112" s="13"/>
     </row>
     <row r="113" customHeight="1" spans="7:7">
-      <c r="G113" s="15"/>
+      <c r="G113" s="13"/>
     </row>
     <row r="114" customHeight="1" spans="1:7">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
     </row>
     <row r="115" customHeight="1" spans="1:7">
-      <c r="A115" s="23" t="s">
+      <c r="A115" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="B115" s="23"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
     </row>
     <row r="116" customHeight="1" spans="1:7">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B116" s="4"/>
-      <c r="C116" s="15" t="s">
+      <c r="B116" s="3"/>
+      <c r="C116" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
-      <c r="G116" s="15"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
     </row>
     <row r="117" customHeight="1" spans="1:7">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
     </row>
     <row r="118" customHeight="1" spans="1:7">
-      <c r="A118" s="23" t="s">
+      <c r="A118" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B118" s="23"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
+      <c r="B118" s="21"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
     </row>
     <row r="119" customHeight="1" spans="1:7">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B119" s="4"/>
-      <c r="C119" s="15" t="s">
+      <c r="B119" s="3"/>
+      <c r="C119" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
     </row>
     <row r="120" customHeight="1" spans="1:7">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B120" s="4"/>
-      <c r="C120" s="15" t="s">
+      <c r="B120" s="3"/>
+      <c r="C120" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
     </row>
     <row r="121" customHeight="1" spans="1:7">
-      <c r="A121" s="6" t="s">
+      <c r="A121" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B121" s="16"/>
-      <c r="C121" s="15" t="s">
+      <c r="B121" s="14"/>
+      <c r="C121" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
-      <c r="F121" s="15"/>
-      <c r="G121" s="15"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
     </row>
     <row r="122" customHeight="1" spans="1:7">
-      <c r="A122" s="4" t="s">
+      <c r="A122" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B122" s="4"/>
-      <c r="C122" s="15" t="s">
+      <c r="B122" s="3"/>
+      <c r="C122" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="15"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
     </row>
     <row r="123" customHeight="1" spans="1:7">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B123" s="4"/>
-      <c r="C123" s="15" t="s">
+      <c r="B123" s="3"/>
+      <c r="C123" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
     </row>
     <row r="124" customHeight="1" spans="1:7">
-      <c r="A124" s="6" t="s">
+      <c r="A124" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B124" s="6"/>
-      <c r="C124" s="17" t="s">
+      <c r="B124" s="4"/>
+      <c r="C124" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
     </row>
     <row r="125" customHeight="1" spans="1:7">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B125" s="4"/>
-      <c r="C125" s="15" t="s">
+      <c r="B125" s="3"/>
+      <c r="C125" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
     </row>
     <row r="126" customHeight="1" spans="1:7">
-      <c r="A126" s="9"/>
-      <c r="B126" s="9"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="15"/>
+      <c r="A126" s="7"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="13"/>
     </row>
     <row r="127" customHeight="1" spans="1:7">
-      <c r="A127" s="23" t="s">
+      <c r="A127" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B127" s="23"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="15"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="13"/>
     </row>
     <row r="128" customHeight="1" spans="1:7">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B128" s="4"/>
-      <c r="C128" s="15" t="s">
+      <c r="B128" s="3"/>
+      <c r="C128" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D128" s="15"/>
-      <c r="E128" s="15"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
     </row>
     <row r="129" customHeight="1" spans="1:7">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B129" s="4"/>
-      <c r="C129" s="15" t="s">
+      <c r="B129" s="3"/>
+      <c r="C129" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
     </row>
     <row r="130" customHeight="1" spans="1:7">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="15"/>
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
     </row>
     <row r="131" customHeight="1" spans="1:7">
-      <c r="A131" s="23" t="s">
+      <c r="A131" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B131" s="23"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="15"/>
+      <c r="B131" s="21"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
     </row>
     <row r="132" customHeight="1" spans="1:7">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B132" s="4"/>
-      <c r="C132" s="17" t="s">
+      <c r="B132" s="3"/>
+      <c r="C132" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D132" s="15"/>
-      <c r="E132" s="15"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="15"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
     </row>
     <row r="133" customHeight="1" spans="1:7">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
     </row>
     <row r="134" customHeight="1" spans="1:7">
-      <c r="A134" s="28" t="s">
+      <c r="A134" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B134" s="28"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="15"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
     </row>
     <row r="135" customHeight="1" spans="1:7">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="15"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="15"/>
+      <c r="A135" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B135" s="3"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
     </row>
     <row r="136" customHeight="1" spans="1:7">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="15"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="15"/>
+      <c r="A136" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B136" s="3"/>
+      <c r="C136" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
     </row>
     <row r="137" customHeight="1" spans="1:7">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="15"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15"/>
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
     </row>
     <row r="138" customHeight="1" spans="1:7">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="15"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="15"/>
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
     </row>
     <row r="139" customHeight="1" spans="1:7">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
     </row>
     <row r="140" customHeight="1" spans="1:7">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="15"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="15"/>
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
     </row>
     <row r="141" customHeight="1" spans="1:7">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="15"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="15"/>
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
     </row>
     <row r="142" customHeight="1" spans="1:7">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="15"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="15"/>
+      <c r="A142" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B142" s="3"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
     </row>
     <row r="143" customHeight="1" spans="1:7">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15"/>
-      <c r="E143" s="15"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="15"/>
+      <c r="A143" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="13"/>
     </row>
     <row r="144" customHeight="1" spans="1:7">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="15"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="15"/>
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
     </row>
     <row r="145" customHeight="1" spans="1:7">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="15"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="15"/>
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
     </row>
     <row r="146" customHeight="1" spans="1:7">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="15"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="15"/>
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13"/>
     </row>
     <row r="147" customHeight="1" spans="1:7">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="15"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="15"/>
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13"/>
     </row>
     <row r="148" customHeight="1" spans="1:7">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13"/>
+      <c r="G148" s="13"/>
     </row>
     <row r="149" customHeight="1" spans="1:7">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="15"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="15"/>
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="13"/>
     </row>
     <row r="150" customHeight="1" spans="1:7">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="15"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="15"/>
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
     </row>
     <row r="151" customHeight="1" spans="1:7">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="15"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="15"/>
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="13"/>
     </row>
     <row r="152" customHeight="1" spans="1:7">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="15"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="15"/>
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="13"/>
     </row>
     <row r="153" customHeight="1" spans="1:7">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="15"/>
-      <c r="D153" s="15"/>
-      <c r="E153" s="15"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="15"/>
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
     </row>
     <row r="154" customHeight="1" spans="1:7">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="15"/>
-      <c r="D154" s="15"/>
-      <c r="E154" s="15"/>
-      <c r="F154" s="15"/>
-      <c r="G154" s="15"/>
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
+      <c r="G154" s="13"/>
     </row>
     <row r="155" customHeight="1" spans="1:7">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="15"/>
-      <c r="D155" s="15"/>
-      <c r="E155" s="15"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="15"/>
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="13"/>
     </row>
     <row r="156" customHeight="1" spans="1:7">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="15"/>
-      <c r="D156" s="15"/>
-      <c r="E156" s="15"/>
-      <c r="F156" s="15"/>
-      <c r="G156" s="15"/>
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
+      <c r="G156" s="13"/>
     </row>
     <row r="157" customHeight="1" spans="1:7">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="15"/>
-      <c r="D157" s="15"/>
-      <c r="E157" s="15"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="15"/>
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="13"/>
+      <c r="G157" s="13"/>
     </row>
     <row r="158" customHeight="1" spans="1:7">
-      <c r="A158" s="4"/>
-      <c r="B158" s="4"/>
-      <c r="C158" s="15"/>
-      <c r="D158" s="15"/>
-      <c r="E158" s="15"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="15"/>
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="13"/>
     </row>
     <row r="159" customHeight="1" spans="1:7">
-      <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
-      <c r="C159" s="15"/>
-      <c r="D159" s="15"/>
-      <c r="E159" s="15"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="15"/>
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13"/>
+      <c r="G159" s="13"/>
     </row>
     <row r="160" customHeight="1" spans="1:7">
-      <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
-      <c r="C160" s="15"/>
-      <c r="D160" s="15"/>
-      <c r="E160" s="15"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="15"/>
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
+      <c r="G160" s="13"/>
     </row>
     <row r="161" customHeight="1" spans="1:7">
-      <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
-      <c r="C161" s="15"/>
-      <c r="D161" s="15"/>
-      <c r="E161" s="15"/>
-      <c r="F161" s="15"/>
-      <c r="G161" s="15"/>
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="13"/>
     </row>
     <row r="162" customHeight="1" spans="1:7">
-      <c r="A162" s="4"/>
-      <c r="B162" s="4"/>
-      <c r="C162" s="15"/>
-      <c r="D162" s="15"/>
-      <c r="E162" s="15"/>
-      <c r="F162" s="15"/>
-      <c r="G162" s="15"/>
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13"/>
+      <c r="G162" s="13"/>
     </row>
     <row r="163" customHeight="1" spans="1:7">
-      <c r="A163" s="4"/>
-      <c r="B163" s="4"/>
-      <c r="C163" s="15"/>
-      <c r="D163" s="15"/>
-      <c r="E163" s="15"/>
-      <c r="F163" s="15"/>
-      <c r="G163" s="15"/>
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="13"/>
+      <c r="G163" s="13"/>
     </row>
     <row r="164" customHeight="1" spans="1:7">
-      <c r="A164" s="4"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="15"/>
-      <c r="D164" s="15"/>
-      <c r="E164" s="15"/>
-      <c r="F164" s="15"/>
-      <c r="G164" s="15"/>
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
+      <c r="G164" s="13"/>
     </row>
     <row r="165" customHeight="1" spans="1:7">
-      <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
-      <c r="C165" s="15"/>
-      <c r="D165" s="15"/>
-      <c r="E165" s="15"/>
-      <c r="F165" s="15"/>
-      <c r="G165" s="15"/>
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
+      <c r="G165" s="13"/>
     </row>
     <row r="166" customHeight="1" spans="1:7">
-      <c r="A166" s="4"/>
-      <c r="B166" s="4"/>
-      <c r="C166" s="15"/>
-      <c r="D166" s="15"/>
-      <c r="E166" s="15"/>
-      <c r="F166" s="15"/>
-      <c r="G166" s="15"/>
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
+      <c r="G166" s="13"/>
     </row>
     <row r="167" customHeight="1" spans="1:7">
-      <c r="A167" s="4"/>
-      <c r="B167" s="4"/>
-      <c r="C167" s="15"/>
-      <c r="D167" s="15"/>
-      <c r="E167" s="15"/>
-      <c r="F167" s="15"/>
-      <c r="G167" s="15"/>
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="13"/>
+      <c r="G167" s="13"/>
     </row>
     <row r="168" customHeight="1" spans="1:7">
-      <c r="A168" s="4"/>
-      <c r="B168" s="4"/>
-      <c r="C168" s="15"/>
-      <c r="D168" s="15"/>
-      <c r="E168" s="15"/>
-      <c r="F168" s="15"/>
-      <c r="G168" s="15"/>
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13"/>
+      <c r="G168" s="13"/>
     </row>
     <row r="169" customHeight="1" spans="1:7">
-      <c r="A169" s="4"/>
-      <c r="B169" s="4"/>
-      <c r="C169" s="15"/>
-      <c r="D169" s="15"/>
-      <c r="E169" s="15"/>
-      <c r="F169" s="15"/>
-      <c r="G169" s="15"/>
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13"/>
+      <c r="G169" s="13"/>
     </row>
     <row r="170" customHeight="1" spans="1:7">
-      <c r="A170" s="4"/>
-      <c r="B170" s="4"/>
-      <c r="C170" s="15"/>
-      <c r="D170" s="15"/>
-      <c r="E170" s="15"/>
-      <c r="F170" s="15"/>
-      <c r="G170" s="15"/>
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="13"/>
+      <c r="G170" s="13"/>
     </row>
     <row r="171" customHeight="1" spans="1:7">
-      <c r="A171" s="4"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="15"/>
-      <c r="D171" s="15"/>
-      <c r="E171" s="15"/>
-      <c r="F171" s="15"/>
-      <c r="G171" s="15"/>
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="13"/>
+      <c r="G171" s="13"/>
     </row>
     <row r="172" customHeight="1" spans="1:7">
-      <c r="A172" s="4"/>
-      <c r="B172" s="4"/>
-      <c r="C172" s="15"/>
-      <c r="D172" s="15"/>
-      <c r="E172" s="15"/>
-      <c r="F172" s="15"/>
-      <c r="G172" s="15"/>
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="13"/>
+      <c r="G172" s="13"/>
     </row>
     <row r="173" customHeight="1" spans="1:7">
-      <c r="A173" s="4"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="15"/>
-      <c r="D173" s="15"/>
-      <c r="E173" s="15"/>
-      <c r="F173" s="15"/>
-      <c r="G173" s="15"/>
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="13"/>
+      <c r="G173" s="13"/>
     </row>
     <row r="174" customHeight="1" spans="1:7">
-      <c r="A174" s="4"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="15"/>
-      <c r="D174" s="15"/>
-      <c r="E174" s="15"/>
-      <c r="F174" s="15"/>
-      <c r="G174" s="15"/>
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="13"/>
+      <c r="G174" s="13"/>
     </row>
     <row r="175" customHeight="1" spans="1:7">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="15"/>
-      <c r="D175" s="15"/>
-      <c r="E175" s="15"/>
-      <c r="F175" s="15"/>
-      <c r="G175" s="15"/>
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="13"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="13"/>
+      <c r="F175" s="13"/>
+      <c r="G175" s="13"/>
     </row>
     <row r="176" customHeight="1" spans="1:7">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="15"/>
-      <c r="D176" s="15"/>
-      <c r="E176" s="15"/>
-      <c r="F176" s="15"/>
-      <c r="G176" s="15"/>
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="13"/>
     </row>
     <row r="177" customHeight="1" spans="1:7">
-      <c r="A177" s="4"/>
-      <c r="B177" s="4"/>
-      <c r="C177" s="15"/>
-      <c r="D177" s="15"/>
-      <c r="E177" s="15"/>
-      <c r="F177" s="15"/>
-      <c r="G177" s="15"/>
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="13"/>
+      <c r="G177" s="13"/>
     </row>
     <row r="178" customHeight="1" spans="1:7">
-      <c r="A178" s="4"/>
-      <c r="B178" s="4"/>
-      <c r="C178" s="15"/>
-      <c r="D178" s="15"/>
-      <c r="E178" s="15"/>
-      <c r="F178" s="15"/>
-      <c r="G178" s="15"/>
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="13"/>
     </row>
     <row r="179" customHeight="1" spans="1:7">
-      <c r="A179" s="4"/>
-      <c r="B179" s="4"/>
-      <c r="C179" s="15"/>
-      <c r="D179" s="15"/>
-      <c r="E179" s="15"/>
-      <c r="F179" s="15"/>
-      <c r="G179" s="15"/>
+      <c r="A179" s="3"/>
+      <c r="B179" s="3"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="13"/>
+      <c r="G179" s="13"/>
     </row>
     <row r="180" customHeight="1" spans="1:7">
-      <c r="A180" s="4"/>
-      <c r="B180" s="4"/>
-      <c r="C180" s="15"/>
-      <c r="D180" s="15"/>
-      <c r="E180" s="15"/>
-      <c r="F180" s="15"/>
-      <c r="G180" s="15"/>
+      <c r="A180" s="3"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="13"/>
+      <c r="F180" s="13"/>
+      <c r="G180" s="13"/>
     </row>
     <row r="181" customHeight="1" spans="1:7">
-      <c r="A181" s="4"/>
-      <c r="B181" s="4"/>
-      <c r="C181" s="15"/>
-      <c r="D181" s="15"/>
-      <c r="E181" s="15"/>
-      <c r="F181" s="15"/>
-      <c r="G181" s="15"/>
+      <c r="A181" s="3"/>
+      <c r="B181" s="3"/>
+      <c r="C181" s="13"/>
+      <c r="D181" s="13"/>
+      <c r="E181" s="13"/>
+      <c r="F181" s="13"/>
+      <c r="G181" s="13"/>
     </row>
     <row r="182" customHeight="1" spans="1:7">
-      <c r="A182" s="4"/>
-      <c r="B182" s="4"/>
-      <c r="C182" s="15"/>
-      <c r="D182" s="15"/>
-      <c r="E182" s="15"/>
-      <c r="F182" s="15"/>
-      <c r="G182" s="15"/>
+      <c r="A182" s="3"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="13"/>
+      <c r="E182" s="13"/>
+      <c r="F182" s="13"/>
+      <c r="G182" s="13"/>
     </row>
     <row r="183" customHeight="1" spans="1:7">
-      <c r="A183" s="4"/>
-      <c r="B183" s="4"/>
-      <c r="C183" s="15"/>
-      <c r="D183" s="15"/>
-      <c r="E183" s="15"/>
-      <c r="F183" s="15"/>
-      <c r="G183" s="15"/>
+      <c r="A183" s="3"/>
+      <c r="B183" s="3"/>
+      <c r="C183" s="13"/>
+      <c r="D183" s="13"/>
+      <c r="E183" s="13"/>
+      <c r="F183" s="13"/>
+      <c r="G183" s="13"/>
     </row>
     <row r="184" customHeight="1" spans="1:7">
-      <c r="A184" s="4"/>
-      <c r="B184" s="4"/>
-      <c r="C184" s="15"/>
-      <c r="D184" s="15"/>
-      <c r="E184" s="15"/>
-      <c r="F184" s="15"/>
-      <c r="G184" s="15"/>
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="13"/>
+      <c r="E184" s="13"/>
+      <c r="F184" s="13"/>
+      <c r="G184" s="13"/>
     </row>
     <row r="185" customHeight="1" spans="1:7">
-      <c r="A185" s="4"/>
-      <c r="B185" s="4"/>
-      <c r="C185" s="15"/>
-      <c r="D185" s="15"/>
-      <c r="E185" s="15"/>
-      <c r="F185" s="15"/>
-      <c r="G185" s="15"/>
+      <c r="A185" s="3"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="13"/>
+      <c r="D185" s="13"/>
+      <c r="E185" s="13"/>
+      <c r="F185" s="13"/>
+      <c r="G185" s="13"/>
     </row>
     <row r="186" customHeight="1" spans="1:7">
-      <c r="A186" s="4"/>
-      <c r="B186" s="4"/>
-      <c r="C186" s="15"/>
-      <c r="D186" s="15"/>
-      <c r="E186" s="15"/>
-      <c r="F186" s="15"/>
-      <c r="G186" s="15"/>
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="13"/>
+      <c r="E186" s="13"/>
+      <c r="F186" s="13"/>
+      <c r="G186" s="13"/>
     </row>
     <row r="187" customHeight="1" spans="1:7">
-      <c r="A187" s="4"/>
-      <c r="B187" s="4"/>
-      <c r="C187" s="15"/>
-      <c r="D187" s="15"/>
-      <c r="E187" s="15"/>
-      <c r="F187" s="15"/>
-      <c r="G187" s="15"/>
+      <c r="A187" s="3"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="13"/>
+      <c r="D187" s="13"/>
+      <c r="E187" s="13"/>
+      <c r="F187" s="13"/>
+      <c r="G187" s="13"/>
     </row>
     <row r="188" customHeight="1" spans="1:6">
-      <c r="A188" s="4"/>
-      <c r="B188" s="4"/>
-      <c r="C188" s="15"/>
-      <c r="D188" s="15"/>
-      <c r="E188" s="15"/>
-      <c r="F188" s="15"/>
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="13"/>
+      <c r="D188" s="13"/>
+      <c r="E188" s="13"/>
+      <c r="F188" s="13"/>
     </row>
     <row r="189" customHeight="1" spans="1:6">
-      <c r="A189" s="4"/>
-      <c r="B189" s="4"/>
-      <c r="C189" s="15"/>
-      <c r="D189" s="15"/>
-      <c r="E189" s="15"/>
-      <c r="F189" s="15"/>
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="13"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="13"/>
+      <c r="F189" s="13"/>
     </row>
     <row r="190" customHeight="1" spans="1:6">
-      <c r="A190" s="4"/>
-      <c r="B190" s="4"/>
-      <c r="C190" s="15"/>
-      <c r="D190" s="15"/>
-      <c r="E190" s="15"/>
-      <c r="F190" s="15"/>
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="13"/>
+      <c r="E190" s="13"/>
+      <c r="F190" s="13"/>
     </row>
     <row r="191" customHeight="1" spans="1:6">
-      <c r="A191" s="4"/>
-      <c r="B191" s="4"/>
-      <c r="C191" s="15"/>
-      <c r="D191" s="15"/>
-      <c r="E191" s="15"/>
-      <c r="F191" s="15"/>
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="13"/>
+      <c r="D191" s="13"/>
+      <c r="E191" s="13"/>
+      <c r="F191" s="13"/>
     </row>
     <row r="192" customHeight="1" spans="1:6">
-      <c r="A192" s="4"/>
-      <c r="B192" s="4"/>
-      <c r="C192" s="15"/>
-      <c r="D192" s="15"/>
-      <c r="E192" s="15"/>
-      <c r="F192" s="15"/>
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="13"/>
+      <c r="D192" s="13"/>
+      <c r="E192" s="13"/>
+      <c r="F192" s="13"/>
     </row>
     <row r="193" customHeight="1" spans="1:6">
-      <c r="A193" s="4"/>
-      <c r="B193" s="4"/>
-      <c r="C193" s="15"/>
-      <c r="D193" s="15"/>
-      <c r="E193" s="15"/>
-      <c r="F193" s="15"/>
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="13"/>
+      <c r="D193" s="13"/>
+      <c r="E193" s="13"/>
+      <c r="F193" s="13"/>
     </row>
     <row r="194" customHeight="1" spans="1:6">
-      <c r="A194" s="4"/>
-      <c r="B194" s="4"/>
-      <c r="C194" s="15"/>
-      <c r="D194" s="15"/>
-      <c r="E194" s="15"/>
-      <c r="F194" s="15"/>
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="13"/>
+      <c r="E194" s="13"/>
+      <c r="F194" s="13"/>
     </row>
     <row r="195" customHeight="1" spans="1:6">
-      <c r="A195" s="4"/>
-      <c r="B195" s="4"/>
-      <c r="C195" s="15"/>
-      <c r="D195" s="15"/>
-      <c r="E195" s="15"/>
-      <c r="F195" s="15"/>
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="13"/>
+      <c r="E195" s="13"/>
+      <c r="F195" s="13"/>
     </row>
     <row r="196" customHeight="1" spans="1:6">
-      <c r="A196" s="4"/>
-      <c r="B196" s="4"/>
-      <c r="C196" s="15"/>
-      <c r="D196" s="15"/>
-      <c r="E196" s="15"/>
-      <c r="F196" s="15"/>
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="13"/>
+      <c r="D196" s="13"/>
+      <c r="E196" s="13"/>
+      <c r="F196" s="13"/>
     </row>
     <row r="197" customHeight="1" spans="1:6">
-      <c r="A197" s="4"/>
-      <c r="B197" s="4"/>
-      <c r="C197" s="15"/>
-      <c r="D197" s="15"/>
-      <c r="E197" s="15"/>
-      <c r="F197" s="15"/>
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="13"/>
+      <c r="D197" s="13"/>
+      <c r="E197" s="13"/>
+      <c r="F197" s="13"/>
     </row>
     <row r="198" customHeight="1" spans="1:6">
-      <c r="A198" s="4"/>
-      <c r="B198" s="4"/>
-      <c r="C198" s="15"/>
-      <c r="D198" s="15"/>
-      <c r="E198" s="15"/>
-      <c r="F198" s="15"/>
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="13"/>
+      <c r="F198" s="13"/>
     </row>
     <row r="199" customHeight="1" spans="1:6">
-      <c r="A199" s="4"/>
-      <c r="B199" s="4"/>
-      <c r="C199" s="15"/>
-      <c r="D199" s="15"/>
-      <c r="E199" s="15"/>
-      <c r="F199" s="15"/>
+      <c r="A199" s="3"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="13"/>
+      <c r="D199" s="13"/>
+      <c r="E199" s="13"/>
+      <c r="F199" s="13"/>
     </row>
     <row r="200" customHeight="1" spans="1:6">
-      <c r="A200" s="4"/>
-      <c r="B200" s="4"/>
-      <c r="C200" s="15"/>
-      <c r="D200" s="15"/>
-      <c r="E200" s="15"/>
-      <c r="F200" s="15"/>
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="13"/>
+      <c r="D200" s="13"/>
+      <c r="E200" s="13"/>
+      <c r="F200" s="13"/>
     </row>
     <row r="201" customHeight="1" spans="1:6">
-      <c r="A201" s="4"/>
-      <c r="B201" s="4"/>
-      <c r="C201" s="15"/>
-      <c r="D201" s="15"/>
-      <c r="E201" s="15"/>
-      <c r="F201" s="15"/>
+      <c r="A201" s="3"/>
+      <c r="B201" s="3"/>
+      <c r="C201" s="13"/>
+      <c r="D201" s="13"/>
+      <c r="E201" s="13"/>
+      <c r="F201" s="13"/>
     </row>
     <row r="202" customHeight="1" spans="1:6">
-      <c r="A202" s="4"/>
-      <c r="B202" s="4"/>
-      <c r="C202" s="15"/>
-      <c r="D202" s="15"/>
-      <c r="E202" s="15"/>
-      <c r="F202" s="15"/>
+      <c r="A202" s="3"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="13"/>
+      <c r="D202" s="13"/>
+      <c r="E202" s="13"/>
+      <c r="F202" s="13"/>
     </row>
     <row r="203" customHeight="1" spans="1:6">
-      <c r="A203" s="4"/>
-      <c r="B203" s="4"/>
-      <c r="C203" s="15"/>
-      <c r="D203" s="15"/>
-      <c r="E203" s="15"/>
-      <c r="F203" s="15"/>
+      <c r="A203" s="3"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="13"/>
+      <c r="D203" s="13"/>
+      <c r="E203" s="13"/>
+      <c r="F203" s="13"/>
     </row>
     <row r="204" customHeight="1" spans="1:6">
-      <c r="A204" s="4"/>
-      <c r="B204" s="4"/>
-      <c r="C204" s="15"/>
-      <c r="D204" s="15"/>
-      <c r="E204" s="15"/>
-      <c r="F204" s="15"/>
+      <c r="A204" s="3"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="13"/>
+      <c r="D204" s="13"/>
+      <c r="E204" s="13"/>
+      <c r="F204" s="13"/>
     </row>
     <row r="205" customHeight="1" spans="1:6">
-      <c r="A205" s="4"/>
-      <c r="B205" s="4"/>
-      <c r="C205" s="15"/>
-      <c r="D205" s="15"/>
-      <c r="E205" s="15"/>
-      <c r="F205" s="15"/>
+      <c r="A205" s="3"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="13"/>
+      <c r="D205" s="13"/>
+      <c r="E205" s="13"/>
+      <c r="F205" s="13"/>
     </row>
     <row r="206" customHeight="1" spans="1:6">
-      <c r="A206" s="4"/>
-      <c r="B206" s="4"/>
-      <c r="C206" s="15"/>
-      <c r="D206" s="15"/>
-      <c r="E206" s="15"/>
-      <c r="F206" s="15"/>
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="13"/>
+      <c r="D206" s="13"/>
+      <c r="E206" s="13"/>
+      <c r="F206" s="13"/>
     </row>
     <row r="207" customHeight="1" spans="1:6">
-      <c r="A207" s="4"/>
-      <c r="B207" s="4"/>
-      <c r="C207" s="15"/>
-      <c r="D207" s="15"/>
-      <c r="E207" s="15"/>
-      <c r="F207" s="15"/>
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="13"/>
+      <c r="D207" s="13"/>
+      <c r="E207" s="13"/>
+      <c r="F207" s="13"/>
     </row>
     <row r="208" customHeight="1" spans="1:6">
-      <c r="A208" s="4"/>
-      <c r="B208" s="4"/>
-      <c r="C208" s="15"/>
-      <c r="D208" s="15"/>
-      <c r="E208" s="15"/>
-      <c r="F208" s="15"/>
+      <c r="A208" s="3"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="13"/>
+      <c r="D208" s="13"/>
+      <c r="E208" s="13"/>
+      <c r="F208" s="13"/>
     </row>
     <row r="209" customHeight="1" spans="1:6">
-      <c r="A209" s="4"/>
-      <c r="B209" s="4"/>
-      <c r="C209" s="15"/>
-      <c r="D209" s="15"/>
-      <c r="E209" s="15"/>
-      <c r="F209" s="15"/>
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="13"/>
+      <c r="D209" s="13"/>
+      <c r="E209" s="13"/>
+      <c r="F209" s="13"/>
     </row>
     <row r="210" customHeight="1" spans="1:6">
-      <c r="A210" s="4"/>
-      <c r="B210" s="4"/>
-      <c r="C210" s="15"/>
-      <c r="D210" s="15"/>
-      <c r="E210" s="15"/>
-      <c r="F210" s="15"/>
+      <c r="A210" s="3"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="13"/>
+      <c r="D210" s="13"/>
+      <c r="E210" s="13"/>
+      <c r="F210" s="13"/>
     </row>
     <row r="211" customHeight="1" spans="1:6">
-      <c r="A211" s="4"/>
-      <c r="B211" s="4"/>
-      <c r="C211" s="15"/>
-      <c r="D211" s="15"/>
-      <c r="E211" s="15"/>
-      <c r="F211" s="15"/>
+      <c r="A211" s="3"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="13"/>
+      <c r="D211" s="13"/>
+      <c r="E211" s="13"/>
+      <c r="F211" s="13"/>
     </row>
     <row r="212" customHeight="1" spans="1:6">
-      <c r="A212" s="4"/>
-      <c r="B212" s="4"/>
-      <c r="C212" s="15"/>
-      <c r="D212" s="15"/>
-      <c r="E212" s="15"/>
-      <c r="F212" s="15"/>
+      <c r="A212" s="3"/>
+      <c r="B212" s="3"/>
+      <c r="C212" s="13"/>
+      <c r="D212" s="13"/>
+      <c r="E212" s="13"/>
+      <c r="F212" s="13"/>
     </row>
     <row r="213" customHeight="1" spans="1:6">
-      <c r="A213" s="4"/>
-      <c r="B213" s="4"/>
-      <c r="C213" s="15"/>
-      <c r="D213" s="15"/>
-      <c r="E213" s="15"/>
-      <c r="F213" s="15"/>
+      <c r="A213" s="3"/>
+      <c r="B213" s="3"/>
+      <c r="C213" s="13"/>
+      <c r="D213" s="13"/>
+      <c r="E213" s="13"/>
+      <c r="F213" s="13"/>
     </row>
     <row r="214" customHeight="1" spans="1:6">
-      <c r="A214" s="4"/>
-      <c r="B214" s="4"/>
-      <c r="C214" s="15"/>
-      <c r="D214" s="15"/>
-      <c r="E214" s="15"/>
-      <c r="F214" s="15"/>
+      <c r="A214" s="3"/>
+      <c r="B214" s="3"/>
+      <c r="C214" s="13"/>
+      <c r="D214" s="13"/>
+      <c r="E214" s="13"/>
+      <c r="F214" s="13"/>
     </row>
     <row r="215" customHeight="1" spans="1:6">
-      <c r="A215" s="4"/>
-      <c r="B215" s="4"/>
-      <c r="C215" s="15"/>
-      <c r="D215" s="15"/>
-      <c r="E215" s="15"/>
-      <c r="F215" s="15"/>
+      <c r="A215" s="3"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="13"/>
+      <c r="D215" s="13"/>
+      <c r="E215" s="13"/>
+      <c r="F215" s="13"/>
     </row>
     <row r="216" customHeight="1" spans="1:6">
-      <c r="A216" s="4"/>
-      <c r="B216" s="4"/>
-      <c r="C216" s="15"/>
-      <c r="D216" s="15"/>
-      <c r="E216" s="15"/>
-      <c r="F216" s="15"/>
+      <c r="A216" s="3"/>
+      <c r="B216" s="3"/>
+      <c r="C216" s="13"/>
+      <c r="D216" s="13"/>
+      <c r="E216" s="13"/>
+      <c r="F216" s="13"/>
     </row>
     <row r="217" customHeight="1" spans="1:6">
-      <c r="A217" s="4"/>
-      <c r="B217" s="4"/>
-      <c r="C217" s="15"/>
-      <c r="D217" s="15"/>
-      <c r="E217" s="15"/>
-      <c r="F217" s="15"/>
+      <c r="A217" s="3"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="13"/>
+      <c r="D217" s="13"/>
+      <c r="E217" s="13"/>
+      <c r="F217" s="13"/>
     </row>
     <row r="218" customHeight="1" spans="1:6">
-      <c r="A218" s="4"/>
-      <c r="B218" s="4"/>
-      <c r="C218" s="15"/>
-      <c r="D218" s="15"/>
-      <c r="E218" s="15"/>
-      <c r="F218" s="15"/>
+      <c r="A218" s="3"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="13"/>
+      <c r="D218" s="13"/>
+      <c r="E218" s="13"/>
+      <c r="F218" s="13"/>
     </row>
     <row r="219" customHeight="1" spans="1:6">
-      <c r="A219" s="4"/>
-      <c r="B219" s="4"/>
-      <c r="C219" s="15"/>
-      <c r="D219" s="15"/>
-      <c r="E219" s="15"/>
-      <c r="F219" s="15"/>
+      <c r="A219" s="3"/>
+      <c r="B219" s="3"/>
+      <c r="C219" s="13"/>
+      <c r="D219" s="13"/>
+      <c r="E219" s="13"/>
+      <c r="F219" s="13"/>
     </row>
     <row r="220" customHeight="1" spans="1:6">
-      <c r="A220" s="4"/>
-      <c r="B220" s="4"/>
-      <c r="C220" s="15"/>
-      <c r="D220" s="15"/>
-      <c r="E220" s="15"/>
-      <c r="F220" s="15"/>
+      <c r="A220" s="3"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="13"/>
+      <c r="D220" s="13"/>
+      <c r="E220" s="13"/>
+      <c r="F220" s="13"/>
     </row>
     <row r="221" customHeight="1" spans="1:6">
-      <c r="A221" s="4"/>
-      <c r="B221" s="4"/>
-      <c r="C221" s="15"/>
-      <c r="D221" s="15"/>
-      <c r="E221" s="15"/>
-      <c r="F221" s="15"/>
+      <c r="A221" s="3"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="13"/>
+      <c r="D221" s="13"/>
+      <c r="E221" s="13"/>
+      <c r="F221" s="13"/>
     </row>
     <row r="222" customHeight="1" spans="1:6">
-      <c r="A222" s="4"/>
-      <c r="B222" s="4"/>
-      <c r="C222" s="15"/>
-      <c r="D222" s="15"/>
-      <c r="E222" s="15"/>
-      <c r="F222" s="15"/>
+      <c r="A222" s="3"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="13"/>
+      <c r="D222" s="13"/>
+      <c r="E222" s="13"/>
+      <c r="F222" s="13"/>
     </row>
     <row r="223" customHeight="1" spans="1:6">
-      <c r="A223" s="4"/>
-      <c r="B223" s="4"/>
-      <c r="C223" s="15"/>
-      <c r="D223" s="15"/>
-      <c r="E223" s="15"/>
-      <c r="F223" s="15"/>
+      <c r="A223" s="3"/>
+      <c r="B223" s="3"/>
+      <c r="C223" s="13"/>
+      <c r="D223" s="13"/>
+      <c r="E223" s="13"/>
+      <c r="F223" s="13"/>
     </row>
     <row r="224" customHeight="1" spans="1:6">
-      <c r="A224" s="4"/>
-      <c r="B224" s="4"/>
-      <c r="C224" s="15"/>
-      <c r="D224" s="15"/>
-      <c r="E224" s="15"/>
-      <c r="F224" s="15"/>
+      <c r="A224" s="3"/>
+      <c r="B224" s="3"/>
+      <c r="C224" s="13"/>
+      <c r="D224" s="13"/>
+      <c r="E224" s="13"/>
+      <c r="F224" s="13"/>
     </row>
     <row r="225" customHeight="1" spans="1:6">
-      <c r="A225" s="4"/>
-      <c r="B225" s="4"/>
-      <c r="C225" s="15"/>
-      <c r="D225" s="15"/>
-      <c r="E225" s="15"/>
-      <c r="F225" s="15"/>
+      <c r="A225" s="3"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="13"/>
+      <c r="D225" s="13"/>
+      <c r="E225" s="13"/>
+      <c r="F225" s="13"/>
     </row>
     <row r="226" customHeight="1" spans="1:6">
-      <c r="A226" s="4"/>
-      <c r="B226" s="4"/>
-      <c r="C226" s="15"/>
-      <c r="D226" s="15"/>
-      <c r="E226" s="15"/>
-      <c r="F226" s="15"/>
+      <c r="A226" s="3"/>
+      <c r="B226" s="3"/>
+      <c r="C226" s="13"/>
+      <c r="D226" s="13"/>
+      <c r="E226" s="13"/>
+      <c r="F226" s="13"/>
     </row>
     <row r="227" customHeight="1" spans="1:6">
-      <c r="A227" s="4"/>
-      <c r="B227" s="4"/>
-      <c r="C227" s="15"/>
-      <c r="D227" s="15"/>
-      <c r="E227" s="15"/>
-      <c r="F227" s="15"/>
+      <c r="A227" s="3"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="13"/>
+      <c r="D227" s="13"/>
+      <c r="E227" s="13"/>
+      <c r="F227" s="13"/>
     </row>
     <row r="228" customHeight="1" spans="1:6">
-      <c r="A228" s="4"/>
-      <c r="B228" s="4"/>
-      <c r="C228" s="15"/>
-      <c r="D228" s="15"/>
-      <c r="E228" s="15"/>
-      <c r="F228" s="15"/>
+      <c r="A228" s="3"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="13"/>
+      <c r="D228" s="13"/>
+      <c r="E228" s="13"/>
+      <c r="F228" s="13"/>
     </row>
     <row r="229" customHeight="1" spans="1:6">
-      <c r="A229" s="4"/>
-      <c r="B229" s="4"/>
-      <c r="C229" s="15"/>
-      <c r="D229" s="15"/>
-      <c r="E229" s="15"/>
-      <c r="F229" s="15"/>
+      <c r="A229" s="3"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="13"/>
+      <c r="D229" s="13"/>
+      <c r="E229" s="13"/>
+      <c r="F229" s="13"/>
     </row>
     <row r="230" customHeight="1" spans="1:6">
-      <c r="A230" s="4"/>
-      <c r="B230" s="4"/>
-      <c r="C230" s="15"/>
-      <c r="D230" s="15"/>
-      <c r="E230" s="15"/>
-      <c r="F230" s="15"/>
+      <c r="A230" s="3"/>
+      <c r="B230" s="3"/>
+      <c r="C230" s="13"/>
+      <c r="D230" s="13"/>
+      <c r="E230" s="13"/>
+      <c r="F230" s="13"/>
     </row>
     <row r="231" customHeight="1" spans="1:6">
-      <c r="A231" s="4"/>
-      <c r="B231" s="4"/>
-      <c r="C231" s="15"/>
-      <c r="D231" s="15"/>
-      <c r="E231" s="15"/>
-      <c r="F231" s="15"/>
+      <c r="A231" s="3"/>
+      <c r="B231" s="3"/>
+      <c r="C231" s="13"/>
+      <c r="D231" s="13"/>
+      <c r="E231" s="13"/>
+      <c r="F231" s="13"/>
     </row>
     <row r="232" customHeight="1" spans="1:6">
-      <c r="A232" s="4"/>
-      <c r="B232" s="4"/>
-      <c r="C232" s="15"/>
-      <c r="D232" s="15"/>
-      <c r="E232" s="15"/>
-      <c r="F232" s="15"/>
+      <c r="A232" s="3"/>
+      <c r="B232" s="3"/>
+      <c r="C232" s="13"/>
+      <c r="D232" s="13"/>
+      <c r="E232" s="13"/>
+      <c r="F232" s="13"/>
     </row>
     <row r="233" customHeight="1" spans="1:6">
-      <c r="A233" s="4"/>
-      <c r="B233" s="4"/>
-      <c r="C233" s="15"/>
-      <c r="D233" s="15"/>
-      <c r="E233" s="15"/>
-      <c r="F233" s="15"/>
+      <c r="A233" s="3"/>
+      <c r="B233" s="3"/>
+      <c r="C233" s="13"/>
+      <c r="D233" s="13"/>
+      <c r="E233" s="13"/>
+      <c r="F233" s="13"/>
     </row>
     <row r="234" customHeight="1" spans="1:6">
-      <c r="A234" s="4"/>
-      <c r="B234" s="4"/>
-      <c r="C234" s="15"/>
-      <c r="D234" s="15"/>
-      <c r="E234" s="15"/>
-      <c r="F234" s="15"/>
+      <c r="A234" s="3"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="13"/>
+      <c r="D234" s="13"/>
+      <c r="E234" s="13"/>
+      <c r="F234" s="13"/>
     </row>
     <row r="235" customHeight="1" spans="1:6">
-      <c r="A235" s="4"/>
-      <c r="B235" s="4"/>
-      <c r="C235" s="15"/>
-      <c r="D235" s="15"/>
-      <c r="E235" s="15"/>
-      <c r="F235" s="15"/>
+      <c r="A235" s="3"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="13"/>
+      <c r="D235" s="13"/>
+      <c r="E235" s="13"/>
+      <c r="F235" s="13"/>
     </row>
     <row r="236" customHeight="1" spans="1:6">
-      <c r="A236" s="4"/>
-      <c r="B236" s="4"/>
-      <c r="C236" s="15"/>
-      <c r="D236" s="15"/>
-      <c r="E236" s="15"/>
-      <c r="F236" s="15"/>
+      <c r="A236" s="3"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
+      <c r="E236" s="13"/>
+      <c r="F236" s="13"/>
     </row>
     <row r="237" customHeight="1" spans="1:6">
-      <c r="A237" s="4"/>
-      <c r="B237" s="4"/>
-      <c r="C237" s="15"/>
-      <c r="D237" s="15"/>
-      <c r="E237" s="15"/>
-      <c r="F237" s="15"/>
+      <c r="A237" s="3"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="13"/>
+      <c r="D237" s="13"/>
+      <c r="E237" s="13"/>
+      <c r="F237" s="13"/>
     </row>
     <row r="238" customHeight="1" spans="1:6">
-      <c r="A238" s="4"/>
-      <c r="B238" s="4"/>
-      <c r="C238" s="15"/>
-      <c r="D238" s="15"/>
-      <c r="E238" s="15"/>
-      <c r="F238" s="15"/>
+      <c r="A238" s="3"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="13"/>
+      <c r="D238" s="13"/>
+      <c r="E238" s="13"/>
+      <c r="F238" s="13"/>
     </row>
     <row r="239" customHeight="1" spans="1:6">
-      <c r="A239" s="4"/>
-      <c r="B239" s="4"/>
-      <c r="C239" s="15"/>
-      <c r="D239" s="15"/>
-      <c r="E239" s="15"/>
-      <c r="F239" s="15"/>
+      <c r="A239" s="3"/>
+      <c r="B239" s="3"/>
+      <c r="C239" s="13"/>
+      <c r="D239" s="13"/>
+      <c r="E239" s="13"/>
+      <c r="F239" s="13"/>
     </row>
     <row r="240" customHeight="1" spans="1:6">
-      <c r="A240" s="4"/>
-      <c r="B240" s="4"/>
-      <c r="C240" s="15"/>
-      <c r="D240" s="15"/>
-      <c r="E240" s="15"/>
-      <c r="F240" s="15"/>
+      <c r="A240" s="3"/>
+      <c r="B240" s="3"/>
+      <c r="C240" s="13"/>
+      <c r="D240" s="13"/>
+      <c r="E240" s="13"/>
+      <c r="F240" s="13"/>
     </row>
     <row r="241" customHeight="1" spans="1:6">
-      <c r="A241" s="4"/>
-      <c r="B241" s="4"/>
-      <c r="C241" s="15"/>
-      <c r="D241" s="15"/>
-      <c r="E241" s="15"/>
-      <c r="F241" s="15"/>
+      <c r="A241" s="3"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="13"/>
+      <c r="D241" s="13"/>
+      <c r="E241" s="13"/>
+      <c r="F241" s="13"/>
     </row>
     <row r="242" customHeight="1" spans="1:6">
-      <c r="A242" s="4"/>
-      <c r="B242" s="4"/>
-      <c r="C242" s="15"/>
-      <c r="D242" s="15"/>
-      <c r="E242" s="15"/>
-      <c r="F242" s="15"/>
+      <c r="A242" s="3"/>
+      <c r="B242" s="3"/>
+      <c r="C242" s="13"/>
+      <c r="D242" s="13"/>
+      <c r="E242" s="13"/>
+      <c r="F242" s="13"/>
     </row>
     <row r="243" customHeight="1" spans="1:6">
-      <c r="A243" s="4"/>
-      <c r="B243" s="4"/>
-      <c r="C243" s="15"/>
-      <c r="D243" s="15"/>
-      <c r="E243" s="15"/>
-      <c r="F243" s="15"/>
+      <c r="A243" s="3"/>
+      <c r="B243" s="3"/>
+      <c r="C243" s="13"/>
+      <c r="D243" s="13"/>
+      <c r="E243" s="13"/>
+      <c r="F243" s="13"/>
     </row>
     <row r="244" customHeight="1" spans="1:6">
-      <c r="A244" s="4"/>
-      <c r="B244" s="4"/>
-      <c r="C244" s="15"/>
-      <c r="D244" s="15"/>
-      <c r="E244" s="15"/>
-      <c r="F244" s="15"/>
+      <c r="A244" s="3"/>
+      <c r="B244" s="3"/>
+      <c r="C244" s="13"/>
+      <c r="D244" s="13"/>
+      <c r="E244" s="13"/>
+      <c r="F244" s="13"/>
     </row>
     <row r="245" customHeight="1" spans="1:6">
-      <c r="A245" s="4"/>
-      <c r="B245" s="4"/>
-      <c r="C245" s="15"/>
-      <c r="D245" s="15"/>
-      <c r="E245" s="15"/>
-      <c r="F245" s="15"/>
+      <c r="A245" s="3"/>
+      <c r="B245" s="3"/>
+      <c r="C245" s="13"/>
+      <c r="D245" s="13"/>
+      <c r="E245" s="13"/>
+      <c r="F245" s="13"/>
     </row>
     <row r="246" customHeight="1" spans="1:6">
-      <c r="A246" s="4"/>
-      <c r="B246" s="4"/>
-      <c r="C246" s="15"/>
-      <c r="D246" s="15"/>
-      <c r="E246" s="15"/>
-      <c r="F246" s="15"/>
+      <c r="A246" s="3"/>
+      <c r="B246" s="3"/>
+      <c r="C246" s="13"/>
+      <c r="D246" s="13"/>
+      <c r="E246" s="13"/>
+      <c r="F246" s="13"/>
     </row>
     <row r="247" customHeight="1" spans="1:6">
-      <c r="A247" s="4"/>
-      <c r="B247" s="4"/>
-      <c r="C247" s="15"/>
-      <c r="D247" s="15"/>
-      <c r="E247" s="15"/>
-      <c r="F247" s="15"/>
+      <c r="A247" s="3"/>
+      <c r="B247" s="3"/>
+      <c r="C247" s="13"/>
+      <c r="D247" s="13"/>
+      <c r="E247" s="13"/>
+      <c r="F247" s="13"/>
     </row>
     <row r="248" customHeight="1" spans="1:6">
-      <c r="A248" s="4"/>
-      <c r="B248" s="4"/>
-      <c r="C248" s="15"/>
-      <c r="D248" s="15"/>
-      <c r="E248" s="15"/>
-      <c r="F248" s="15"/>
+      <c r="A248" s="3"/>
+      <c r="B248" s="3"/>
+      <c r="C248" s="13"/>
+      <c r="D248" s="13"/>
+      <c r="E248" s="13"/>
+      <c r="F248" s="13"/>
     </row>
     <row r="249" customHeight="1" spans="1:6">
-      <c r="A249" s="4"/>
-      <c r="B249" s="4"/>
-      <c r="C249" s="15"/>
-      <c r="D249" s="15"/>
-      <c r="E249" s="15"/>
-      <c r="F249" s="15"/>
+      <c r="A249" s="3"/>
+      <c r="B249" s="3"/>
+      <c r="C249" s="13"/>
+      <c r="D249" s="13"/>
+      <c r="E249" s="13"/>
+      <c r="F249" s="13"/>
     </row>
     <row r="250" customHeight="1" spans="1:6">
-      <c r="A250" s="4"/>
-      <c r="B250" s="4"/>
-      <c r="C250" s="15"/>
-      <c r="D250" s="15"/>
-      <c r="E250" s="15"/>
-      <c r="F250" s="15"/>
+      <c r="A250" s="3"/>
+      <c r="B250" s="3"/>
+      <c r="C250" s="13"/>
+      <c r="D250" s="13"/>
+      <c r="E250" s="13"/>
+      <c r="F250" s="13"/>
     </row>
     <row r="251" customHeight="1" spans="1:6">
-      <c r="A251" s="4"/>
-      <c r="B251" s="4"/>
-      <c r="C251" s="15"/>
-      <c r="D251" s="15"/>
-      <c r="E251" s="15"/>
-      <c r="F251" s="15"/>
+      <c r="A251" s="3"/>
+      <c r="B251" s="3"/>
+      <c r="C251" s="13"/>
+      <c r="D251" s="13"/>
+      <c r="E251" s="13"/>
+      <c r="F251" s="13"/>
     </row>
     <row r="252" customHeight="1" spans="1:6">
-      <c r="A252" s="4"/>
-      <c r="B252" s="4"/>
-      <c r="C252" s="15"/>
-      <c r="D252" s="15"/>
-      <c r="E252" s="15"/>
-      <c r="F252" s="15"/>
+      <c r="A252" s="3"/>
+      <c r="B252" s="3"/>
+      <c r="C252" s="13"/>
+      <c r="D252" s="13"/>
+      <c r="E252" s="13"/>
+      <c r="F252" s="13"/>
     </row>
     <row r="253" customHeight="1" spans="1:6">
-      <c r="A253" s="4"/>
-      <c r="B253" s="4"/>
-      <c r="C253" s="15"/>
-      <c r="D253" s="15"/>
-      <c r="E253" s="15"/>
-      <c r="F253" s="15"/>
+      <c r="A253" s="3"/>
+      <c r="B253" s="3"/>
+      <c r="C253" s="13"/>
+      <c r="D253" s="13"/>
+      <c r="E253" s="13"/>
+      <c r="F253" s="13"/>
     </row>
     <row r="254" customHeight="1" spans="1:6">
-      <c r="A254" s="4"/>
-      <c r="B254" s="4"/>
-      <c r="C254" s="15"/>
-      <c r="D254" s="15"/>
-      <c r="E254" s="15"/>
-      <c r="F254" s="15"/>
+      <c r="A254" s="3"/>
+      <c r="B254" s="3"/>
+      <c r="C254" s="13"/>
+      <c r="D254" s="13"/>
+      <c r="E254" s="13"/>
+      <c r="F254" s="13"/>
     </row>
     <row r="255" customHeight="1" spans="1:6">
-      <c r="A255" s="4"/>
-      <c r="B255" s="4"/>
-      <c r="C255" s="15"/>
-      <c r="D255" s="15"/>
-      <c r="E255" s="15"/>
-      <c r="F255" s="15"/>
+      <c r="A255" s="3"/>
+      <c r="B255" s="3"/>
+      <c r="C255" s="13"/>
+      <c r="D255" s="13"/>
+      <c r="E255" s="13"/>
+      <c r="F255" s="13"/>
     </row>
     <row r="256" customHeight="1" spans="1:6">
-      <c r="A256" s="4"/>
-      <c r="B256" s="4"/>
-      <c r="C256" s="15"/>
-      <c r="D256" s="15"/>
-      <c r="E256" s="15"/>
-      <c r="F256" s="15"/>
+      <c r="A256" s="3"/>
+      <c r="B256" s="3"/>
+      <c r="C256" s="13"/>
+      <c r="D256" s="13"/>
+      <c r="E256" s="13"/>
+      <c r="F256" s="13"/>
     </row>
     <row r="257" customHeight="1" spans="1:6">
-      <c r="A257" s="4"/>
-      <c r="B257" s="4"/>
-      <c r="C257" s="15"/>
-      <c r="D257" s="15"/>
-      <c r="E257" s="15"/>
-      <c r="F257" s="15"/>
+      <c r="A257" s="3"/>
+      <c r="B257" s="3"/>
+      <c r="C257" s="13"/>
+      <c r="D257" s="13"/>
+      <c r="E257" s="13"/>
+      <c r="F257" s="13"/>
     </row>
     <row r="258" customHeight="1" spans="1:6">
-      <c r="A258" s="4"/>
-      <c r="B258" s="4"/>
-      <c r="C258" s="15"/>
-      <c r="D258" s="15"/>
-      <c r="E258" s="15"/>
-      <c r="F258" s="15"/>
+      <c r="A258" s="3"/>
+      <c r="B258" s="3"/>
+      <c r="C258" s="13"/>
+      <c r="D258" s="13"/>
+      <c r="E258" s="13"/>
+      <c r="F258" s="13"/>
     </row>
     <row r="259" customHeight="1" spans="1:6">
-      <c r="A259" s="4"/>
-      <c r="B259" s="4"/>
-      <c r="C259" s="15"/>
-      <c r="D259" s="15"/>
-      <c r="E259" s="15"/>
-      <c r="F259" s="15"/>
+      <c r="A259" s="3"/>
+      <c r="B259" s="3"/>
+      <c r="C259" s="13"/>
+      <c r="D259" s="13"/>
+      <c r="E259" s="13"/>
+      <c r="F259" s="13"/>
     </row>
     <row r="260" customHeight="1" spans="1:6">
-      <c r="A260" s="4"/>
-      <c r="B260" s="4"/>
-      <c r="C260" s="15"/>
-      <c r="D260" s="15"/>
-      <c r="E260" s="15"/>
-      <c r="F260" s="15"/>
+      <c r="A260" s="3"/>
+      <c r="B260" s="3"/>
+      <c r="C260" s="13"/>
+      <c r="D260" s="13"/>
+      <c r="E260" s="13"/>
+      <c r="F260" s="13"/>
     </row>
     <row r="261" customHeight="1" spans="1:6">
-      <c r="A261" s="4"/>
-      <c r="B261" s="4"/>
-      <c r="C261" s="15"/>
-      <c r="D261" s="15"/>
-      <c r="E261" s="15"/>
-      <c r="F261" s="15"/>
+      <c r="A261" s="3"/>
+      <c r="B261" s="3"/>
+      <c r="C261" s="13"/>
+      <c r="D261" s="13"/>
+      <c r="E261" s="13"/>
+      <c r="F261" s="13"/>
     </row>
     <row r="262" customHeight="1" spans="1:6">
-      <c r="A262" s="4"/>
-      <c r="B262" s="4"/>
-      <c r="C262" s="15"/>
-      <c r="D262" s="15"/>
-      <c r="E262" s="15"/>
-      <c r="F262" s="15"/>
+      <c r="A262" s="3"/>
+      <c r="B262" s="3"/>
+      <c r="C262" s="13"/>
+      <c r="D262" s="13"/>
+      <c r="E262" s="13"/>
+      <c r="F262" s="13"/>
     </row>
     <row r="263" customHeight="1" spans="1:6">
-      <c r="A263" s="4"/>
-      <c r="B263" s="4"/>
-      <c r="C263" s="15"/>
-      <c r="D263" s="15"/>
-      <c r="E263" s="15"/>
-      <c r="F263" s="15"/>
+      <c r="A263" s="3"/>
+      <c r="B263" s="3"/>
+      <c r="C263" s="13"/>
+      <c r="D263" s="13"/>
+      <c r="E263" s="13"/>
+      <c r="F263" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="466">
+  <mergeCells count="465">
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:G18"/>
@@ -8168,8 +8257,7 @@
     <mergeCell ref="C141:F141"/>
     <mergeCell ref="A142:B142"/>
     <mergeCell ref="C142:F142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="C143:F143"/>
+    <mergeCell ref="A143:F143"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="C144:F144"/>
     <mergeCell ref="A145:B145"/>

--- a/git.xlsx
+++ b/git.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
   <si>
     <r>
       <rPr>
@@ -2512,6 +2512,83 @@
   </si>
   <si>
     <t>4：清除缓存：git rm -r --cached     git add .    git commit -m ''</t>
+  </si>
+  <si>
+    <t>配置别名</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git config </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--global</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> alias.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>别名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>替换的命令</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> --global：针对当前用户起作用，不加只针对当前当前仓库起作用</t>
   </si>
 </sst>
 </file>
@@ -3302,7 +3379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3379,6 +3456,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5465,8 +5548,8 @@
   <sheetPr/>
   <dimension ref="A1:G263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143:F143"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146:F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.6296296296296" defaultRowHeight="25" customHeight="1" outlineLevelCol="6"/>
@@ -6918,10 +7001,10 @@
       <c r="G133" s="13"/>
     </row>
     <row r="134" customHeight="1" spans="1:7">
-      <c r="A134" s="6" t="s">
+      <c r="A134" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="B134" s="6"/>
+      <c r="B134" s="21"/>
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
       <c r="E134" s="13"/>
@@ -7039,8 +7122,10 @@
       <c r="G144" s="13"/>
     </row>
     <row r="145" customHeight="1" spans="1:7">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
+      <c r="A145" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B145" s="26"/>
       <c r="C145" s="13"/>
       <c r="D145" s="13"/>
       <c r="E145" s="13"/>
@@ -7048,9 +7133,13 @@
       <c r="G145" s="13"/>
     </row>
     <row r="146" customHeight="1" spans="1:7">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="13"/>
+      <c r="A146" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B146" s="27"/>
+      <c r="C146" s="13" t="s">
+        <v>165</v>
+      </c>
       <c r="D146" s="13"/>
       <c r="E146" s="13"/>
       <c r="F146" s="13"/>

--- a/git.xlsx
+++ b/git.xlsx
@@ -1230,7 +1230,7 @@
       <rPr>
         <b/>
         <sz val="16"/>
-        <color rgb="FF36E042"/>
+        <color rgb="FF00B050"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -1244,7 +1244,16 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">http://github.com/ </t>
+      <t>http://github.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1254,7 +1263,1150 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">可替换为 </t>
+      <t>可替换为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>git@github.com:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>本地库内容上传至远程库</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1：在 github上创建库 作为远程库</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（库的名字要和本地的一样）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2：用 Git Bash 在对应的本地库下建立远程链接(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之前创建过不用重复创建</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">git remote add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>origin</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> https://github.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录GitHub的账户</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.git</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">3：本地库的所有内容推送到远程库：git push </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-u</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> origin master  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-u ：只用于库的第一次推送（将本地的master推送到远程的master并关联，在之后的推送、拉取可简化命令）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4：之后推送内容只需要在本地相对应的库中：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">git push origin master </t>
+    </r>
+  </si>
+  <si>
+    <t>删除远程原点连接</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">git remote rm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程git仓库</t>
+    </r>
+  </si>
+  <si>
+    <t>取消远程库连接</t>
+  </si>
+  <si>
+    <t>多远程库关联 例：</t>
+  </si>
+  <si>
+    <t>关联 gitHub</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">git remote add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>github</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> git@github.com:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账户</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.git</t>
+    </r>
+  </si>
+  <si>
+    <t>git给远程库的默认名为origin、但要关联多个远程库就要用不同的名称来标识不同的远程库</t>
+  </si>
+  <si>
+    <t>关联 gitee</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">git remote add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gitee</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> git@gitee.com:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账户</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.git</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">分别推送到不同的远程库： git push </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>github</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> master  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  git push </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gitee</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> master</t>
+    </r>
+  </si>
+  <si>
+    <t>本地库克隆远程库/抓取分支</t>
+  </si>
+  <si>
+    <t>1：在 github 创建库 作为远程库</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2：在需要克隆远程库的位置：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>git clone https://github.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录GitHub的账户</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.git  ||  git clone git@github.com:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账户名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库名</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.git</t>
+    </r>
+  </si>
+  <si>
+    <t>拉取远程分支并创建本地分支 方式一：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">git checkout -b </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分支</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> origin/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程分支</t>
+    </r>
+  </si>
+  <si>
+    <t>拉取远程分支并创建本地分支</t>
+  </si>
+  <si>
+    <t>拉取远程分支并创建本地分支 方式二：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">git fetch origin </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程分支X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本地分支X</t>
+    </r>
+  </si>
+  <si>
+    <t>在本地创建分支X但不会切换到 分支X</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>git branch -u origin/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程分支名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建立当前分支喝远程分支的映射关系（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注：哪个分支需要建立映射就切换到哪个分支</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>git branch --set-upstream-to origin/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远支名 本支名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>意思同上</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↑↑↑</t>
+    </r>
+  </si>
+  <si>
+    <t>撤销本地分支与远程分支的映射关系</t>
+  </si>
+  <si>
+    <t>git branch --unset-upstream</t>
+  </si>
+  <si>
+    <t>撤销当前分支与远程分支的映射关系</t>
+  </si>
+  <si>
+    <t>查看远程库信息</t>
+  </si>
+  <si>
+    <t>git remote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git remote -v </t>
+  </si>
+  <si>
+    <t>查看远程库详细信息</t>
+  </si>
+  <si>
+    <t>rebase</t>
+  </si>
+  <si>
+    <t>git rebase</t>
+  </si>
+  <si>
+    <t>将本地末push的分叉提交历史整理成直线(目的：查看历史提交的变化时更容易)</t>
+  </si>
+  <si>
+    <t>标签管理</t>
+  </si>
+  <si>
+    <t>git tag</t>
+  </si>
+  <si>
+    <t>查看所有标签</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">git tag </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;tag_name&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>给当前分支打一个新标签</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;tag_name&gt; &lt;commit_id&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>给指定分支打一个标签</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">git tag    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;tag_name&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;commit_id&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>给历史提交commit打标签</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">git tag </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;tag_name&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-m ""</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;commit_id&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>给指定历史提交的commit打标签(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-a:指定标签名；-b:指定说明文字</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">git tag -d </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;tag_name&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>删除本地标签</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">git show </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;tag_name&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>查看标签信息</t>
+  </si>
+  <si>
+    <t>标签推送到远程</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">git push origin </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;tag_naem&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>推送某个标签到远程库</t>
+  </si>
+  <si>
+    <t>git push origin --tags</t>
+  </si>
+  <si>
+    <t>一次性推送所有本地未推送到远程库的标签</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删除远程标签</t>
     </r>
     <r>
       <rPr>
@@ -1264,32 +2416,20 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">git@github.com: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF36E042"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <t>本地库内容上传至远程库</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1：在 github上创建库 作为远程库</t>
+      <t>(先删除本地)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git push origin :refs/rags/</t>
     </r>
     <r>
       <rPr>
@@ -1299,20 +2439,10 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>（库的名字要和本地的一样）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2：用 Git Bash 在对应的本地库下建立远程链接(</t>
-    </r>
+      <t>&lt;tag_name&gt;</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1320,18 +2450,19 @@
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-      </rPr>
-      <t>之前创建过不用重复创建</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)：</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删除远程标签</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> || </t>
     </r>
     <r>
       <rPr>
@@ -1341,17 +2472,23 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">git remote add </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>origin</t>
+      <t>或者</t>
+    </r>
+  </si>
+  <si>
+    <t>忽略特殊文件</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1：在工作区中添加 </t>
     </r>
     <r>
       <rPr>
@@ -1360,248 +2497,10 @@
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> https://github.com/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登录GitHub的账户</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>库名</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.git</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">3：本地库的所有内容推送到远程库：git push </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-u</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> origin master  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-u ：只用于库的第一次推送（将本地的master推送到远程的master并关联，在之后的推送、拉取可简化命令）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4：之后推送内容只需要在本地相对应的库中：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">git push origin master </t>
-    </r>
-  </si>
-  <si>
-    <t>删除远程原点连接</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">git remote rm </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程git仓库</t>
-    </r>
-  </si>
-  <si>
-    <t>取消远程库连接</t>
-  </si>
-  <si>
-    <t>多远程库关联 例：</t>
-  </si>
-  <si>
-    <t>关联 gitHub</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">git remote add </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>github</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> git@github.com:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>账户</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>库名</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.git</t>
-    </r>
-  </si>
-  <si>
-    <t>git给远程库的默认名为origin、但要关联多个远程库就要用不同的名称来标识不同的远程库</t>
-  </si>
-  <si>
-    <t>关联 gitee</t>
-  </si>
-  <si>
+      <t>.gitignore</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1611,913 +2510,49 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">git remote add </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>gitee</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> git@gitee.com:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>账户</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>库名</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.git</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> 文件</t>
+    </r>
+  </si>
+  <si>
+    <t>2：在该文件中把要忽略的文件名填进去</t>
+  </si>
+  <si>
+    <t>规则(例)：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         *.a        ==&gt;  忽略所有以.a结束的文件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         !lib.a     ==&gt;  lib.a 除外</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         /todo      ==&gt;  仅忽略当前目录下的 TODO 文件(不包括其他目录的)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         lib/       ==&gt;  忽略 lib/ 目录下的所有文件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         doc/*.txt  ==&gt;  会忽略 doc/aaa.txt 但不包括 doc/server/bbb.txt</t>
+  </si>
+  <si>
+    <t>3：将 .gitignore 也提交到 git</t>
+  </si>
+  <si>
+    <t>4：清除缓存：git rm -r --cached     git add .    git commit -m ''</t>
+  </si>
+  <si>
+    <t>配置别名</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">分别推送到不同的远程库： git push </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>github</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> master  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>||</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  git push </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>gitee</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> master</t>
-    </r>
-  </si>
-  <si>
-    <t>本地库克隆远程库/抓取分支</t>
-  </si>
-  <si>
-    <t>1：在 github 创建库 作为远程库</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2：在需要克隆远程库的位置：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>git clone https://github.com/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登录GitHub的账户</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>库名</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.git  ||  git clone git@github.com:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>账户名</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>库名</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.git</t>
-    </r>
-  </si>
-  <si>
-    <t>拉取远程分支并创建本地分支 方式一：</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">git checkout -b </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分支</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> origin/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程分支</t>
-    </r>
-  </si>
-  <si>
-    <t>拉取远程分支并创建本地分支</t>
-  </si>
-  <si>
-    <t>拉取远程分支并创建本地分支 方式二：</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">git fetch origin </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程分支X</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本地分支X</t>
-    </r>
-  </si>
-  <si>
-    <t>在本地创建分支X但不会切换到 分支X</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>git branch -u origin/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程分支名</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>建立当前分支喝远程分支的映射关系（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注：哪个分支需要建立映射就切换到哪个分支</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>git branch --set-upstream-to origin/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远支名 本支名</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>意思同上</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↑↑↑</t>
-    </r>
-  </si>
-  <si>
-    <t>撤销本地分支与远程分支的映射关系</t>
-  </si>
-  <si>
-    <t>git branch --unset-upstream</t>
-  </si>
-  <si>
-    <t>撤销当前分支与远程分支的映射关系</t>
-  </si>
-  <si>
-    <t>查看远程库信息</t>
-  </si>
-  <si>
-    <t>git remote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git remote -v </t>
-  </si>
-  <si>
-    <t>查看远程库详细信息</t>
-  </si>
-  <si>
-    <t>rebase</t>
-  </si>
-  <si>
-    <t>git rebase</t>
-  </si>
-  <si>
-    <t>将本地末push的分叉提交历史整理成直线(目的：查看历史提交的变化时更容易)</t>
-  </si>
-  <si>
-    <t>标签管理</t>
-  </si>
-  <si>
-    <t>git tag</t>
-  </si>
-  <si>
-    <t>查看所有标签</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">git tag </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;tag_name&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>给当前分支打一个新标签</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>git</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;tag_name&gt; &lt;commit_id&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>给指定分支打一个标签</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">git tag    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&lt;tag_name&gt;  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;commit_id&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>给历史提交commit打标签</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">git tag </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-a</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">&lt;tag_name&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-m ""</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;commit_id&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>给指定历史提交的commit打标签(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-a:指定标签名；-b:指定说明文字</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">git tag -d </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;tag_name&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>删除本地标签</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">git show </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;tag_name&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>查看标签信息</t>
-  </si>
-  <si>
-    <t>标签推送到远程</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">git push origin </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;tag_naem&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>推送某个标签到远程库</t>
-  </si>
-  <si>
-    <t>git push origin --tags</t>
-  </si>
-  <si>
-    <t>一次性推送所有本地未推送到远程库的标签</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>删除远程标签</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(先删除本地)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>git push origin :refs/rags/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;tag_name&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>删除远程标签</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> || </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>或者</t>
-    </r>
-  </si>
-  <si>
-    <t>忽略特殊文件</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1：在工作区中添加 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.gitignore</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 文件</t>
-    </r>
-  </si>
-  <si>
-    <t>2：在该文件中把要忽略的文件名填进去</t>
-  </si>
-  <si>
-    <t>规则(例)：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         *.a        ==&gt;  忽略所有以.a结束的文件</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         !lib.a     ==&gt;  lib.a 除外</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         /todo      ==&gt;  仅忽略当前目录下的 TODO 文件(不包括其他目录的)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         lib/       ==&gt;  忽略 lib/ 目录下的所有文件</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         doc/*.txt  ==&gt;  会忽略 doc/aaa.txt 但不包括 doc/server/bbb.txt</t>
-  </si>
-  <si>
-    <t>3：将 .gitignore 也提交到 git</t>
-  </si>
-  <si>
-    <t>4：清除缓存：git rm -r --cached     git add .    git commit -m ''</t>
-  </si>
-  <si>
-    <t>配置别名</t>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">git config </t>
     </r>
     <r>
@@ -2596,12 +2631,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2680,13 +2715,6 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -2701,8 +2729,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2732,7 +2767,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2748,30 +2820,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2785,61 +2872,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2896,13 +2931,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color rgb="FF36E042"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2938,7 +2966,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2950,61 +3098,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3022,43 +3122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3070,31 +3134,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3106,19 +3146,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3167,32 +3195,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3215,17 +3222,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3237,10 +3265,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3249,31 +3277,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3282,104 +3310,104 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3441,27 +3469,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5548,8 +5570,8 @@
   <sheetPr/>
   <dimension ref="A1:G263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146:F146"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79:F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.6296296296296" defaultRowHeight="25" customHeight="1" outlineLevelCol="6"/>
@@ -6390,18 +6412,18 @@
       <c r="A78" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
       <c r="G78" s="13"/>
     </row>
     <row r="79" customHeight="1" spans="1:7">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="22"/>
+      <c r="B79" s="21"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
@@ -6409,7 +6431,7 @@
       <c r="G79" s="13"/>
     </row>
     <row r="80" customHeight="1" spans="1:7">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="22" t="s">
         <v>92</v>
       </c>
       <c r="B80" s="4"/>
@@ -6420,7 +6442,7 @@
       <c r="G80" s="13"/>
     </row>
     <row r="81" customHeight="1" spans="1:7">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="22" t="s">
         <v>93</v>
       </c>
       <c r="B81" s="4"/>
@@ -6431,7 +6453,7 @@
       <c r="G81" s="13"/>
     </row>
     <row r="82" customHeight="1" spans="1:7">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="22" t="s">
         <v>94</v>
       </c>
       <c r="B82" s="4"/>
@@ -6462,10 +6484,10 @@
       <c r="G84" s="13"/>
     </row>
     <row r="85" customHeight="1" spans="1:7">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B85" s="22"/>
+      <c r="B85" s="21"/>
       <c r="G85" s="13"/>
     </row>
     <row r="86" customHeight="1" spans="1:7">
@@ -6491,10 +6513,10 @@
       <c r="G87" s="13"/>
     </row>
     <row r="88" customHeight="1" spans="1:7">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B88" s="21"/>
+      <c r="B88" s="23"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
@@ -6550,10 +6572,10 @@
       <c r="G92" s="13"/>
     </row>
     <row r="93" customHeight="1" spans="1:7">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B93" s="22"/>
+      <c r="B93" s="21"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
@@ -6572,7 +6594,7 @@
       <c r="G94" s="13"/>
     </row>
     <row r="95" customHeight="1" spans="1:7">
-      <c r="A95" s="23" t="s">
+      <c r="A95" s="22" t="s">
         <v>108</v>
       </c>
       <c r="B95" s="4"/>
@@ -6592,10 +6614,10 @@
       <c r="G96" s="13"/>
     </row>
     <row r="97" customHeight="1" spans="1:7">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B97" s="22"/>
+      <c r="B97" s="21"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -6625,10 +6647,10 @@
       <c r="G99" s="13"/>
     </row>
     <row r="100" customHeight="1" spans="1:7">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B100" s="22"/>
+      <c r="B100" s="21"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -6684,10 +6706,10 @@
       <c r="G104" s="13"/>
     </row>
     <row r="105" customHeight="1" spans="1:7">
-      <c r="A105" s="22" t="s">
+      <c r="A105" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B105" s="22"/>
+      <c r="B105" s="21"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -6717,10 +6739,10 @@
       <c r="G107" s="13"/>
     </row>
     <row r="108" customHeight="1" spans="1:7">
-      <c r="A108" s="22" t="s">
+      <c r="A108" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B108" s="22"/>
+      <c r="B108" s="21"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
@@ -6778,10 +6800,10 @@
       <c r="G114" s="13"/>
     </row>
     <row r="115" customHeight="1" spans="1:7">
-      <c r="A115" s="21" t="s">
+      <c r="A115" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B115" s="21"/>
+      <c r="B115" s="23"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
@@ -6811,10 +6833,10 @@
       <c r="G117" s="13"/>
     </row>
     <row r="118" customHeight="1" spans="1:7">
-      <c r="A118" s="21" t="s">
+      <c r="A118" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B118" s="21"/>
+      <c r="B118" s="23"/>
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
@@ -6922,10 +6944,10 @@
       <c r="G126" s="13"/>
     </row>
     <row r="127" customHeight="1" spans="1:7">
-      <c r="A127" s="21" t="s">
+      <c r="A127" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B127" s="21"/>
+      <c r="B127" s="23"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
@@ -6968,10 +6990,10 @@
       <c r="G130" s="13"/>
     </row>
     <row r="131" customHeight="1" spans="1:7">
-      <c r="A131" s="21" t="s">
+      <c r="A131" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="B131" s="21"/>
+      <c r="B131" s="23"/>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
       <c r="E131" s="13"/>
@@ -7001,10 +7023,10 @@
       <c r="G133" s="13"/>
     </row>
     <row r="134" customHeight="1" spans="1:7">
-      <c r="A134" s="21" t="s">
+      <c r="A134" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="B134" s="21"/>
+      <c r="B134" s="23"/>
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
       <c r="E134" s="13"/>
@@ -7122,10 +7144,10 @@
       <c r="G144" s="13"/>
     </row>
     <row r="145" customHeight="1" spans="1:7">
-      <c r="A145" s="26" t="s">
+      <c r="A145" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="B145" s="26"/>
+      <c r="B145" s="23"/>
       <c r="C145" s="13"/>
       <c r="D145" s="13"/>
       <c r="E145" s="13"/>
@@ -7133,10 +7155,10 @@
       <c r="G145" s="13"/>
     </row>
     <row r="146" customHeight="1" spans="1:7">
-      <c r="A146" s="27" t="s">
+      <c r="A146" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="B146" s="27"/>
+      <c r="B146" s="13"/>
       <c r="C146" s="13" t="s">
         <v>165</v>
       </c>
@@ -8229,7 +8251,7 @@
     <mergeCell ref="C76:F76"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="C77:F77"/>
-    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A78:F78"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:F79"/>
     <mergeCell ref="A80:F80"/>

--- a/git.xlsx
+++ b/git.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
   <si>
     <r>
       <rPr>
@@ -1884,6 +1884,24 @@
   </si>
   <si>
     <t>拉取远程分支并创建本地分支 方式一：</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git pull </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[github] [master]</t>
+    </r>
+  </si>
+  <si>
+    <t>拉取远程分支并与本地分支合并</t>
   </si>
   <si>
     <r>
@@ -2743,9 +2761,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2773,14 +2790,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -2796,10 +2805,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2818,9 +2844,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2833,40 +2859,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2875,6 +2870,29 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2966,13 +2984,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2990,163 +3152,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3162,11 +3180,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3176,6 +3192,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3191,6 +3222,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3221,39 +3267,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3265,10 +3283,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3277,130 +3295,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5235,13 +5253,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1562100</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1581150</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -5251,7 +5269,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5506085" y="41255950"/>
+          <a:off x="5506085" y="41573450"/>
           <a:ext cx="19050" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5568,10 +5586,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G263"/>
+  <dimension ref="A1:G264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79:F79"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98:B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.6296296296296" defaultRowHeight="25" customHeight="1" outlineLevelCol="6"/>
@@ -6625,7 +6643,7 @@
       <c r="G97" s="13"/>
     </row>
     <row r="98" customHeight="1" spans="1:7">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="22" t="s">
         <v>110</v>
       </c>
       <c r="B98" s="4"/>
@@ -6638,19 +6656,21 @@
       <c r="G98" s="13"/>
     </row>
     <row r="99" customHeight="1" spans="1:7">
-      <c r="A99" s="4"/>
+      <c r="A99" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
+      <c r="C99" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="13"/>
     </row>
     <row r="100" customHeight="1" spans="1:7">
-      <c r="A100" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B100" s="21"/>
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -6658,13 +6678,11 @@
       <c r="G100" s="13"/>
     </row>
     <row r="101" customHeight="1" spans="1:7">
-      <c r="A101" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4" t="s">
+      <c r="A101" s="21" t="s">
         <v>114</v>
       </c>
+      <c r="B101" s="21"/>
+      <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -6697,19 +6715,21 @@
       <c r="G103" s="13"/>
     </row>
     <row r="104" customHeight="1" spans="1:7">
-      <c r="A104" s="4"/>
+      <c r="A104" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
+      <c r="C104" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="13"/>
     </row>
     <row r="105" customHeight="1" spans="1:7">
-      <c r="A105" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B105" s="21"/>
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -6717,46 +6737,44 @@
       <c r="G105" s="13"/>
     </row>
     <row r="106" customHeight="1" spans="1:7">
-      <c r="A106" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4" t="s">
+      <c r="A106" s="21" t="s">
         <v>121</v>
       </c>
+      <c r="B106" s="21"/>
+      <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="13"/>
     </row>
     <row r="107" customHeight="1" spans="1:7">
-      <c r="A107" s="4"/>
+      <c r="A107" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
+      <c r="C107" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="13"/>
     </row>
     <row r="108" customHeight="1" spans="1:7">
-      <c r="A108" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B108" s="21"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
       <c r="G108" s="13"/>
     </row>
     <row r="109" customHeight="1" spans="1:7">
-      <c r="A109" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="13" t="s">
-        <v>122</v>
-      </c>
+      <c r="A109" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B109" s="21"/>
+      <c r="C109" s="13"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
@@ -6764,11 +6782,11 @@
     </row>
     <row r="110" customHeight="1" spans="1:7">
       <c r="A110" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
@@ -6776,34 +6794,36 @@
       <c r="G110" s="13"/>
     </row>
     <row r="111" customHeight="1" spans="1:7">
-      <c r="A111" s="3"/>
+      <c r="A111" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
+      <c r="C111" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
       <c r="G111" s="13"/>
     </row>
-    <row r="112" customHeight="1" spans="7:7">
+    <row r="112" customHeight="1" spans="1:7">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
       <c r="G112" s="13"/>
     </row>
     <row r="113" customHeight="1" spans="7:7">
       <c r="G113" s="13"/>
     </row>
-    <row r="114" customHeight="1" spans="1:7">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
+    <row r="114" customHeight="1" spans="7:7">
       <c r="G114" s="13"/>
     </row>
     <row r="115" customHeight="1" spans="1:7">
-      <c r="A115" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B115" s="23"/>
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
@@ -6811,32 +6831,32 @@
       <c r="G115" s="13"/>
     </row>
     <row r="116" customHeight="1" spans="1:7">
-      <c r="A116" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B116" s="3"/>
-      <c r="C116" s="13" t="s">
+      <c r="A116" s="23" t="s">
         <v>128</v>
       </c>
+      <c r="B116" s="23"/>
+      <c r="C116" s="13"/>
       <c r="D116" s="13"/>
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
     </row>
     <row r="117" customHeight="1" spans="1:7">
-      <c r="A117" s="3"/>
+      <c r="A117" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="B117" s="3"/>
-      <c r="C117" s="13"/>
+      <c r="C117" s="13" t="s">
+        <v>130</v>
+      </c>
       <c r="D117" s="13"/>
       <c r="E117" s="13"/>
       <c r="F117" s="13"/>
       <c r="G117" s="13"/>
     </row>
     <row r="118" customHeight="1" spans="1:7">
-      <c r="A118" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="B118" s="23"/>
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
@@ -6844,13 +6864,11 @@
       <c r="G118" s="13"/>
     </row>
     <row r="119" customHeight="1" spans="1:7">
-      <c r="A119" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B119" s="3"/>
-      <c r="C119" s="13" t="s">
+      <c r="A119" s="23" t="s">
         <v>131</v>
       </c>
+      <c r="B119" s="23"/>
+      <c r="C119" s="13"/>
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
@@ -6870,10 +6888,10 @@
       <c r="G120" s="13"/>
     </row>
     <row r="121" customHeight="1" spans="1:7">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B121" s="14"/>
+      <c r="B121" s="3"/>
       <c r="C121" s="13" t="s">
         <v>135</v>
       </c>
@@ -6883,10 +6901,10 @@
       <c r="G121" s="13"/>
     </row>
     <row r="122" customHeight="1" spans="1:7">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B122" s="3"/>
+      <c r="B122" s="14"/>
       <c r="C122" s="13" t="s">
         <v>137</v>
       </c>
@@ -6909,11 +6927,11 @@
       <c r="G123" s="13"/>
     </row>
     <row r="124" customHeight="1" spans="1:7">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B124" s="4"/>
-      <c r="C124" s="15" t="s">
+      <c r="B124" s="3"/>
+      <c r="C124" s="13" t="s">
         <v>141</v>
       </c>
       <c r="D124" s="13"/>
@@ -6922,11 +6940,11 @@
       <c r="G124" s="13"/>
     </row>
     <row r="125" customHeight="1" spans="1:7">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="13" t="s">
+      <c r="B125" s="4"/>
+      <c r="C125" s="15" t="s">
         <v>143</v>
       </c>
       <c r="D125" s="13"/>
@@ -6935,19 +6953,21 @@
       <c r="G125" s="13"/>
     </row>
     <row r="126" customHeight="1" spans="1:7">
-      <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
+      <c r="A126" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B126" s="3"/>
+      <c r="C126" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
       <c r="G126" s="13"/>
     </row>
     <row r="127" customHeight="1" spans="1:7">
-      <c r="A127" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="B127" s="23"/>
+      <c r="A127" s="7"/>
+      <c r="B127" s="7"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
@@ -6955,16 +6975,14 @@
       <c r="G127" s="13"/>
     </row>
     <row r="128" customHeight="1" spans="1:7">
-      <c r="A128" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B128" s="3"/>
-      <c r="C128" s="13" t="s">
+      <c r="A128" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
       <c r="G128" s="13"/>
     </row>
     <row r="129" customHeight="1" spans="1:7">
@@ -6981,19 +6999,21 @@
       <c r="G129" s="13"/>
     </row>
     <row r="130" customHeight="1" spans="1:7">
-      <c r="A130" s="3"/>
+      <c r="A130" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="B130" s="3"/>
-      <c r="C130" s="13"/>
+      <c r="C130" s="13" t="s">
+        <v>150</v>
+      </c>
       <c r="D130" s="13"/>
       <c r="E130" s="13"/>
       <c r="F130" s="13"/>
       <c r="G130" s="13"/>
     </row>
     <row r="131" customHeight="1" spans="1:7">
-      <c r="A131" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="B131" s="23"/>
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
       <c r="E131" s="13"/>
@@ -7001,32 +7021,32 @@
       <c r="G131" s="13"/>
     </row>
     <row r="132" customHeight="1" spans="1:7">
-      <c r="A132" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B132" s="3"/>
-      <c r="C132" s="15" t="s">
+      <c r="A132" s="23" t="s">
         <v>151</v>
       </c>
+      <c r="B132" s="23"/>
+      <c r="C132" s="13"/>
       <c r="D132" s="13"/>
       <c r="E132" s="13"/>
       <c r="F132" s="13"/>
       <c r="G132" s="13"/>
     </row>
     <row r="133" customHeight="1" spans="1:7">
-      <c r="A133" s="3"/>
+      <c r="A133" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="B133" s="3"/>
-      <c r="C133" s="13"/>
+      <c r="C133" s="15" t="s">
+        <v>153</v>
+      </c>
       <c r="D133" s="13"/>
       <c r="E133" s="13"/>
       <c r="F133" s="13"/>
       <c r="G133" s="13"/>
     </row>
     <row r="134" customHeight="1" spans="1:7">
-      <c r="A134" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="B134" s="23"/>
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
       <c r="E134" s="13"/>
@@ -7034,10 +7054,10 @@
       <c r="G134" s="13"/>
     </row>
     <row r="135" customHeight="1" spans="1:7">
-      <c r="A135" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B135" s="3"/>
+      <c r="A135" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B135" s="23"/>
       <c r="C135" s="13"/>
       <c r="D135" s="13"/>
       <c r="E135" s="13"/>
@@ -7046,22 +7066,22 @@
     </row>
     <row r="136" customHeight="1" spans="1:7">
       <c r="A136" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B136" s="3"/>
-      <c r="C136" s="13" t="s">
-        <v>155</v>
-      </c>
+      <c r="C136" s="13"/>
       <c r="D136" s="13"/>
       <c r="E136" s="13"/>
       <c r="F136" s="13"/>
       <c r="G136" s="13"/>
     </row>
     <row r="137" customHeight="1" spans="1:7">
-      <c r="A137" s="3"/>
+      <c r="A137" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="B137" s="3"/>
       <c r="C137" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D137" s="13"/>
       <c r="E137" s="13"/>
@@ -7072,7 +7092,7 @@
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D138" s="13"/>
       <c r="E138" s="13"/>
@@ -7083,7 +7103,7 @@
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D139" s="13"/>
       <c r="E139" s="13"/>
@@ -7094,7 +7114,7 @@
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D140" s="13"/>
       <c r="E140" s="13"/>
@@ -7105,7 +7125,7 @@
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D141" s="13"/>
       <c r="E141" s="13"/>
@@ -7113,11 +7133,11 @@
       <c r="G141" s="13"/>
     </row>
     <row r="142" customHeight="1" spans="1:7">
-      <c r="A142" s="3" t="s">
-        <v>161</v>
-      </c>
+      <c r="A142" s="3"/>
       <c r="B142" s="3"/>
-      <c r="C142" s="13"/>
+      <c r="C142" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="D142" s="13"/>
       <c r="E142" s="13"/>
       <c r="F142" s="13"/>
@@ -7125,29 +7145,29 @@
     </row>
     <row r="143" customHeight="1" spans="1:7">
       <c r="A143" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
       <c r="G143" s="13"/>
     </row>
     <row r="144" customHeight="1" spans="1:7">
-      <c r="A144" s="3"/>
+      <c r="A144" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="B144" s="3"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="13"/>
-      <c r="F144" s="13"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
       <c r="G144" s="13"/>
     </row>
     <row r="145" customHeight="1" spans="1:7">
-      <c r="A145" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="B145" s="23"/>
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
       <c r="C145" s="13"/>
       <c r="D145" s="13"/>
       <c r="E145" s="13"/>
@@ -7155,22 +7175,24 @@
       <c r="G145" s="13"/>
     </row>
     <row r="146" customHeight="1" spans="1:7">
-      <c r="A146" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B146" s="13"/>
-      <c r="C146" s="13" t="s">
+      <c r="A146" s="23" t="s">
         <v>165</v>
       </c>
+      <c r="B146" s="23"/>
+      <c r="C146" s="13"/>
       <c r="D146" s="13"/>
       <c r="E146" s="13"/>
       <c r="F146" s="13"/>
       <c r="G146" s="13"/>
     </row>
     <row r="147" customHeight="1" spans="1:7">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="13"/>
+      <c r="A147" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B147" s="13"/>
+      <c r="C147" s="13" t="s">
+        <v>167</v>
+      </c>
       <c r="D147" s="13"/>
       <c r="E147" s="13"/>
       <c r="F147" s="13"/>
@@ -7536,13 +7558,14 @@
       <c r="F187" s="13"/>
       <c r="G187" s="13"/>
     </row>
-    <row r="188" customHeight="1" spans="1:6">
+    <row r="188" customHeight="1" spans="1:7">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="13"/>
       <c r="D188" s="13"/>
       <c r="E188" s="13"/>
       <c r="F188" s="13"/>
+      <c r="G188" s="13"/>
     </row>
     <row r="189" customHeight="1" spans="1:6">
       <c r="A189" s="3"/>
@@ -8144,8 +8167,16 @@
       <c r="E263" s="13"/>
       <c r="F263" s="13"/>
     </row>
+    <row r="264" customHeight="1" spans="1:6">
+      <c r="A264" s="3"/>
+      <c r="B264" s="3"/>
+      <c r="C264" s="13"/>
+      <c r="D264" s="13"/>
+      <c r="E264" s="13"/>
+      <c r="F264" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="465">
+  <mergeCells count="467">
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:G18"/>
@@ -8310,8 +8341,8 @@
     <mergeCell ref="C110:F110"/>
     <mergeCell ref="A111:B111"/>
     <mergeCell ref="C111:F111"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="C114:F114"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:F112"/>
     <mergeCell ref="A115:B115"/>
     <mergeCell ref="C115:F115"/>
     <mergeCell ref="A116:B116"/>
@@ -8368,9 +8399,9 @@
     <mergeCell ref="C141:F141"/>
     <mergeCell ref="A142:B142"/>
     <mergeCell ref="C142:F142"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:F144"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:F143"/>
+    <mergeCell ref="A144:F144"/>
     <mergeCell ref="A145:B145"/>
     <mergeCell ref="C145:F145"/>
     <mergeCell ref="A146:B146"/>
@@ -8609,6 +8640,8 @@
     <mergeCell ref="C262:F262"/>
     <mergeCell ref="A263:B263"/>
     <mergeCell ref="C263:F263"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="C264:F264"/>
     <mergeCell ref="A1:E15"/>
     <mergeCell ref="E89:F90"/>
   </mergeCells>
